--- a/Funding Model Inputs 2021.xlsx
+++ b/Funding Model Inputs 2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swaro\Desktop\Montana PERS Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truongbui/Dropbox/Work/Reason/Reason Work/Montana/Benefit Models/Montana-PERS-BModel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6129864-DD48-46E8-A25C-FF3D0D4E3C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5611FD9-09DA-7741-A210-A0F992E41F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Numeric Inputs" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="257">
   <si>
     <t>Economic Inputs</t>
   </si>
@@ -61,18 +61,12 @@
     <t>Employer Contribution Policy</t>
   </si>
   <si>
-    <t>Statutory Rate</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>Layered</t>
   </si>
   <si>
-    <t>Amortization Base Increase Rate</t>
-  </si>
-  <si>
     <t>AVA Corridor - lower bound (% of MVA)</t>
   </si>
   <si>
@@ -217,9 +211,6 @@
     <t>Payroll_growth</t>
   </si>
   <si>
-    <t>AmoBaseInc</t>
-  </si>
-  <si>
     <t>AVA_lowerbound</t>
   </si>
   <si>
@@ -256,12 +247,6 @@
     <t>PayrollNewTier</t>
   </si>
   <si>
-    <t>MOYNCExistOrigDR</t>
-  </si>
-  <si>
-    <t>MOYNCExistNewDR</t>
-  </si>
-  <si>
     <t>ROA_MVA</t>
   </si>
   <si>
@@ -277,9 +262,6 @@
     <t>FR_MVA</t>
   </si>
   <si>
-    <t>Total_Contrib</t>
-  </si>
-  <si>
     <t>Total_ER</t>
   </si>
   <si>
@@ -364,18 +346,6 @@
     <t>EE_NC_NewHires</t>
   </si>
   <si>
-    <t>Total_Contrib_DB</t>
-  </si>
-  <si>
-    <t>Total_Contrib_DC</t>
-  </si>
-  <si>
-    <t>MOYNCNewHiresOrigDR</t>
-  </si>
-  <si>
-    <t>MOYNCNewHiresNewDR</t>
-  </si>
-  <si>
     <t>ER_NC_CurrentHires</t>
   </si>
   <si>
@@ -415,21 +385,12 @@
     <t>AllInCost</t>
   </si>
   <si>
-    <t>OriginalDR</t>
-  </si>
-  <si>
-    <t>NewDR</t>
-  </si>
-  <si>
     <t>Total_EE</t>
   </si>
   <si>
     <t>Additional_ER</t>
   </si>
   <si>
-    <t>BenPayments</t>
-  </si>
-  <si>
     <t>Refunds</t>
   </si>
   <si>
@@ -460,30 +421,12 @@
     <t>AmoFactor</t>
   </si>
   <si>
-    <t>Discount rate</t>
-  </si>
-  <si>
-    <t>Discount rate Projection</t>
-  </si>
-  <si>
-    <t>dis_r</t>
-  </si>
-  <si>
-    <t>dis_r_proj</t>
-  </si>
-  <si>
     <t>Normal Cost - Current Hire</t>
   </si>
   <si>
     <t>Normal Cost - New Hire</t>
   </si>
   <si>
-    <t>Multiplier for New Hire Plan</t>
-  </si>
-  <si>
-    <t>Plan_Multiplier</t>
-  </si>
-  <si>
     <t>Percentage of plans not used for New Hires</t>
   </si>
   <si>
@@ -586,24 +529,6 @@
     <t>MVA_NewHires</t>
   </si>
   <si>
-    <t>AccrLiabOrigDR_Total</t>
-  </si>
-  <si>
-    <t>AccrLiabOrigDR_CurrentHires</t>
-  </si>
-  <si>
-    <t>AccrLiabOrigDR_NewHires</t>
-  </si>
-  <si>
-    <t>AccrLiabNewDR_Total</t>
-  </si>
-  <si>
-    <t>AccrLiabNewDR_CurrentHires</t>
-  </si>
-  <si>
-    <t>AccrLiabNewDR_NewHires</t>
-  </si>
-  <si>
     <t>UAL_AVA_InflAdj</t>
   </si>
   <si>
@@ -691,18 +616,6 @@
     <t>ADC_Cond</t>
   </si>
   <si>
-    <t>AmoPeriod_CurrentHires</t>
-  </si>
-  <si>
-    <t>AmoPeriod_NewHires</t>
-  </si>
-  <si>
-    <t>Amortization Period - Current Hires</t>
-  </si>
-  <si>
-    <t>Amortization Period - New  Hires</t>
-  </si>
-  <si>
     <t>EE_AmoRate_NewHires</t>
   </si>
   <si>
@@ -779,19 +692,140 @@
   </si>
   <si>
     <t>ERPolicy</t>
+  </si>
+  <si>
+    <t>dis_r_current</t>
+  </si>
+  <si>
+    <t>dis_r_new</t>
+  </si>
+  <si>
+    <t>Discount rate for new hires</t>
+  </si>
+  <si>
+    <t>Discount rate for current hires</t>
+  </si>
+  <si>
+    <t>Fixed Statutory</t>
+  </si>
+  <si>
+    <t>NoYearsADC_CurrentDebt</t>
+  </si>
+  <si>
+    <t>NoYearsADC_NewDebtCurrentHire</t>
+  </si>
+  <si>
+    <t>NoYearsADC_NewDebtNewHire</t>
+  </si>
+  <si>
+    <t>Amortization Period - Current Debt</t>
+  </si>
+  <si>
+    <t>Amortization Period - New Debt, Current Hires</t>
+  </si>
+  <si>
+    <t>Amortization Period - New Debt, New Hires</t>
+  </si>
+  <si>
+    <t>Funding Policy</t>
+  </si>
+  <si>
+    <t>AmoMethod_NewHire</t>
+  </si>
+  <si>
+    <t>AmoMethod_CurrentHire</t>
+  </si>
+  <si>
+    <t>Level %</t>
+  </si>
+  <si>
+    <t>Additional Cash Infusion (2022)</t>
+  </si>
+  <si>
+    <t>CashInfusion</t>
+  </si>
+  <si>
+    <t>AmoBaseInc_CurrentHire</t>
+  </si>
+  <si>
+    <t>AmoBaseInc_NewHire</t>
+  </si>
+  <si>
+    <t>Amortization Base Increase Rate - Current Hires</t>
+  </si>
+  <si>
+    <t>Amortization Base Increase Rate - New Hires</t>
+  </si>
+  <si>
+    <t>Amo method - current hires (level $ of %)</t>
+  </si>
+  <si>
+    <t>Amo method - new hires (level $ of %)</t>
+  </si>
+  <si>
+    <t>Level $</t>
+  </si>
+  <si>
+    <t>CurrentHires_DR</t>
+  </si>
+  <si>
+    <t>NewHires_DR</t>
+  </si>
+  <si>
+    <t>BenPayments_BaseTotal</t>
+  </si>
+  <si>
+    <t>BenPayments_BaseNew</t>
+  </si>
+  <si>
+    <t>Current DB Benefit Multiplier</t>
+  </si>
+  <si>
+    <t>BenMult_current</t>
+  </si>
+  <si>
+    <t>New DB Benefit Multiplier</t>
+  </si>
+  <si>
+    <t>BenMult_new</t>
+  </si>
+  <si>
+    <t>AccrLiab_Total</t>
+  </si>
+  <si>
+    <t>AccrLiab_CurrentHires</t>
+  </si>
+  <si>
+    <t>AccrLiab_NewHires</t>
+  </si>
+  <si>
+    <t>MOYNCExist</t>
+  </si>
+  <si>
+    <t>MOYNCNewHires</t>
+  </si>
+  <si>
+    <t>Total_ERContrib_DB</t>
+  </si>
+  <si>
+    <t>Total_ERContrib</t>
+  </si>
+  <si>
+    <t>ERContrib_DC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -1040,7 +1074,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1293,6 +1327,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1580,486 +1619,546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="48.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>220</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>217</v>
       </c>
       <c r="C2" s="25">
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="C3" s="25">
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" s="25">
         <v>2.75E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" t="s">
-        <v>146</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="103" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" s="96" t="s">
+        <v>246</v>
       </c>
       <c r="C6" s="26">
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B7" t="s">
-        <v>148</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="103" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="96" t="s">
+        <v>248</v>
       </c>
       <c r="C7" s="26">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="26">
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
         <v>54</v>
       </c>
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="25">
+      <c r="C9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="25">
         <v>9.7100000000000006E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="25">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>144</v>
       </c>
-      <c r="B10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="25">
-        <v>8.8999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="25">
-        <v>7.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>89</v>
-      </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="C12" s="25">
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="C13" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="80" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="80" t="s">
-        <v>197</v>
-      </c>
-      <c r="B14" s="80" t="s">
-        <v>198</v>
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" t="s">
+        <v>131</v>
       </c>
       <c r="C14" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="26">
+      <c r="D14"/>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="80" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="80" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0</v>
+      </c>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="26">
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="26">
+    <row r="17" spans="1:6" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="26">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" s="96" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B17" s="96" t="s">
-        <v>204</v>
-      </c>
-      <c r="C17" s="27">
+      <c r="D17"/>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:6" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="96" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" s="96" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="27">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="96" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="96" t="s">
-        <v>210</v>
-      </c>
-      <c r="B18" s="96" t="s">
-        <v>208</v>
-      </c>
-      <c r="C18" s="101">
-        <v>6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="96" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="96" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="96" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="B19" s="96" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C19" s="101">
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="96" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="96" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="101">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="25">
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>153</v>
-      </c>
-      <c r="B22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C22" s="25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="25">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>3</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="25">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26" s="25"/>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:6" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="96" t="s">
+        <v>232</v>
+      </c>
+      <c r="B27" s="96" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="96" t="s">
+        <v>225</v>
+      </c>
+      <c r="B28" s="96" t="s">
+        <v>222</v>
+      </c>
+      <c r="C28" s="31">
+        <v>30</v>
+      </c>
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="96" t="s">
+        <v>226</v>
+      </c>
+      <c r="B29" s="96" t="s">
+        <v>223</v>
+      </c>
+      <c r="C29" s="31">
+        <v>30</v>
+      </c>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="96" t="s">
+        <v>227</v>
+      </c>
+      <c r="B30" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" s="31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>236</v>
+      </c>
+      <c r="B31" s="96" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="25">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="B32" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" s="101">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="25">
+        <v>99.99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="25">
+        <v>8.9700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="25">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>157</v>
-      </c>
-      <c r="B24" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" s="31">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="25"/>
-    </row>
-    <row r="26" spans="1:3" s="96" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="96" t="s">
-        <v>218</v>
-      </c>
-      <c r="B26" s="96" t="s">
-        <v>216</v>
-      </c>
-      <c r="C26" s="31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="96" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="96" t="s">
-        <v>219</v>
-      </c>
-      <c r="B27" s="96" t="s">
-        <v>217</v>
-      </c>
-      <c r="C27" s="31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C36">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="25">
+        <f>D37-1%</f>
+        <v>6.2499999999999993E-2</v>
+      </c>
+      <c r="D37" s="25">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="E37" s="25">
+        <f>D37+1%</f>
+        <v>8.249999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="28">
+        <f>C39+C40</f>
+        <v>5270.3829970000006</v>
+      </c>
+      <c r="D38" s="28">
+        <f>D39+D40</f>
+        <v>4731.9598219999998</v>
+      </c>
+      <c r="E38" s="28">
+        <f>E39+E40</f>
+        <v>4282.6246919999994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="28">
+        <f>D39</f>
+        <v>2057.857317</v>
+      </c>
+      <c r="D39" s="28">
+        <v>2057.857317</v>
+      </c>
+      <c r="E39" s="28">
+        <f>D39</f>
+        <v>2057.857317</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="28">
+        <v>3212.5256800000002</v>
+      </c>
+      <c r="D40" s="28">
+        <v>2674.1025049999998</v>
+      </c>
+      <c r="E40" s="28">
+        <v>2224.7673749999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="25">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="25">
-        <v>99.99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>155</v>
-      </c>
-      <c r="B30" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" s="25">
-        <v>8.9700000000000002E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C41" s="27">
+        <v>11.017199416129952</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="27">
+        <v>0.72694680597238381</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
         <v>59</v>
       </c>
-      <c r="C31">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="25">
-        <f>D33-1%</f>
-        <v>6.2499999999999993E-2</v>
-      </c>
-      <c r="D33" s="25">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="E33" s="25">
-        <f>D33+1%</f>
-        <v>8.249999999999999E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="28">
-        <f>C35+C36</f>
-        <v>5270.3829970000006</v>
-      </c>
-      <c r="D34" s="28">
-        <f>D35+D36</f>
-        <v>4731.9598219999998</v>
-      </c>
-      <c r="E34" s="28">
-        <f>E35+E36</f>
-        <v>4282.6246919999994</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="28">
-        <f>D35</f>
-        <v>2057.857317</v>
-      </c>
-      <c r="D35" s="28">
-        <v>2057.857317</v>
-      </c>
-      <c r="E35" s="28">
-        <f>D35</f>
-        <v>2057.857317</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="28">
-        <v>3212.5256800000002</v>
-      </c>
-      <c r="D36" s="28">
-        <v>2674.1025049999998</v>
-      </c>
-      <c r="E36" s="28">
-        <v>2224.7673749999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="27">
-        <v>11.017199416129952</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="27">
-        <v>0.72694680597238381</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="27">
+      <c r="C43" s="27">
         <v>22.034398832259903</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>116</v>
-      </c>
-      <c r="B40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="27">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="27">
         <v>22.034398832259903</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="65">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="65">
         <v>8.3366394042968806E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="66">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="66">
         <v>6.9290149999999995E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="65">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="65">
         <v>0.121971353165312</v>
       </c>
     </row>
@@ -2071,137 +2170,167 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="48.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="80" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="96" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" s="96" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" s="96" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="80" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="96" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" s="96" t="s">
-        <v>243</v>
-      </c>
-      <c r="C4" s="96" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="80" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="102" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="96" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="96" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="96" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="B7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="96" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="96" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" s="96" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="96" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
         <v>63</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C16" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2209,42 +2338,42 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>'List Box'!$A$2:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C10</xm:sqref>
+          <xm:sqref>C14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>'List Box'!$I$2:$I$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C11</xm:sqref>
+          <xm:sqref>C15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>'List Box'!$G$2:$G$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C12</xm:sqref>
+          <xm:sqref>C16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>'List Box'!$M$2:$M$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C8</xm:sqref>
+          <xm:sqref>C12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>'List Box'!$C$5:$C$7</xm:f>
           </x14:formula1>
-          <xm:sqref>C5</xm:sqref>
+          <xm:sqref>C7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>'List Box'!$I$7:$I$8</xm:f>
           </x14:formula1>
-          <xm:sqref>C9</xm:sqref>
+          <xm:sqref>C13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
@@ -2256,13 +2385,19 @@
           <x14:formula1>
             <xm:f>'List Box'!$C$15:$C$16</xm:f>
           </x14:formula1>
-          <xm:sqref>C6</xm:sqref>
+          <xm:sqref>C8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B0528861-666C-4BD0-AE7A-425334DC9757}">
           <x14:formula1>
             <xm:f>'List Box'!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C4</xm:sqref>
+          <xm:sqref>C5:C6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4B6B3D68-F100-AE4B-967C-6DDCE297F7D3}">
+          <x14:formula1>
+            <xm:f>'List Box'!$C$18:$C$19</xm:f>
+          </x14:formula1>
+          <xm:sqref>C9:C10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2272,70 +2407,70 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:M16"/>
+  <dimension ref="A2:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>48</v>
-      </c>
       <c r="M2" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="16"/>
       <c r="G4" s="16"/>
@@ -2343,165 +2478,175 @@
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G5" s="16"/>
       <c r="I5" s="16"/>
       <c r="K5" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L5" s="16"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="15" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="16"/>
       <c r="I6" s="16"/>
       <c r="K6" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L6" s="16"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="15" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="G7" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" s="16"/>
       <c r="D8" s="14"/>
       <c r="E8" s="30" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="29" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="16"/>
       <c r="E11" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I11" s="16"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="29" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="29" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I13" s="16"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I14" s="16"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="29" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="L15" s="16"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C16" s="29" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L16" s="16"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="96" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>240</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2516,17 +2661,17 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -2534,7 +2679,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -2542,7 +2687,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2022</v>
       </c>
@@ -2550,7 +2695,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2023</v>
       </c>
@@ -2558,7 +2703,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2024</v>
       </c>
@@ -2566,7 +2711,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2025</v>
       </c>
@@ -2574,7 +2719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2026</v>
       </c>
@@ -2582,7 +2727,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2027</v>
       </c>
@@ -2590,7 +2735,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2028</v>
       </c>
@@ -2598,7 +2743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2029</v>
       </c>
@@ -2606,7 +2751,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2030</v>
       </c>
@@ -2614,7 +2759,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2031</v>
       </c>
@@ -2622,7 +2767,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2032</v>
       </c>
@@ -2630,7 +2775,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2033</v>
       </c>
@@ -2638,7 +2783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2034</v>
       </c>
@@ -2646,7 +2791,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2035</v>
       </c>
@@ -2654,7 +2799,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2036</v>
       </c>
@@ -2662,7 +2807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2037</v>
       </c>
@@ -2670,7 +2815,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2038</v>
       </c>
@@ -2678,7 +2823,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2039</v>
       </c>
@@ -2686,7 +2831,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2040</v>
       </c>
@@ -2694,7 +2839,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2041</v>
       </c>
@@ -2702,7 +2847,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2042</v>
       </c>
@@ -2710,7 +2855,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2043</v>
       </c>
@@ -2718,7 +2863,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2044</v>
       </c>
@@ -2726,7 +2871,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2045</v>
       </c>
@@ -2734,7 +2879,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2046</v>
       </c>
@@ -2742,7 +2887,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2047</v>
       </c>
@@ -2750,7 +2895,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2048</v>
       </c>
@@ -2758,7 +2903,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2049</v>
       </c>
@@ -2766,7 +2911,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2050</v>
       </c>
@@ -2774,7 +2919,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2051</v>
       </c>
@@ -2782,7 +2927,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2052</v>
       </c>
@@ -2790,7 +2935,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2053</v>
       </c>
@@ -2798,7 +2943,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2054</v>
       </c>
@@ -2806,7 +2951,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2055</v>
       </c>
@@ -2814,7 +2959,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2056</v>
       </c>
@@ -2822,7 +2967,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2057</v>
       </c>
@@ -2830,7 +2975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2058</v>
       </c>
@@ -2838,7 +2983,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2059</v>
       </c>
@@ -2846,7 +2991,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2060</v>
       </c>
@@ -2854,7 +2999,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2061</v>
       </c>
@@ -2862,7 +3007,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2062</v>
       </c>
@@ -2870,7 +3015,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2063</v>
       </c>
@@ -2878,7 +3023,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2064</v>
       </c>
@@ -2886,7 +3031,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2065</v>
       </c>
@@ -2894,7 +3039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2066</v>
       </c>
@@ -2902,7 +3047,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2067</v>
       </c>
@@ -2910,7 +3055,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2068</v>
       </c>
@@ -2918,7 +3063,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2069</v>
       </c>
@@ -2926,7 +3071,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2070</v>
       </c>
@@ -2934,7 +3079,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2071</v>
       </c>
@@ -2942,7 +3087,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2072</v>
       </c>
@@ -2950,7 +3095,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2073</v>
       </c>
@@ -2958,7 +3103,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2074</v>
       </c>
@@ -2966,7 +3111,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2075</v>
       </c>
@@ -2974,7 +3119,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2076</v>
       </c>
@@ -2982,7 +3127,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2077</v>
       </c>
@@ -2990,7 +3135,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2078</v>
       </c>
@@ -2998,7 +3143,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2079</v>
       </c>
@@ -3006,7 +3151,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2080</v>
       </c>
@@ -3027,17 +3172,17 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -3045,7 +3190,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -3053,7 +3198,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2022</v>
       </c>
@@ -3061,7 +3206,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2023</v>
       </c>
@@ -3069,7 +3214,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2024</v>
       </c>
@@ -3077,7 +3222,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2025</v>
       </c>
@@ -3085,7 +3230,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2026</v>
       </c>
@@ -3093,7 +3238,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2027</v>
       </c>
@@ -3101,7 +3246,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2028</v>
       </c>
@@ -3109,7 +3254,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2029</v>
       </c>
@@ -3117,7 +3262,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2030</v>
       </c>
@@ -3125,7 +3270,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2031</v>
       </c>
@@ -3133,7 +3278,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2032</v>
       </c>
@@ -3141,7 +3286,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2033</v>
       </c>
@@ -3149,7 +3294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2034</v>
       </c>
@@ -3157,7 +3302,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2035</v>
       </c>
@@ -3165,7 +3310,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2036</v>
       </c>
@@ -3173,7 +3318,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2037</v>
       </c>
@@ -3181,7 +3326,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2038</v>
       </c>
@@ -3189,7 +3334,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2039</v>
       </c>
@@ -3197,7 +3342,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2040</v>
       </c>
@@ -3205,7 +3350,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2041</v>
       </c>
@@ -3213,7 +3358,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2042</v>
       </c>
@@ -3221,7 +3366,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2043</v>
       </c>
@@ -3229,7 +3374,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2044</v>
       </c>
@@ -3237,7 +3382,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2045</v>
       </c>
@@ -3245,7 +3390,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2046</v>
       </c>
@@ -3253,7 +3398,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2047</v>
       </c>
@@ -3261,7 +3406,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2048</v>
       </c>
@@ -3269,7 +3414,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2049</v>
       </c>
@@ -3277,7 +3422,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2050</v>
       </c>
@@ -3285,7 +3430,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2051</v>
       </c>
@@ -3293,7 +3438,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2052</v>
       </c>
@@ -3301,7 +3446,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2053</v>
       </c>
@@ -3309,7 +3454,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2054</v>
       </c>
@@ -3317,7 +3462,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2055</v>
       </c>
@@ -3325,7 +3470,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2056</v>
       </c>
@@ -3333,7 +3478,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2057</v>
       </c>
@@ -3341,7 +3486,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2058</v>
       </c>
@@ -3349,7 +3494,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2059</v>
       </c>
@@ -3357,7 +3502,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2060</v>
       </c>
@@ -3365,7 +3510,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2061</v>
       </c>
@@ -3373,7 +3518,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2062</v>
       </c>
@@ -3381,7 +3526,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2063</v>
       </c>
@@ -3389,7 +3534,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2064</v>
       </c>
@@ -3397,7 +3542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2065</v>
       </c>
@@ -3405,7 +3550,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2066</v>
       </c>
@@ -3413,7 +3558,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2067</v>
       </c>
@@ -3421,7 +3566,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2068</v>
       </c>
@@ -3429,7 +3574,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2069</v>
       </c>
@@ -3437,7 +3582,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2070</v>
       </c>
@@ -3445,7 +3590,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2071</v>
       </c>
@@ -3453,7 +3598,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2072</v>
       </c>
@@ -3461,7 +3606,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2073</v>
       </c>
@@ -3469,7 +3614,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2074</v>
       </c>
@@ -3477,7 +3622,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2075</v>
       </c>
@@ -3485,7 +3630,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2076</v>
       </c>
@@ -3493,7 +3638,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2077</v>
       </c>
@@ -3501,7 +3646,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2078</v>
       </c>
@@ -3509,7 +3654,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2079</v>
       </c>
@@ -3517,7 +3662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2080</v>
       </c>
@@ -3535,62 +3680,62 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="67"/>
-    <col min="2" max="2" width="16.44140625" style="67" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="67"/>
+    <col min="2" max="2" width="16.5" style="67" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" style="67" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="67"/>
-    <col min="5" max="5" width="12.44140625" style="67" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="67" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="67"/>
+    <col min="5" max="5" width="12.5" style="67" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="67" customWidth="1"/>
     <col min="7" max="7" width="19" style="67" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" style="67" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="14" style="67" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="67"/>
+    <col min="11" max="16384" width="8.83203125" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="67" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="E1" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="F1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="G1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="K1" s="67" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="L1" s="67" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="67">
         <v>2015</v>
       </c>
@@ -3628,7 +3773,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="67">
         <v>2016</v>
       </c>
@@ -3666,7 +3811,7 @@
         <v>2.0199999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="67">
         <v>2017</v>
       </c>
@@ -3704,7 +3849,7 @@
         <v>0.1193</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="67">
         <v>2018</v>
       </c>
@@ -3742,7 +3887,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="67">
         <v>2019</v>
       </c>
@@ -3780,7 +3925,7 @@
         <v>5.6500000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="67">
         <v>2020</v>
       </c>
@@ -3818,7 +3963,7 @@
         <v>2.7300000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="67">
         <v>2021</v>
       </c>
@@ -3856,7 +4001,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="67">
         <v>2022</v>
       </c>
@@ -3894,7 +4039,7 @@
         <v>-5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="67">
         <v>2023</v>
       </c>
@@ -3932,7 +4077,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="67">
         <v>2024</v>
       </c>
@@ -3970,7 +4115,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="67">
         <v>2025</v>
       </c>
@@ -4008,7 +4153,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="67">
         <v>2026</v>
       </c>
@@ -4046,7 +4191,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="67">
         <v>2027</v>
       </c>
@@ -4084,7 +4229,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="67">
         <v>2028</v>
       </c>
@@ -4122,7 +4267,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="67">
         <v>2029</v>
       </c>
@@ -4160,7 +4305,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="67">
         <v>2030</v>
       </c>
@@ -4198,7 +4343,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="67">
         <v>2031</v>
       </c>
@@ -4236,7 +4381,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="67">
         <v>2032</v>
       </c>
@@ -4274,7 +4419,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="67">
         <v>2033</v>
       </c>
@@ -4312,7 +4457,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="67">
         <v>2034</v>
       </c>
@@ -4350,7 +4495,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="67">
         <v>2035</v>
       </c>
@@ -4388,7 +4533,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="67">
         <v>2036</v>
       </c>
@@ -4426,7 +4571,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="67">
         <v>2037</v>
       </c>
@@ -4464,7 +4609,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="67">
         <v>2038</v>
       </c>
@@ -4502,7 +4647,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="67">
         <v>2039</v>
       </c>
@@ -4540,7 +4685,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="67">
         <v>2040</v>
       </c>
@@ -4578,7 +4723,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="67">
         <v>2041</v>
       </c>
@@ -4616,7 +4761,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="67">
         <v>2042</v>
       </c>
@@ -4654,7 +4799,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="67">
         <v>2043</v>
       </c>
@@ -4692,7 +4837,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="67">
         <v>2044</v>
       </c>
@@ -4730,7 +4875,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="67">
         <v>2045</v>
       </c>
@@ -4768,7 +4913,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="67">
         <v>2046</v>
       </c>
@@ -4806,7 +4951,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="67">
         <v>2047</v>
       </c>
@@ -4844,7 +4989,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="67">
         <v>2048</v>
       </c>
@@ -4882,7 +5027,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="67">
         <v>2049</v>
       </c>
@@ -4920,7 +5065,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="67">
         <v>2050</v>
       </c>
@@ -4958,7 +5103,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="67">
         <v>2051</v>
       </c>
@@ -4996,7 +5141,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="67">
         <v>2052</v>
       </c>
@@ -5034,7 +5179,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="67">
         <v>2053</v>
       </c>
@@ -5072,7 +5217,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="67">
         <v>2054</v>
       </c>
@@ -5110,7 +5255,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="67">
         <v>2055</v>
       </c>
@@ -5148,7 +5293,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="67">
         <v>2056</v>
       </c>
@@ -5186,7 +5331,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="67">
         <v>2057</v>
       </c>
@@ -5224,7 +5369,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="67">
         <v>2058</v>
       </c>
@@ -5262,7 +5407,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="67">
         <v>2059</v>
       </c>
@@ -5300,7 +5445,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="67">
         <v>2060</v>
       </c>
@@ -5338,7 +5483,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="67">
         <v>2061</v>
       </c>
@@ -5376,7 +5521,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="67">
         <v>2062</v>
       </c>
@@ -5414,7 +5559,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="67">
         <v>2063</v>
       </c>
@@ -5452,7 +5597,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="67">
         <v>2064</v>
       </c>
@@ -5490,7 +5635,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="67">
         <v>2065</v>
       </c>
@@ -5528,7 +5673,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="67">
         <v>2066</v>
       </c>
@@ -5566,7 +5711,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="67">
         <v>2067</v>
       </c>
@@ -5604,7 +5749,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="67">
         <v>2068</v>
       </c>
@@ -5642,7 +5787,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="67">
         <v>2069</v>
       </c>
@@ -5680,7 +5825,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="67">
         <v>2070</v>
       </c>
@@ -5718,7 +5863,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="67">
         <v>2071</v>
       </c>
@@ -5756,7 +5901,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="67">
         <v>2072</v>
       </c>
@@ -5794,7 +5939,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="67">
         <v>2073</v>
       </c>
@@ -5832,7 +5977,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="67">
         <v>2074</v>
       </c>
@@ -5870,7 +6015,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="67">
         <v>2075</v>
       </c>
@@ -5908,7 +6053,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="67">
         <v>2076</v>
       </c>
@@ -5946,7 +6091,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="67">
         <v>2077</v>
       </c>
@@ -5984,7 +6129,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="67">
         <v>2078</v>
       </c>
@@ -6022,7 +6167,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="67">
         <v>2079</v>
       </c>
@@ -6060,7 +6205,7 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="67">
         <v>2080</v>
       </c>
@@ -6105,412 +6250,414 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:CZ13"/>
+  <dimension ref="A1:CV13"/>
   <sheetViews>
-    <sheetView topLeftCell="BM1" workbookViewId="0">
-      <selection activeCell="BT13" sqref="BT13"/>
+    <sheetView tabSelected="1" topLeftCell="BI1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="BR8" sqref="BR8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="80" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.77734375" style="80" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.109375" style="80" customWidth="1"/>
-    <col min="18" max="18" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="6.5546875" style="80" customWidth="1"/>
-    <col min="23" max="23" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="6.5546875" style="80" customWidth="1"/>
-    <col min="26" max="27" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="9.109375" style="80" customWidth="1"/>
-    <col min="31" max="31" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.44140625" style="80" customWidth="1"/>
-    <col min="35" max="36" width="7.6640625" style="80" customWidth="1"/>
-    <col min="37" max="37" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.33203125" customWidth="1"/>
-    <col min="42" max="42" width="12" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.44140625" style="96" customWidth="1"/>
-    <col min="45" max="45" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="8.109375" style="96" customWidth="1"/>
-    <col min="48" max="48" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="7.5546875" style="80" customWidth="1"/>
-    <col min="51" max="51" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.5546875" style="80" customWidth="1"/>
-    <col min="53" max="53" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.77734375" style="80" customWidth="1"/>
-    <col min="56" max="56" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="14.33203125" style="96" customWidth="1"/>
-    <col min="59" max="59" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="15.88671875" customWidth="1"/>
-    <col min="64" max="64" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="66" width="19.44140625" style="96" customWidth="1"/>
-    <col min="67" max="67" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="14.6640625" style="96" customWidth="1"/>
-    <col min="69" max="69" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="79" max="81" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="19.21875" style="96" customWidth="1"/>
-    <col min="83" max="83" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="84" max="92" width="23.33203125" style="96" customWidth="1"/>
-    <col min="93" max="93" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="10.109375" style="96" customWidth="1"/>
-    <col min="95" max="95" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="10.5546875" style="96" customWidth="1"/>
-    <col min="97" max="97" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="20.5546875" style="96" customWidth="1"/>
-    <col min="101" max="101" width="8.88671875" style="96"/>
-    <col min="104" max="104" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="80" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.83203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.1640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.83203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.83203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.83203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.83203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.33203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.33203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.33203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.1640625" style="96" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.5" style="96" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10" style="96" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.83203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="17.83203125" style="96" customWidth="1"/>
+    <col min="47" max="47" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="17.6640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="15" style="80" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14" style="96" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="18.6640625" style="96" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.83203125" style="96" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.1640625" style="96" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="7" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="8" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="7" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="75" max="77" width="18" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="18" style="96" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="13.6640625" style="96" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="16.6640625" style="96" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="19.6640625" style="96" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="15.83203125" style="96" bestFit="1" customWidth="1"/>
+    <col min="84" max="87" width="15.33203125" style="96" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="19" style="96" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="10" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="13.6640625" style="96" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="9.1640625" style="96" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="23.1640625" style="96" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="12.33203125" style="96" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="P1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="V1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="W1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM1" s="97" t="s">
+        <v>191</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO1" s="97" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP1" s="97" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AT1" s="97" t="s">
+        <v>244</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB1" s="97" t="s">
+        <v>192</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BI1" s="97" t="s">
+        <v>193</v>
+      </c>
+      <c r="BJ1" s="97" t="s">
+        <v>194</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="BL1" s="98" t="s">
+        <v>213</v>
+      </c>
+      <c r="BM1" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="BN1" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>201</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>200</v>
+      </c>
+      <c r="BV1" t="s">
         <v>199</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="BW1" t="s">
+        <v>198</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>196</v>
+      </c>
+      <c r="BZ1" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>195</v>
+      </c>
+      <c r="CB1" s="96" t="s">
+        <v>204</v>
+      </c>
+      <c r="CC1" s="96" t="s">
+        <v>205</v>
+      </c>
+      <c r="CD1" s="96" t="s">
+        <v>206</v>
+      </c>
+      <c r="CE1" s="96" t="s">
+        <v>207</v>
+      </c>
+      <c r="CF1" s="96" t="s">
+        <v>208</v>
+      </c>
+      <c r="CG1" s="96" t="s">
+        <v>209</v>
+      </c>
+      <c r="CH1" s="96" t="s">
+        <v>210</v>
+      </c>
+      <c r="CI1" s="96" t="s">
+        <v>211</v>
+      </c>
+      <c r="CJ1" s="96" t="s">
+        <v>212</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CL1" s="96" t="s">
+        <v>189</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>119</v>
+      </c>
+      <c r="CN1" s="96" t="s">
+        <v>190</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CQ1" s="96" t="s">
+        <v>187</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CS1" s="96" t="s">
+        <v>188</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>123</v>
+      </c>
+      <c r="CU1" t="s">
         <v>124</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="CV1" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AR1" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AT1" s="97" t="s">
-        <v>206</v>
-      </c>
-      <c r="AU1" s="97" t="s">
-        <v>207</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AY1" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AZ1" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="BA1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BF1" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="BM1" s="97" t="s">
-        <v>222</v>
-      </c>
-      <c r="BN1" s="97" t="s">
-        <v>223</v>
-      </c>
-      <c r="BO1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="BP1" s="98" t="s">
-        <v>242</v>
-      </c>
-      <c r="BQ1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="BR1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="BS1" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BT1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>228</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>227</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>226</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>225</v>
-      </c>
-      <c r="CD1" s="96" t="s">
-        <v>232</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>224</v>
-      </c>
-      <c r="CF1" s="96" t="s">
-        <v>233</v>
-      </c>
-      <c r="CG1" s="96" t="s">
-        <v>234</v>
-      </c>
-      <c r="CH1" s="96" t="s">
-        <v>235</v>
-      </c>
-      <c r="CI1" s="96" t="s">
-        <v>236</v>
-      </c>
-      <c r="CJ1" s="96" t="s">
-        <v>237</v>
-      </c>
-      <c r="CK1" s="96" t="s">
-        <v>238</v>
-      </c>
-      <c r="CL1" s="96" t="s">
-        <v>239</v>
-      </c>
-      <c r="CM1" s="96" t="s">
-        <v>240</v>
-      </c>
-      <c r="CN1" s="96" t="s">
-        <v>241</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>131</v>
-      </c>
-      <c r="CP1" s="96" t="s">
-        <v>214</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CR1" s="96" t="s">
-        <v>215</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>133</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>134</v>
-      </c>
-      <c r="CU1" s="96" t="s">
-        <v>212</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CW1" s="96" t="s">
-        <v>213</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>136</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>137</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:104" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:100" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33">
         <v>2015</v>
       </c>
@@ -6544,175 +6691,174 @@
         <v>138.04995600000001</v>
       </c>
       <c r="N2" s="22"/>
-      <c r="O2" s="21">
-        <v>6470.3031790000005</v>
-      </c>
-      <c r="P2" s="21">
+      <c r="O2" s="23">
+        <v>4926.5158099999999</v>
+      </c>
+      <c r="P2" s="83">
         <f>O2</f>
-        <v>6470.3031790000005</v>
-      </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21">
-        <v>138.04995600000001</v>
-      </c>
-      <c r="S2" s="22"/>
-      <c r="T2" s="23">
         <v>4926.5158099999999</v>
       </c>
-      <c r="U2" s="83">
-        <f>T2</f>
-        <v>4926.5158099999999</v>
-      </c>
-      <c r="V2" s="83"/>
-      <c r="W2" s="23">
+      <c r="Q2" s="83"/>
+      <c r="R2" s="23">
         <v>5061.0582210000002</v>
       </c>
-      <c r="X2" s="83">
-        <f>W2</f>
+      <c r="S2" s="83">
+        <f>R2</f>
         <v>5061.0582210000002</v>
       </c>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="38">
+      <c r="T2" s="83"/>
+      <c r="U2" s="38">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="AA2" s="37">
+      <c r="V2" s="37">
         <v>1543.7873690000006</v>
       </c>
-      <c r="AB2" s="81">
-        <f>AA2</f>
+      <c r="W2" s="81">
+        <f>V2</f>
         <v>1543.7873690000006</v>
       </c>
-      <c r="AC2" s="81">
-        <f>AA2</f>
+      <c r="X2" s="81">
+        <f>V2</f>
         <v>1543.7873690000006</v>
       </c>
-      <c r="AD2" s="81">
+      <c r="Y2" s="81">
         <v>0</v>
       </c>
-      <c r="AE2" s="39">
+      <c r="Z2" s="39">
         <v>0.76140416819871548</v>
       </c>
-      <c r="AF2" s="40">
+      <c r="AA2" s="40">
         <v>0.78219800231713377</v>
       </c>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="81">
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="81">
         <v>0</v>
       </c>
-      <c r="AK2" s="43">
+      <c r="AF2" s="43">
         <v>0.1118</v>
       </c>
-      <c r="AL2" s="43">
+      <c r="AG2" s="43">
         <v>0.1118</v>
       </c>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38">
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="41">
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="41">
+        <f>AG2-AI2</f>
         <v>3.2799999999999996E-2</v>
       </c>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="44">
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="44">
         <v>7.9484237120710205E-2</v>
       </c>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="44">
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44">
         <v>7.9484237120710205E-2</v>
       </c>
-      <c r="AV2" s="41">
+      <c r="AQ2" s="41">
         <v>0.19438423712071018</v>
       </c>
-      <c r="AW2" s="41">
+      <c r="AR2" s="41">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AX2" s="86">
+      <c r="AS2" s="86">
         <v>-333.40146299999998</v>
       </c>
-      <c r="AY2" s="48">
+      <c r="AT2" s="86"/>
+      <c r="AU2" s="48">
         <v>-333.40146299999998</v>
       </c>
-      <c r="AZ2" s="83"/>
-      <c r="BA2" s="23"/>
-      <c r="BB2" s="23">
+      <c r="AV2" s="83"/>
+      <c r="AW2" s="23"/>
+      <c r="AX2" s="23">
         <v>-3.4835310000000002</v>
       </c>
-      <c r="BC2" s="83"/>
-      <c r="BD2" s="49">
+      <c r="AY2" s="83"/>
+      <c r="AZ2" s="49">
         <v>95.424030999999999</v>
       </c>
-      <c r="BE2" s="36"/>
-      <c r="BF2" s="36"/>
-      <c r="BG2" s="23">
+      <c r="BA2" s="36"/>
+      <c r="BB2" s="36"/>
+      <c r="BC2" s="23">
         <v>42.704507461400013</v>
       </c>
-      <c r="BH2" s="36"/>
-      <c r="BI2" s="23">
+      <c r="BD2" s="36"/>
+      <c r="BE2" s="23">
         <v>91.938067538599952</v>
       </c>
+      <c r="BF2" s="50"/>
+      <c r="BG2" s="50"/>
+      <c r="BH2" s="50"/>
+      <c r="BI2" s="50"/>
       <c r="BJ2" s="50"/>
-      <c r="BK2" s="50"/>
-      <c r="BL2" s="50"/>
-      <c r="BM2" s="50"/>
-      <c r="BN2" s="50"/>
-      <c r="BO2" s="51">
-        <v>230.06660599999998</v>
-      </c>
-      <c r="BP2" s="51"/>
-      <c r="BQ2" s="51"/>
-      <c r="BR2" s="51">
-        <v>230.06660599999998</v>
-      </c>
-      <c r="BS2" s="34"/>
-      <c r="BT2" s="21"/>
-      <c r="BU2" s="8"/>
-      <c r="BV2" s="9"/>
-      <c r="BW2" s="53">
+      <c r="BK2" s="51">
+        <f>SUM(BC2:BH2)</f>
+        <v>134.64257499999997</v>
+      </c>
+      <c r="BL2" s="51"/>
+      <c r="BM2" s="51"/>
+      <c r="BN2" s="51">
+        <f>SUM(BK2:BM2)</f>
+        <v>134.64257499999997</v>
+      </c>
+      <c r="BO2" s="34"/>
+      <c r="BP2" s="21">
+        <f>BN2</f>
+        <v>134.64257499999997</v>
+      </c>
+      <c r="BQ2" s="8"/>
+      <c r="BR2" s="9">
+        <f>BN2/B2</f>
+        <v>0.11638669049910003</v>
+      </c>
+      <c r="BS2" s="53">
         <v>-106.81838800000004</v>
       </c>
+      <c r="BT2" s="54">
+        <v>379.00268799999998</v>
+      </c>
+      <c r="BU2" s="55">
+        <v>5214.9542169999995</v>
+      </c>
+      <c r="BV2" s="55">
+        <v>-153.89599599999929</v>
+      </c>
+      <c r="BW2" s="54">
+        <v>-38.473998999999822</v>
+      </c>
       <c r="BX2" s="54">
-        <v>379.00268799999998</v>
-      </c>
-      <c r="BY2" s="55">
-        <v>5214.9542169999995</v>
-      </c>
-      <c r="BZ2" s="55">
-        <v>-153.89599599999929</v>
-      </c>
-      <c r="CA2" s="54">
-        <v>-38.473998999999822</v>
-      </c>
-      <c r="CB2" s="54">
         <v>99.700567000000007</v>
       </c>
-      <c r="CC2" s="54">
+      <c r="BY2" s="54">
         <v>50.563274</v>
       </c>
-      <c r="CD2" s="54">
+      <c r="BZ2" s="54">
         <v>-53.263661999999997</v>
       </c>
-      <c r="CE2" s="82">
+      <c r="CA2" s="82">
+        <f t="shared" ref="CA2:CA7" si="0">SUM(BW2:BZ2)</f>
         <v>58.526180000000195</v>
       </c>
+      <c r="CB2" s="82"/>
+      <c r="CC2" s="82"/>
+      <c r="CD2" s="82"/>
+      <c r="CE2" s="82"/>
       <c r="CF2" s="82"/>
       <c r="CG2" s="82"/>
       <c r="CH2" s="82"/>
       <c r="CI2" s="82"/>
       <c r="CJ2" s="82"/>
-      <c r="CK2" s="82"/>
-      <c r="CL2" s="82"/>
-      <c r="CM2" s="82"/>
-      <c r="CN2" s="82"/>
-      <c r="CP2" s="99"/>
-      <c r="CR2" s="99"/>
-      <c r="CU2" s="99"/>
-      <c r="CW2" s="99"/>
-    </row>
-    <row r="3" spans="1:104" x14ac:dyDescent="0.3">
+      <c r="CL2" s="99"/>
+      <c r="CN2" s="99"/>
+      <c r="CQ2" s="99"/>
+      <c r="CS2" s="99"/>
+    </row>
+    <row r="3" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A3" s="33">
         <v>2016</v>
       </c>
@@ -6740,181 +6886,183 @@
         <v>6787.9231540000001</v>
       </c>
       <c r="K3" s="21">
-        <f t="shared" ref="K3:K8" si="0">J3</f>
+        <f t="shared" ref="K3:K8" si="1">J3</f>
         <v>6787.9231540000001</v>
       </c>
       <c r="L3" s="21"/>
       <c r="M3" s="21">
         <v>123.08196100000001</v>
       </c>
-      <c r="O3" s="21">
-        <v>6787.9231540000001</v>
-      </c>
-      <c r="P3" s="21">
-        <f t="shared" ref="P3:P8" si="1">O3</f>
-        <v>6787.9231540000001</v>
-      </c>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21">
-        <v>123.08196100000001</v>
-      </c>
-      <c r="T3" s="23">
+      <c r="O3" s="23">
         <v>5247.6853099999998</v>
       </c>
-      <c r="U3" s="83">
-        <f t="shared" ref="U3:U8" si="2">T3</f>
+      <c r="P3" s="83">
+        <f t="shared" ref="P3:P8" si="2">O3</f>
         <v>5247.6853099999998</v>
       </c>
-      <c r="V3" s="83"/>
-      <c r="W3" s="23">
+      <c r="Q3" s="83"/>
+      <c r="R3" s="23">
         <v>5032.8071099999997</v>
       </c>
-      <c r="X3" s="83">
-        <f t="shared" ref="X3:X8" si="3">W3</f>
+      <c r="S3" s="83">
+        <f t="shared" ref="S3:S8" si="3">R3</f>
         <v>5032.8071099999997</v>
       </c>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="38">
+      <c r="T3" s="83"/>
+      <c r="U3" s="38">
         <v>2.0199999999999999E-2</v>
       </c>
-      <c r="AA3" s="37">
+      <c r="V3" s="37">
         <v>1540.2378440000002</v>
       </c>
-      <c r="AB3" s="81">
-        <f t="shared" ref="AB3:AB8" si="4">AA3</f>
+      <c r="W3" s="81">
+        <f t="shared" ref="W3:W8" si="4">V3</f>
         <v>1540.2378440000002</v>
       </c>
-      <c r="AC3" s="81">
-        <f t="shared" ref="AC3:AC8" si="5">AA3</f>
+      <c r="X3" s="81">
+        <f t="shared" ref="X3:X8" si="5">V3</f>
         <v>1540.2378440000002</v>
       </c>
-      <c r="AD3" s="81">
+      <c r="Y3" s="81">
         <v>0</v>
       </c>
-      <c r="AE3" s="39">
+      <c r="Z3" s="39">
         <v>0.77309144357470139</v>
       </c>
-      <c r="AF3" s="40">
+      <c r="AA3" s="40">
         <v>0.74143548708771956</v>
       </c>
-      <c r="AG3" s="42">
+      <c r="AB3" s="42">
         <v>1755.1160440000003</v>
       </c>
-      <c r="AH3" s="93">
-        <f t="shared" ref="AH3:AH8" si="6">AG3</f>
+      <c r="AC3" s="93">
+        <f t="shared" ref="AC3:AC8" si="6">AB3</f>
         <v>1755.1160440000003</v>
       </c>
-      <c r="AI3" s="93">
-        <f t="shared" ref="AI3:AI8" si="7">AG3</f>
+      <c r="AD3" s="93">
+        <f t="shared" ref="AD3:AD8" si="7">AB3</f>
         <v>1755.1160440000003</v>
       </c>
-      <c r="AJ3" s="81">
+      <c r="AE3" s="81">
         <v>0</v>
       </c>
-      <c r="AK3" s="43">
+      <c r="AF3" s="43">
         <v>0.1134</v>
       </c>
-      <c r="AL3" s="43">
+      <c r="AG3" s="43">
         <v>0.1134</v>
       </c>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38">
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="41">
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="41">
+        <f t="shared" ref="AK3:AK8" si="8">AG3-AI3</f>
         <v>3.44E-2</v>
       </c>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="41"/>
-      <c r="AS3" s="45">
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="45">
         <v>7.2664021585629721E-2</v>
       </c>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45">
+      <c r="AO3" s="45"/>
+      <c r="AP3" s="45">
         <v>7.2664021585629721E-2</v>
       </c>
-      <c r="AV3" s="41">
+      <c r="AQ3" s="41">
         <v>0.18916402158562973</v>
       </c>
-      <c r="AW3" s="41">
+      <c r="AR3" s="41">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AX3" s="86">
+      <c r="AS3" s="86">
         <v>-355.983766</v>
       </c>
-      <c r="AY3" s="48">
+      <c r="AT3" s="86"/>
+      <c r="AU3" s="48">
         <v>-355.983766</v>
       </c>
-      <c r="AZ3" s="83"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="23">
+      <c r="AV3" s="83"/>
+      <c r="AW3" s="52"/>
+      <c r="AX3" s="23">
         <v>-3.85833</v>
       </c>
-      <c r="BC3" s="83"/>
-      <c r="BD3" s="49">
+      <c r="AY3" s="83"/>
+      <c r="AZ3" s="49">
         <v>97.342719000000002</v>
       </c>
-      <c r="BE3" s="23"/>
-      <c r="BF3" s="100"/>
-      <c r="BG3" s="23">
+      <c r="BA3" s="23"/>
+      <c r="BB3" s="100"/>
+      <c r="BC3" s="23">
         <v>38.888026967100004</v>
       </c>
+      <c r="BD3" s="23"/>
+      <c r="BE3" s="23">
+        <v>94.240182032900023</v>
+      </c>
+      <c r="BF3" s="23"/>
+      <c r="BG3" s="23"/>
       <c r="BH3" s="23"/>
-      <c r="BI3" s="23">
-        <v>94.240182032900023</v>
-      </c>
-      <c r="BJ3" s="23"/>
-      <c r="BK3" s="23"/>
-      <c r="BL3" s="23"/>
-      <c r="BM3" s="100"/>
-      <c r="BN3" s="100"/>
-      <c r="BO3" s="37">
-        <v>230.47092800000001</v>
-      </c>
-      <c r="BP3" s="81"/>
-      <c r="BQ3" s="37"/>
-      <c r="BR3" s="81">
-        <v>230.47092800000001</v>
-      </c>
-      <c r="BW3" s="53">
+      <c r="BI3" s="100"/>
+      <c r="BJ3" s="100"/>
+      <c r="BK3" s="37">
+        <f t="shared" ref="BK3:BK8" si="9">SUM(BC3:BH3)</f>
+        <v>133.12820900000003</v>
+      </c>
+      <c r="BL3" s="81"/>
+      <c r="BM3" s="37"/>
+      <c r="BN3" s="81">
+        <f t="shared" ref="BN3:BN8" si="10">SUM(BK3:BM3)</f>
+        <v>133.12820900000003</v>
+      </c>
+      <c r="BP3" s="104">
+        <f t="shared" ref="BP3:BP8" si="11">BN3</f>
+        <v>133.12820900000003</v>
+      </c>
+      <c r="BR3" s="9">
+        <f t="shared" ref="BR3:BR8" si="12">BN3/B3</f>
+        <v>0.11228325225345327</v>
+      </c>
+      <c r="BS3" s="53">
         <v>-129.37116800000001</v>
       </c>
-      <c r="BX3" s="54">
+      <c r="BT3" s="54">
         <v>417.96108299999997</v>
       </c>
+      <c r="BU3" s="55">
+        <v>5349.6481360000007</v>
+      </c>
+      <c r="BV3" s="55">
+        <v>-316.84102600000097</v>
+      </c>
+      <c r="BW3" s="55">
+        <v>-79.210256500000241</v>
+      </c>
+      <c r="BX3" s="37">
+        <v>-38.473998999999822</v>
+      </c>
       <c r="BY3" s="55">
-        <v>5349.6481360000007</v>
-      </c>
-      <c r="BZ3" s="55">
-        <v>-316.84102600000097</v>
-      </c>
-      <c r="CA3" s="55">
-        <v>-79.210256500000241</v>
-      </c>
-      <c r="CB3" s="37">
-        <v>-38.473998999999822</v>
-      </c>
-      <c r="CC3" s="55">
         <v>99.700567000000007</v>
       </c>
-      <c r="CD3" s="82">
+      <c r="BZ3" s="82">
         <v>50.563274</v>
       </c>
-      <c r="CE3" s="82">
+      <c r="CA3" s="82">
+        <f t="shared" si="0"/>
         <v>32.579585499999943</v>
       </c>
+      <c r="CB3" s="82"/>
+      <c r="CC3" s="82"/>
+      <c r="CD3" s="82"/>
+      <c r="CE3" s="82"/>
       <c r="CF3" s="82"/>
       <c r="CG3" s="82"/>
       <c r="CH3" s="82"/>
       <c r="CI3" s="82"/>
       <c r="CJ3" s="82"/>
-      <c r="CK3" s="82"/>
-      <c r="CL3" s="82"/>
-      <c r="CM3" s="82"/>
-      <c r="CN3" s="82"/>
-    </row>
-    <row r="4" spans="1:104" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A4" s="33">
         <v>2017</v>
       </c>
@@ -6942,181 +7090,183 @@
         <v>7578.384779</v>
       </c>
       <c r="K4" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7578.384779</v>
       </c>
       <c r="L4" s="21"/>
       <c r="M4" s="21">
         <v>134.08437000000001</v>
       </c>
-      <c r="O4" s="21">
-        <v>7578.384779</v>
-      </c>
-      <c r="P4" s="21">
-        <f t="shared" si="1"/>
-        <v>7578.384779</v>
-      </c>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21">
-        <v>134.08437000000001</v>
-      </c>
-      <c r="T4" s="23">
+      <c r="O4" s="23">
         <v>5514.026586</v>
       </c>
-      <c r="U4" s="83">
+      <c r="P4" s="83">
         <f t="shared" si="2"/>
         <v>5514.026586</v>
       </c>
-      <c r="V4" s="83"/>
-      <c r="W4" s="23">
+      <c r="Q4" s="83"/>
+      <c r="R4" s="23">
         <v>5472.519182</v>
       </c>
-      <c r="X4" s="83">
+      <c r="S4" s="83">
         <f t="shared" si="3"/>
         <v>5472.519182</v>
       </c>
-      <c r="Y4" s="83"/>
-      <c r="Z4" s="38">
+      <c r="T4" s="83"/>
+      <c r="U4" s="38">
         <v>0.1193</v>
       </c>
-      <c r="AA4" s="37">
+      <c r="V4" s="37">
         <v>2064.358193</v>
       </c>
-      <c r="AB4" s="81">
+      <c r="W4" s="81">
         <f t="shared" si="4"/>
         <v>2064.358193</v>
       </c>
-      <c r="AC4" s="81">
+      <c r="X4" s="81">
         <f t="shared" si="5"/>
         <v>2064.358193</v>
       </c>
-      <c r="AD4" s="81">
+      <c r="Y4" s="81">
         <v>0</v>
       </c>
-      <c r="AE4" s="39">
+      <c r="Z4" s="39">
         <v>0.72759918462831064</v>
       </c>
-      <c r="AF4" s="40">
+      <c r="AA4" s="40">
         <v>0.72212210670070021</v>
       </c>
-      <c r="AG4" s="42">
+      <c r="AB4" s="42">
         <v>2105.865597</v>
       </c>
-      <c r="AH4" s="93">
+      <c r="AC4" s="93">
         <f t="shared" si="6"/>
         <v>2105.865597</v>
       </c>
-      <c r="AI4" s="93">
+      <c r="AD4" s="93">
         <f t="shared" si="7"/>
         <v>2105.865597</v>
       </c>
-      <c r="AJ4" s="81">
+      <c r="AE4" s="81">
         <v>0</v>
       </c>
-      <c r="AK4" s="43">
+      <c r="AF4" s="43">
         <v>9.8599999999999993E-2</v>
       </c>
-      <c r="AL4" s="43">
+      <c r="AG4" s="43">
         <v>9.8599999999999993E-2</v>
       </c>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38">
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="41">
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="41">
+        <f t="shared" si="8"/>
         <v>1.9599999999999992E-2</v>
       </c>
-      <c r="AQ4" s="41"/>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="45">
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="45">
         <v>9.6257386767726841E-2</v>
       </c>
-      <c r="AT4" s="45"/>
-      <c r="AU4" s="45">
+      <c r="AO4" s="45"/>
+      <c r="AP4" s="45">
         <v>9.6257386767726841E-2</v>
       </c>
-      <c r="AV4" s="41">
+      <c r="AQ4" s="41">
         <v>0.19785738676772685</v>
       </c>
-      <c r="AW4" s="41">
+      <c r="AR4" s="41">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AX4" s="86">
+      <c r="AS4" s="86">
         <v>-380.22791899999999</v>
       </c>
-      <c r="AY4" s="48">
+      <c r="AT4" s="86"/>
+      <c r="AU4" s="48">
         <v>-380.22791899999999</v>
       </c>
-      <c r="AZ4" s="83"/>
+      <c r="AV4" s="83"/>
+      <c r="AW4" s="23"/>
+      <c r="AX4" s="23">
+        <v>-4.4720839999999997</v>
+      </c>
+      <c r="AY4" s="83"/>
+      <c r="AZ4" s="49">
+        <v>100.76813900000001</v>
+      </c>
       <c r="BA4" s="23"/>
-      <c r="BB4" s="23">
-        <v>-4.4720839999999997</v>
-      </c>
-      <c r="BC4" s="83"/>
-      <c r="BD4" s="49">
-        <v>100.76813900000001</v>
-      </c>
-      <c r="BE4" s="23"/>
-      <c r="BF4" s="100"/>
-      <c r="BG4" s="23">
+      <c r="BB4" s="100"/>
+      <c r="BC4" s="23">
         <v>42.767612560499984</v>
       </c>
-      <c r="BH4" s="23"/>
-      <c r="BI4" s="23">
+      <c r="BD4" s="23"/>
+      <c r="BE4" s="23">
         <v>89.526909439500045</v>
       </c>
-      <c r="BJ4" s="37"/>
-      <c r="BK4" s="37"/>
-      <c r="BL4" s="37"/>
-      <c r="BM4" s="81"/>
-      <c r="BN4" s="81"/>
-      <c r="BO4" s="37">
-        <v>233.06266100000005</v>
-      </c>
-      <c r="BP4" s="81"/>
-      <c r="BQ4" s="37"/>
-      <c r="BR4" s="81">
-        <v>233.06266100000005</v>
-      </c>
-      <c r="BW4" s="53">
+      <c r="BF4" s="37"/>
+      <c r="BG4" s="37"/>
+      <c r="BH4" s="37"/>
+      <c r="BI4" s="81"/>
+      <c r="BJ4" s="81"/>
+      <c r="BK4" s="37">
+        <f t="shared" si="9"/>
+        <v>132.29452200000003</v>
+      </c>
+      <c r="BL4" s="81"/>
+      <c r="BM4" s="37"/>
+      <c r="BN4" s="81">
+        <f t="shared" si="10"/>
+        <v>132.29452200000003</v>
+      </c>
+      <c r="BP4" s="104">
+        <f t="shared" si="11"/>
+        <v>132.29452200000003</v>
+      </c>
+      <c r="BR4" s="9">
+        <f t="shared" si="12"/>
+        <v>0.10737611811301068</v>
+      </c>
+      <c r="BS4" s="53">
         <v>-151.63734199999993</v>
       </c>
-      <c r="BX4" s="55">
+      <c r="BT4" s="55">
         <v>384.1666040225</v>
       </c>
+      <c r="BU4" s="55">
+        <v>5265.3363720224997</v>
+      </c>
+      <c r="BV4" s="55">
+        <v>207.18280997750026</v>
+      </c>
+      <c r="BW4" s="55">
+        <v>51.795702494375064</v>
+      </c>
+      <c r="BX4" s="37">
+        <v>-79.210256500000241</v>
+      </c>
       <c r="BY4" s="55">
-        <v>5265.3363720224997</v>
-      </c>
-      <c r="BZ4" s="55">
-        <v>207.18280997750026</v>
-      </c>
-      <c r="CA4" s="55">
-        <v>51.795702494375064</v>
-      </c>
-      <c r="CB4" s="37">
-        <v>-79.210256500000241</v>
-      </c>
-      <c r="CC4" s="55">
         <v>-38.473998999999822</v>
       </c>
-      <c r="CD4" s="82">
+      <c r="BZ4" s="82">
         <v>99.700567000000007</v>
       </c>
-      <c r="CE4" s="82">
+      <c r="CA4" s="82">
+        <f t="shared" si="0"/>
         <v>33.812013994375008</v>
       </c>
+      <c r="CB4" s="82"/>
+      <c r="CC4" s="82"/>
+      <c r="CD4" s="82"/>
+      <c r="CE4" s="82"/>
       <c r="CF4" s="82"/>
       <c r="CG4" s="82"/>
       <c r="CH4" s="82"/>
       <c r="CI4" s="82"/>
       <c r="CJ4" s="82"/>
-      <c r="CK4" s="82"/>
-      <c r="CL4" s="82"/>
-      <c r="CM4" s="82"/>
-      <c r="CN4" s="82"/>
-    </row>
-    <row r="5" spans="1:104" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A5" s="33">
         <v>2018</v>
       </c>
@@ -7144,181 +7294,183 @@
         <v>7730.0840770000004</v>
       </c>
       <c r="K5" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7730.0840770000004</v>
       </c>
       <c r="L5" s="21"/>
       <c r="M5" s="21">
         <v>127.31529500000001</v>
       </c>
-      <c r="O5" s="21">
-        <v>7730.0840770000004</v>
-      </c>
-      <c r="P5" s="21">
-        <f t="shared" si="1"/>
-        <v>7730.0840770000004</v>
-      </c>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21">
-        <v>127.31529500000001</v>
-      </c>
-      <c r="T5" s="23">
+      <c r="O5" s="23">
         <v>5705.2357270000002</v>
       </c>
-      <c r="U5" s="83">
+      <c r="P5" s="83">
         <f t="shared" si="2"/>
         <v>5705.2357270000002</v>
       </c>
-      <c r="V5" s="83"/>
-      <c r="W5" s="23">
+      <c r="Q5" s="83"/>
+      <c r="R5" s="23">
         <v>5779.9940079999997</v>
       </c>
-      <c r="X5" s="83">
+      <c r="S5" s="83">
         <f t="shared" si="3"/>
         <v>5779.9940079999997</v>
       </c>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="38">
+      <c r="T5" s="83"/>
+      <c r="U5" s="38">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="AA5" s="37">
+      <c r="V5" s="37">
         <v>2024.8483500000002</v>
       </c>
-      <c r="AB5" s="81">
+      <c r="W5" s="81">
         <f t="shared" si="4"/>
         <v>2024.8483500000002</v>
       </c>
-      <c r="AC5" s="81">
+      <c r="X5" s="81">
         <f t="shared" si="5"/>
         <v>2024.8483500000002</v>
       </c>
-      <c r="AD5" s="81">
+      <c r="Y5" s="81">
         <v>0</v>
       </c>
-      <c r="AE5" s="39">
+      <c r="Z5" s="39">
         <v>0.73805610264644994</v>
       </c>
-      <c r="AF5" s="40">
+      <c r="AA5" s="40">
         <v>0.74772718516707015</v>
       </c>
-      <c r="AG5" s="42">
+      <c r="AB5" s="42">
         <v>1950.0900690000008</v>
       </c>
-      <c r="AH5" s="93">
+      <c r="AC5" s="93">
         <f t="shared" si="6"/>
         <v>1950.0900690000008</v>
       </c>
-      <c r="AI5" s="93">
+      <c r="AD5" s="93">
         <f t="shared" si="7"/>
         <v>1950.0900690000008</v>
       </c>
-      <c r="AJ5" s="81">
+      <c r="AE5" s="81">
         <v>0</v>
       </c>
-      <c r="AK5" s="43">
+      <c r="AF5" s="43">
         <v>0.1027</v>
       </c>
-      <c r="AL5" s="43">
+      <c r="AG5" s="43">
         <v>0.1027</v>
       </c>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="38">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="41">
+        <f t="shared" si="8"/>
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="AL5" s="41"/>
       <c r="AM5" s="41"/>
-      <c r="AN5" s="38">
+      <c r="AN5" s="45">
+        <v>8.7061719601312176E-2</v>
+      </c>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="45">
+        <v>8.7061719601312176E-2</v>
+      </c>
+      <c r="AQ5" s="41">
+        <v>0.19276171960131216</v>
+      </c>
+      <c r="AR5" s="41">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AO5" s="41"/>
-      <c r="AP5" s="41">
-        <v>2.3699999999999999E-2</v>
-      </c>
-      <c r="AQ5" s="41"/>
-      <c r="AR5" s="41"/>
-      <c r="AS5" s="45">
-        <v>8.7061719601312176E-2</v>
-      </c>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="45">
-        <v>8.7061719601312176E-2</v>
-      </c>
-      <c r="AV5" s="41">
-        <v>0.19276171960131216</v>
-      </c>
-      <c r="AW5" s="41">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="AX5" s="86">
+      <c r="AS5" s="86">
         <v>-410.98877599999997</v>
       </c>
-      <c r="AY5" s="48">
+      <c r="AT5" s="86"/>
+      <c r="AU5" s="48">
         <v>-410.98877599999997</v>
       </c>
-      <c r="AZ5" s="83"/>
+      <c r="AV5" s="83"/>
+      <c r="AW5" s="37"/>
+      <c r="AX5" s="23">
+        <v>-4.1687709999999996</v>
+      </c>
+      <c r="AY5" s="83"/>
+      <c r="AZ5" s="49">
+        <v>102.075271</v>
+      </c>
       <c r="BA5" s="37"/>
-      <c r="BB5" s="23">
-        <v>-4.1687709999999996</v>
-      </c>
-      <c r="BC5" s="83"/>
-      <c r="BD5" s="49">
-        <v>102.075271</v>
-      </c>
-      <c r="BE5" s="37"/>
-      <c r="BF5" s="81"/>
-      <c r="BG5" s="23">
+      <c r="BB5" s="81"/>
+      <c r="BC5" s="23">
         <v>22.903432559999999</v>
       </c>
+      <c r="BD5" s="37"/>
+      <c r="BE5" s="23">
+        <v>118.40672644</v>
+      </c>
+      <c r="BF5" s="37"/>
+      <c r="BG5" s="37"/>
       <c r="BH5" s="37"/>
-      <c r="BI5" s="23">
-        <v>118.40672644</v>
-      </c>
-      <c r="BJ5" s="37"/>
-      <c r="BK5" s="37"/>
-      <c r="BL5" s="37"/>
-      <c r="BM5" s="81"/>
-      <c r="BN5" s="81"/>
-      <c r="BO5" s="37">
-        <v>243.38542999999999</v>
-      </c>
-      <c r="BP5" s="81"/>
-      <c r="BQ5" s="37"/>
-      <c r="BR5" s="81">
-        <v>243.38542999999999</v>
-      </c>
-      <c r="BW5" s="53">
+      <c r="BI5" s="81"/>
+      <c r="BJ5" s="81"/>
+      <c r="BK5" s="37">
+        <f t="shared" si="9"/>
+        <v>141.310159</v>
+      </c>
+      <c r="BL5" s="81"/>
+      <c r="BM5" s="37"/>
+      <c r="BN5" s="81">
+        <f t="shared" si="10"/>
+        <v>141.310159</v>
+      </c>
+      <c r="BP5" s="104">
+        <f t="shared" si="11"/>
+        <v>141.310159</v>
+      </c>
+      <c r="BR5" s="9">
+        <f t="shared" si="12"/>
+        <v>0.11487646891382107</v>
+      </c>
+      <c r="BS5" s="53">
         <v>-171.77211699999998</v>
       </c>
-      <c r="BX5" s="55">
+      <c r="BT5" s="55">
         <v>412.07743394775002</v>
       </c>
+      <c r="BU5" s="55">
+        <v>5712.8244989477498</v>
+      </c>
+      <c r="BV5" s="55">
+        <v>67.16950905224985</v>
+      </c>
+      <c r="BW5" s="55">
+        <v>16.792377263062463</v>
+      </c>
+      <c r="BX5" s="37">
+        <v>51.795702494375064</v>
+      </c>
       <c r="BY5" s="55">
-        <v>5712.8244989477498</v>
-      </c>
-      <c r="BZ5" s="55">
-        <v>67.16950905224985</v>
-      </c>
-      <c r="CA5" s="55">
-        <v>16.792377263062463</v>
-      </c>
-      <c r="CB5" s="37">
-        <v>51.795702494375064</v>
-      </c>
-      <c r="CC5" s="55">
         <v>-79.210256500000241</v>
       </c>
-      <c r="CD5" s="82">
+      <c r="BZ5" s="82">
         <v>-38.473998999999822</v>
       </c>
-      <c r="CE5" s="82">
+      <c r="CA5" s="82">
+        <f t="shared" si="0"/>
         <v>-49.096175742562536</v>
       </c>
+      <c r="CB5" s="82"/>
+      <c r="CC5" s="82"/>
+      <c r="CD5" s="82"/>
+      <c r="CE5" s="82"/>
       <c r="CF5" s="82"/>
       <c r="CG5" s="82"/>
       <c r="CH5" s="82"/>
       <c r="CI5" s="82"/>
       <c r="CJ5" s="82"/>
-      <c r="CK5" s="82"/>
-      <c r="CL5" s="82"/>
-      <c r="CM5" s="82"/>
-      <c r="CN5" s="82"/>
-    </row>
-    <row r="6" spans="1:104" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A6" s="33">
         <v>2019</v>
       </c>
@@ -7346,201 +7498,203 @@
         <v>7957.037808</v>
       </c>
       <c r="K6" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7957.037808</v>
       </c>
       <c r="L6" s="21"/>
       <c r="M6" s="21">
         <v>118.63831</v>
       </c>
-      <c r="O6" s="21">
-        <v>7957.037808</v>
-      </c>
-      <c r="P6" s="21">
-        <f t="shared" si="1"/>
-        <v>7957.037808</v>
-      </c>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21">
-        <v>118.63831</v>
-      </c>
-      <c r="T6" s="23">
+      <c r="O6" s="23">
         <v>5903.1909589999996</v>
       </c>
-      <c r="U6" s="83">
+      <c r="P6" s="83">
         <f t="shared" si="2"/>
         <v>5903.1909589999996</v>
       </c>
-      <c r="V6" s="83"/>
-      <c r="W6" s="23">
+      <c r="Q6" s="83"/>
+      <c r="R6" s="23">
         <v>5903.3062479999999</v>
       </c>
-      <c r="X6" s="83">
+      <c r="S6" s="83">
         <f t="shared" si="3"/>
         <v>5903.3062479999999</v>
       </c>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="38">
+      <c r="T6" s="83"/>
+      <c r="U6" s="38">
         <v>5.6500000000000002E-2</v>
       </c>
-      <c r="AA6" s="37">
+      <c r="V6" s="37">
         <v>2053.8468490000005</v>
       </c>
-      <c r="AB6" s="81">
+      <c r="W6" s="81">
         <f t="shared" si="4"/>
         <v>2053.8468490000005</v>
       </c>
-      <c r="AC6" s="81">
+      <c r="X6" s="81">
         <f t="shared" si="5"/>
         <v>2053.8468490000005</v>
       </c>
-      <c r="AD6" s="81">
+      <c r="Y6" s="81">
         <v>0</v>
       </c>
-      <c r="AE6" s="39">
+      <c r="Z6" s="39">
         <v>0.74188298477920211</v>
       </c>
-      <c r="AF6" s="40">
+      <c r="AA6" s="40">
         <v>0.74189747371375059</v>
       </c>
-      <c r="AG6" s="42">
+      <c r="AB6" s="42">
         <v>2053.7315600000002</v>
       </c>
-      <c r="AH6" s="93">
+      <c r="AC6" s="93">
         <f t="shared" si="6"/>
         <v>2053.7315600000002</v>
       </c>
-      <c r="AI6" s="93">
+      <c r="AD6" s="93">
         <f t="shared" si="7"/>
         <v>2053.7315600000002</v>
       </c>
-      <c r="AJ6" s="81">
+      <c r="AE6" s="81">
         <v>0</v>
       </c>
-      <c r="AK6" s="43">
+      <c r="AF6" s="43">
         <v>0.1009</v>
       </c>
-      <c r="AL6" s="43">
+      <c r="AG6" s="43">
         <v>0.1009</v>
       </c>
+      <c r="AH6" s="41"/>
+      <c r="AI6" s="38">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="AJ6" s="41"/>
+      <c r="AK6" s="41">
+        <f t="shared" si="8"/>
+        <v>2.1900000000000003E-2</v>
+      </c>
+      <c r="AL6" s="41"/>
       <c r="AM6" s="41"/>
-      <c r="AN6" s="38">
+      <c r="AN6" s="45">
+        <v>8.9493938846464782E-2</v>
+      </c>
+      <c r="AO6" s="45"/>
+      <c r="AP6" s="45">
+        <v>8.9493938846464782E-2</v>
+      </c>
+      <c r="AQ6" s="41">
+        <v>0.19379393884646479</v>
+      </c>
+      <c r="AR6" s="41">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AO6" s="41"/>
-      <c r="AP6" s="41">
-        <v>2.1900000000000003E-2</v>
-      </c>
-      <c r="AQ6" s="41"/>
-      <c r="AR6" s="41"/>
-      <c r="AS6" s="45">
-        <v>8.9493938846464782E-2</v>
-      </c>
-      <c r="AT6" s="45"/>
-      <c r="AU6" s="45">
-        <v>8.9493938846464782E-2</v>
-      </c>
-      <c r="AV6" s="41">
-        <v>0.19379393884646479</v>
-      </c>
-      <c r="AW6" s="41">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="AX6" s="86">
+      <c r="AS6" s="86">
         <v>-437.420569</v>
       </c>
-      <c r="AY6" s="48">
+      <c r="AT6" s="86"/>
+      <c r="AU6" s="48">
         <v>-437.420569</v>
       </c>
-      <c r="AZ6" s="83"/>
+      <c r="AV6" s="83"/>
+      <c r="AW6" s="37"/>
+      <c r="AX6" s="23">
+        <v>-3.8043939999999998</v>
+      </c>
+      <c r="AY6" s="83"/>
+      <c r="AZ6" s="49">
+        <v>101.713235</v>
+      </c>
       <c r="BA6" s="37"/>
-      <c r="BB6" s="23">
-        <v>-3.8043939999999998</v>
-      </c>
-      <c r="BC6" s="83"/>
-      <c r="BD6" s="49">
-        <v>101.713235</v>
-      </c>
-      <c r="BE6" s="37"/>
-      <c r="BF6" s="81"/>
-      <c r="BG6" s="37">
+      <c r="BB6" s="81"/>
+      <c r="BC6" s="81">
         <v>33.304077671099996</v>
       </c>
+      <c r="BD6" s="37"/>
+      <c r="BE6" s="23">
+        <v>108.5958903289</v>
+      </c>
+      <c r="BF6" s="37"/>
+      <c r="BG6" s="37"/>
       <c r="BH6" s="37"/>
-      <c r="BI6" s="23">
-        <v>108.5958903289</v>
-      </c>
-      <c r="BJ6" s="37"/>
-      <c r="BK6" s="37"/>
-      <c r="BL6" s="37"/>
-      <c r="BM6" s="81"/>
-      <c r="BN6" s="81"/>
-      <c r="BO6" s="37">
-        <v>243.613203</v>
-      </c>
-      <c r="BP6" s="81"/>
-      <c r="BQ6" s="37"/>
-      <c r="BR6" s="81">
-        <v>243.613203</v>
-      </c>
-      <c r="BW6" s="53">
+      <c r="BI6" s="81"/>
+      <c r="BJ6" s="81"/>
+      <c r="BK6" s="37">
+        <f t="shared" si="9"/>
+        <v>141.899968</v>
+      </c>
+      <c r="BL6" s="81"/>
+      <c r="BM6" s="37"/>
+      <c r="BN6" s="81">
+        <f t="shared" si="10"/>
+        <v>141.899968</v>
+      </c>
+      <c r="BP6" s="104">
+        <f t="shared" si="11"/>
+        <v>141.899968</v>
+      </c>
+      <c r="BR6" s="9">
+        <f t="shared" si="12"/>
+        <v>0.11376171960131218</v>
+      </c>
+      <c r="BS6" s="53">
         <v>-197.61176</v>
       </c>
-      <c r="BX6" s="55">
+      <c r="BT6" s="55">
         <v>434.61089179199996</v>
       </c>
+      <c r="BU6" s="55">
+        <v>6016.993139792</v>
+      </c>
+      <c r="BV6" s="55">
+        <v>-113.6868917920001</v>
+      </c>
+      <c r="BW6" s="55">
+        <v>-28.421722948000024</v>
+      </c>
+      <c r="BX6" s="37">
+        <v>16.792377263062463</v>
+      </c>
       <c r="BY6" s="55">
-        <v>6016.993139792</v>
-      </c>
-      <c r="BZ6" s="55">
-        <v>-113.6868917920001</v>
-      </c>
-      <c r="CA6" s="55">
-        <v>-28.421722948000024</v>
-      </c>
-      <c r="CB6" s="37">
-        <v>16.792377263062463</v>
-      </c>
-      <c r="CC6" s="55">
         <v>51.795702494375064</v>
       </c>
-      <c r="CD6" s="82">
+      <c r="BZ6" s="82">
         <v>-79.210256500000241</v>
       </c>
-      <c r="CE6" s="82">
+      <c r="CA6" s="82">
+        <f t="shared" si="0"/>
         <v>-39.043899690562739</v>
       </c>
+      <c r="CB6" s="82"/>
+      <c r="CC6" s="82"/>
+      <c r="CD6" s="82"/>
+      <c r="CE6" s="82"/>
       <c r="CF6" s="82"/>
       <c r="CG6" s="82"/>
       <c r="CH6" s="82"/>
       <c r="CI6" s="82"/>
       <c r="CJ6" s="82"/>
-      <c r="CK6" s="82"/>
-      <c r="CL6" s="82"/>
-      <c r="CM6" s="82"/>
-      <c r="CN6" s="82"/>
-      <c r="CO6" s="56"/>
-      <c r="CP6" s="56"/>
-      <c r="CQ6" s="37"/>
-      <c r="CR6" s="81"/>
-      <c r="CS6" s="46"/>
-      <c r="CT6" s="57"/>
-      <c r="CU6" s="57"/>
-      <c r="CV6" s="58">
+      <c r="CK6" s="56"/>
+      <c r="CL6" s="56"/>
+      <c r="CM6" s="37"/>
+      <c r="CN6" s="81"/>
+      <c r="CO6" s="46"/>
+      <c r="CP6" s="57"/>
+      <c r="CQ6" s="57"/>
+      <c r="CR6" s="58">
         <v>0.11364926756007519</v>
       </c>
-      <c r="CW6" s="88"/>
-      <c r="CX6" s="44">
+      <c r="CS6" s="88"/>
+      <c r="CT6" s="44">
         <v>8.6699999999999999E-2</v>
       </c>
-      <c r="CY6" s="59">
+      <c r="CU6" s="59">
         <v>33.615000000000002</v>
       </c>
-      <c r="CZ6" s="60">
+      <c r="CV6" s="60">
         <v>17.314238969770201</v>
       </c>
     </row>
-    <row r="7" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A7" s="33">
         <v>2020</v>
       </c>
@@ -7568,207 +7722,210 @@
         <v>8234.0029830000003</v>
       </c>
       <c r="K7" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8234.0029830000003</v>
       </c>
       <c r="L7" s="21"/>
       <c r="M7" s="21">
         <v>118.395999</v>
       </c>
-      <c r="O7" s="21">
-        <v>8234.0029830000003</v>
-      </c>
-      <c r="P7" s="21">
-        <f t="shared" si="1"/>
-        <v>8234.0029830000003</v>
-      </c>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21">
-        <v>118.395999</v>
-      </c>
-      <c r="T7" s="23">
+      <c r="O7" s="23">
         <v>6099.3981620000004</v>
       </c>
-      <c r="U7" s="83">
+      <c r="P7" s="83">
         <f t="shared" si="2"/>
         <v>6099.3981620000004</v>
       </c>
-      <c r="V7" s="83"/>
-      <c r="W7" s="23">
+      <c r="Q7" s="83"/>
+      <c r="R7" s="23">
         <v>5845.4740240000001</v>
       </c>
-      <c r="X7" s="83">
+      <c r="S7" s="83">
         <f t="shared" si="3"/>
         <v>5845.4740240000001</v>
       </c>
-      <c r="Y7" s="83"/>
-      <c r="Z7" s="38">
+      <c r="T7" s="83"/>
+      <c r="U7" s="38">
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="AA7" s="37">
+      <c r="V7" s="37">
         <v>2134.6048209999999</v>
       </c>
-      <c r="AB7" s="81">
+      <c r="W7" s="81">
         <f t="shared" si="4"/>
         <v>2134.6048209999999</v>
       </c>
-      <c r="AC7" s="81">
+      <c r="X7" s="81">
         <f t="shared" si="5"/>
         <v>2134.6048209999999</v>
       </c>
-      <c r="AD7" s="81">
+      <c r="Y7" s="81">
         <v>0</v>
       </c>
-      <c r="AE7" s="39">
+      <c r="Z7" s="39">
         <v>0.74075734179267061</v>
       </c>
-      <c r="AF7" s="40">
+      <c r="AA7" s="40">
         <v>0.70991886158756812</v>
       </c>
-      <c r="AG7" s="42">
+      <c r="AB7" s="42">
         <v>2388.5289590000002</v>
       </c>
-      <c r="AH7" s="93">
+      <c r="AC7" s="93">
         <f t="shared" si="6"/>
         <v>2388.5289590000002</v>
       </c>
-      <c r="AI7" s="93">
+      <c r="AD7" s="93">
         <f t="shared" si="7"/>
         <v>2388.5289590000002</v>
       </c>
-      <c r="AJ7" s="81">
+      <c r="AE7" s="81">
         <v>0</v>
       </c>
-      <c r="AK7" s="43">
+      <c r="AF7" s="43">
         <v>9.8099999999999979E-2</v>
       </c>
+      <c r="AG7" s="43">
+        <v>9.8499999999999976E-2</v>
+      </c>
+      <c r="AH7" s="43">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="AI7" s="43">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="AJ7" s="43">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="AK7" s="41">
+        <f t="shared" si="8"/>
+        <v>1.9499999999999976E-2</v>
+      </c>
       <c r="AL7" s="43">
-        <v>9.8499999999999976E-2</v>
-      </c>
-      <c r="AM7" s="43">
-        <v>8.8999999999999996E-2</v>
-      </c>
+        <f>AH7-AJ7</f>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="AM7" s="43"/>
       <c r="AN7" s="43">
+        <v>9.2657393897864926E-2</v>
+      </c>
+      <c r="AO7" s="95"/>
+      <c r="AP7" s="95">
+        <v>9.2657393897864926E-2</v>
+      </c>
+      <c r="AQ7" s="41">
+        <v>0.19431963815434536</v>
+      </c>
+      <c r="AR7" s="41">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AO7" s="43">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="AP7" s="43">
-        <v>1.9100000000000006E-2</v>
-      </c>
-      <c r="AQ7" s="43">
-        <v>1.1499999999999996E-2</v>
-      </c>
-      <c r="AR7" s="43"/>
-      <c r="AS7" s="43">
-        <v>9.3019638154345372E-2</v>
-      </c>
-      <c r="AT7" s="95"/>
-      <c r="AU7" s="95">
-        <v>9.2657393897864926E-2</v>
-      </c>
-      <c r="AV7" s="41">
-        <v>0.19431963815434536</v>
-      </c>
-      <c r="AW7" s="41">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="AX7" s="86">
+      <c r="AS7" s="86">
         <v>-463.95835399999999</v>
       </c>
-      <c r="AY7" s="48">
+      <c r="AT7" s="86"/>
+      <c r="AU7" s="48">
         <v>-463.95835399999999</v>
       </c>
-      <c r="AZ7" s="83"/>
+      <c r="AV7" s="83"/>
+      <c r="AW7" s="37"/>
+      <c r="AX7" s="23">
+        <v>-4.0596269999999999</v>
+      </c>
+      <c r="AY7" s="83"/>
+      <c r="AZ7" s="49">
+        <v>105.009017</v>
+      </c>
       <c r="BA7" s="37"/>
-      <c r="BB7" s="23">
-        <v>-4.0596269999999999</v>
-      </c>
-      <c r="BC7" s="83"/>
-      <c r="BD7" s="49">
-        <v>105.009017</v>
-      </c>
-      <c r="BE7" s="37"/>
-      <c r="BF7" s="81"/>
-      <c r="BG7" s="37">
+      <c r="BB7" s="81"/>
+      <c r="BC7" s="81">
         <v>32.398104674100004</v>
       </c>
+      <c r="BD7" s="37"/>
+      <c r="BE7" s="23">
+        <v>114.60213432590001</v>
+      </c>
+      <c r="BF7" s="37"/>
+      <c r="BG7" s="37"/>
       <c r="BH7" s="37"/>
-      <c r="BI7" s="23">
-        <v>114.60213432590001</v>
-      </c>
-      <c r="BJ7" s="37"/>
-      <c r="BK7" s="37"/>
-      <c r="BL7" s="37"/>
-      <c r="BM7" s="81"/>
-      <c r="BN7" s="81"/>
-      <c r="BO7" s="37">
-        <v>267.77144700000002</v>
-      </c>
-      <c r="BP7" s="81"/>
-      <c r="BQ7" s="37"/>
-      <c r="BR7" s="81">
-        <v>267.77144700000002</v>
-      </c>
-      <c r="BW7" s="53">
+      <c r="BI7" s="81"/>
+      <c r="BJ7" s="81"/>
+      <c r="BK7" s="37">
+        <f t="shared" si="9"/>
+        <v>147.00023900000002</v>
+      </c>
+      <c r="BL7" s="81"/>
+      <c r="BM7" s="37"/>
+      <c r="BN7" s="81">
+        <f t="shared" si="10"/>
+        <v>147.00023900000002</v>
+      </c>
+      <c r="BP7" s="104">
+        <f t="shared" si="11"/>
+        <v>147.00023900000002</v>
+      </c>
+      <c r="BR7" s="9">
+        <f t="shared" si="12"/>
+        <v>0.11479393884646479</v>
+      </c>
+      <c r="BS7" s="53">
         <v>-216.00872499999997</v>
       </c>
-      <c r="BX7" s="55">
+      <c r="BT7" s="55">
         <v>443.34059424074997</v>
       </c>
+      <c r="BU7" s="55">
+        <v>6130.63811724075</v>
+      </c>
+      <c r="BV7" s="55">
+        <v>-285.16409324074993</v>
+      </c>
+      <c r="BW7" s="55">
+        <v>-71.291023310187484</v>
+      </c>
+      <c r="BX7" s="37">
+        <v>-28.421722948000024</v>
+      </c>
       <c r="BY7" s="55">
-        <v>6130.63811724075</v>
-      </c>
-      <c r="BZ7" s="55">
-        <v>-285.16409324074993</v>
-      </c>
-      <c r="CA7" s="55">
-        <v>-71.291023310187484</v>
-      </c>
-      <c r="CB7" s="37">
-        <v>-28.421722948000024</v>
-      </c>
-      <c r="CC7" s="55">
         <v>16.792377263062463</v>
       </c>
-      <c r="CD7" s="82">
+      <c r="BZ7" s="82">
         <v>51.795702494375064</v>
       </c>
-      <c r="CE7" s="82">
+      <c r="CA7" s="82">
+        <f t="shared" si="0"/>
         <v>-31.124666500749981</v>
       </c>
+      <c r="CB7" s="82"/>
+      <c r="CC7" s="82"/>
+      <c r="CD7" s="82"/>
+      <c r="CE7" s="82"/>
       <c r="CF7" s="82"/>
       <c r="CG7" s="82"/>
       <c r="CH7" s="82"/>
       <c r="CI7" s="82"/>
       <c r="CJ7" s="82"/>
-      <c r="CK7" s="82"/>
-      <c r="CL7" s="82"/>
-      <c r="CM7" s="82"/>
-      <c r="CN7" s="82"/>
-      <c r="CO7" s="56"/>
-      <c r="CP7" s="56"/>
-      <c r="CQ7" s="37"/>
-      <c r="CR7" s="81"/>
-      <c r="CS7" s="61"/>
-      <c r="CT7" s="57"/>
-      <c r="CU7" s="57"/>
-      <c r="CV7" s="58">
+      <c r="CK7" s="56"/>
+      <c r="CL7" s="56"/>
+      <c r="CM7" s="37"/>
+      <c r="CN7" s="81"/>
+      <c r="CO7" s="61"/>
+      <c r="CP7" s="57"/>
+      <c r="CQ7" s="57"/>
+      <c r="CR7" s="58">
         <v>0.11421278843748787</v>
       </c>
-      <c r="CW7" s="88"/>
-      <c r="CX7" s="47">
+      <c r="CS7" s="88"/>
+      <c r="CT7" s="47">
         <v>8.77E-2</v>
       </c>
-      <c r="CY7" s="59">
+      <c r="CU7" s="59">
         <v>33.951150000000005</v>
       </c>
-      <c r="CZ7" s="60">
+      <c r="CV7" s="60">
         <v>17.314238969770201</v>
       </c>
     </row>
-    <row r="8" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A8" s="33">
         <v>2021</v>
       </c>
@@ -7794,211 +7951,214 @@
         <v>8534.6280000000006</v>
       </c>
       <c r="K8" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8534.6280000000006</v>
       </c>
       <c r="L8" s="21"/>
       <c r="M8" s="21">
         <v>117.405</v>
       </c>
-      <c r="O8" s="21">
-        <v>8534.6280000000006</v>
-      </c>
-      <c r="P8" s="21">
-        <f t="shared" si="1"/>
-        <v>8534.6280000000006</v>
-      </c>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21">
-        <v>117.405</v>
-      </c>
-      <c r="T8" s="79">
+      <c r="O8" s="79">
         <v>6514.9759999999997</v>
       </c>
-      <c r="U8" s="83">
+      <c r="P8" s="83">
         <f t="shared" si="2"/>
         <v>6514.9759999999997</v>
       </c>
-      <c r="V8" s="83"/>
-      <c r="W8" s="79">
+      <c r="Q8" s="83"/>
+      <c r="R8" s="79">
         <v>7210.0259999999998</v>
       </c>
-      <c r="X8" s="83">
+      <c r="S8" s="83">
         <f t="shared" si="3"/>
         <v>7210.0259999999998</v>
       </c>
-      <c r="Y8" s="83"/>
-      <c r="Z8" s="38">
+      <c r="T8" s="83"/>
+      <c r="U8" s="38">
         <v>0.27800000000000002</v>
       </c>
-      <c r="AA8" s="81">
+      <c r="V8" s="81">
         <v>2019.652</v>
       </c>
-      <c r="AB8" s="81">
+      <c r="W8" s="81">
         <f t="shared" si="4"/>
         <v>2019.652</v>
       </c>
-      <c r="AC8" s="81">
+      <c r="X8" s="81">
         <f t="shared" si="5"/>
         <v>2019.652</v>
       </c>
-      <c r="AD8" s="81">
+      <c r="Y8" s="81">
         <v>0</v>
       </c>
-      <c r="AE8" s="39">
+      <c r="Z8" s="39">
         <v>0.76335793428840704</v>
       </c>
-      <c r="AF8" s="39">
+      <c r="AA8" s="39">
         <v>0.84479675036803004</v>
       </c>
-      <c r="AG8" s="91">
-        <f>O8-W8</f>
+      <c r="AB8" s="91">
+        <f>J8-R8</f>
         <v>1324.6020000000008</v>
       </c>
-      <c r="AH8" s="93">
+      <c r="AC8" s="93">
         <f t="shared" si="6"/>
         <v>1324.6020000000008</v>
       </c>
-      <c r="AI8" s="93">
+      <c r="AD8" s="93">
         <f t="shared" si="7"/>
         <v>1324.6020000000008</v>
       </c>
-      <c r="AJ8" s="81">
+      <c r="AE8" s="81">
         <v>0</v>
       </c>
-      <c r="AK8" s="43">
+      <c r="AF8" s="43">
         <v>9.7100000000000006E-2</v>
       </c>
+      <c r="AG8" s="43">
+        <v>9.7100000000000006E-2</v>
+      </c>
+      <c r="AH8" s="43">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="AI8" s="43">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="AJ8" s="43">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="AK8" s="41">
+        <f t="shared" si="8"/>
+        <v>1.8100000000000005E-2</v>
+      </c>
       <c r="AL8" s="43">
-        <v>9.7100000000000006E-2</v>
-      </c>
-      <c r="AM8" s="43">
-        <v>8.8999999999999996E-2</v>
-      </c>
+        <f>AH8-AJ8</f>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="AM8" s="43"/>
       <c r="AN8" s="43">
+        <v>8.2772645244269347E-2</v>
+      </c>
+      <c r="AO8" s="95"/>
+      <c r="AP8" s="95">
+        <v>9.3680980455316476E-2</v>
+      </c>
+      <c r="AQ8" s="41">
+        <v>0.19431963815434536</v>
+      </c>
+      <c r="AR8" s="41">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AO8" s="43">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="AP8" s="43">
-        <v>1.8100000000000002E-2</v>
-      </c>
-      <c r="AQ8" s="43">
-        <v>1.1499999999999996E-2</v>
-      </c>
-      <c r="AR8" s="43"/>
-      <c r="AS8" s="43">
-        <v>9.3019638154345372E-2</v>
-      </c>
-      <c r="AT8" s="95"/>
-      <c r="AU8" s="95"/>
-      <c r="AV8" s="41">
-        <v>0.19431963815434536</v>
-      </c>
-      <c r="AW8" s="41">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="AX8" s="86">
+      <c r="AS8" s="86">
         <v>-491.99438300000003</v>
       </c>
-      <c r="AY8" s="86">
+      <c r="AT8" s="86"/>
+      <c r="AU8" s="86">
         <v>-491.99438300000003</v>
       </c>
-      <c r="AZ8" s="83"/>
-      <c r="BB8" s="83">
+      <c r="AV8" s="83"/>
+      <c r="AX8" s="83">
         <v>-4.0596269999999999</v>
       </c>
-      <c r="BC8" s="83"/>
-      <c r="BD8" s="87">
+      <c r="AY8" s="83"/>
+      <c r="AZ8" s="87">
         <v>111.246246</v>
       </c>
-      <c r="BE8" s="81"/>
+      <c r="BA8" s="81"/>
+      <c r="BB8" s="81"/>
+      <c r="BC8" s="81">
+        <v>30.36343470000001</v>
+      </c>
+      <c r="BD8" s="81"/>
+      <c r="BE8" s="83">
+        <v>126.16128830000001</v>
+      </c>
       <c r="BF8" s="81"/>
-      <c r="BG8" s="81">
-        <v>32.398104674100004</v>
-      </c>
+      <c r="BG8" s="81"/>
       <c r="BH8" s="81"/>
-      <c r="BI8" s="83">
-        <v>114.60213432590001</v>
-      </c>
+      <c r="BI8" s="81"/>
       <c r="BJ8" s="81"/>
-      <c r="BK8" s="81"/>
+      <c r="BK8" s="81">
+        <f t="shared" si="9"/>
+        <v>156.52472300000002</v>
+      </c>
       <c r="BL8" s="81"/>
       <c r="BM8" s="81"/>
-      <c r="BN8" s="81"/>
-      <c r="BO8" s="81">
-        <v>272.37313466549995</v>
-      </c>
-      <c r="BP8" s="81"/>
-      <c r="BQ8" s="81"/>
-      <c r="BR8" s="81">
-        <v>272.37313466549995</v>
-      </c>
-      <c r="BS8" s="80"/>
-      <c r="BT8" s="80"/>
-      <c r="BU8" s="80"/>
-      <c r="BV8" s="80"/>
-      <c r="BW8" s="89">
+      <c r="BN8" s="81">
+        <f t="shared" si="10"/>
+        <v>156.52472300000002</v>
+      </c>
+      <c r="BO8" s="80"/>
+      <c r="BP8" s="104">
+        <f t="shared" si="11"/>
+        <v>156.52472300000002</v>
+      </c>
+      <c r="BQ8" s="80"/>
+      <c r="BR8" s="9">
+        <f t="shared" si="12"/>
+        <v>0.11495739389786494</v>
+      </c>
+      <c r="BS8" s="89">
         <v>-228.62027399999994</v>
       </c>
-      <c r="BX8" s="82">
+      <c r="BT8" s="82">
         <v>438.43403735549998</v>
       </c>
+      <c r="BU8" s="82">
+        <v>6055.2877873554999</v>
+      </c>
+      <c r="BV8" s="82">
+        <v>1154.7390946445003</v>
+      </c>
+      <c r="BW8" s="82">
+        <v>288.68477366112506</v>
+      </c>
+      <c r="BX8" s="81">
+        <v>-71.291023310187484</v>
+      </c>
       <c r="BY8" s="82">
-        <v>6055.2877873554999</v>
+        <v>-28.421722948000024</v>
       </c>
       <c r="BZ8" s="82">
-        <v>1154.7390946445003</v>
+        <v>16.792377263062463</v>
       </c>
       <c r="CA8" s="82">
-        <v>288.68477366112506</v>
-      </c>
-      <c r="CB8" s="81">
-        <v>-71.291023310187484</v>
-      </c>
-      <c r="CC8" s="82">
-        <v>-28.421722948000024</v>
-      </c>
-      <c r="CD8" s="82">
-        <v>16.792377263062463</v>
-      </c>
-      <c r="CE8" s="82">
+        <f>SUM(BW8:BZ8)</f>
         <v>205.76440466600002</v>
       </c>
+      <c r="CB8" s="82"/>
+      <c r="CC8" s="82"/>
+      <c r="CD8" s="82"/>
+      <c r="CE8" s="82"/>
       <c r="CF8" s="82"/>
       <c r="CG8" s="82"/>
       <c r="CH8" s="82"/>
       <c r="CI8" s="82"/>
       <c r="CJ8" s="82"/>
-      <c r="CK8" s="82"/>
-      <c r="CL8" s="82"/>
-      <c r="CM8" s="82"/>
-      <c r="CN8" s="82"/>
-      <c r="CO8" s="56"/>
-      <c r="CP8" s="56"/>
-      <c r="CQ8" s="81"/>
-      <c r="CR8" s="81"/>
-      <c r="CS8" s="90"/>
-      <c r="CT8" s="57"/>
-      <c r="CU8" s="57"/>
-      <c r="CV8" s="88">
-        <v>0.11421278843748787</v>
-      </c>
-      <c r="CW8" s="88"/>
-      <c r="CX8" s="84">
+      <c r="CK8" s="56"/>
+      <c r="CL8" s="56"/>
+      <c r="CM8" s="81"/>
+      <c r="CN8" s="81"/>
+      <c r="CO8" s="90"/>
+      <c r="CP8" s="57"/>
+      <c r="CQ8" s="57"/>
+      <c r="CR8" s="88">
+        <v>0.11388429680322036</v>
+      </c>
+      <c r="CS8" s="88"/>
+      <c r="CT8" s="84">
         <v>8.8700000000000001E-2</v>
       </c>
-      <c r="CY8" s="59">
-        <f>CY7*1.01</f>
+      <c r="CU8" s="59">
+        <f>CU7*1.01</f>
         <v>34.290661500000006</v>
       </c>
-      <c r="CZ8" s="85">
+      <c r="CV8" s="85">
         <v>17.314238969770201</v>
       </c>
     </row>
-    <row r="13" spans="1:104" x14ac:dyDescent="0.3">
-      <c r="BT13" s="96"/>
+    <row r="13" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="BP13" s="96"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8010,66 +8170,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="33">
         <v>2015</v>
       </c>
       <c r="B2" s="32"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="33">
         <v>2016</v>
       </c>
       <c r="B3" s="32"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="33">
         <v>2017</v>
       </c>
       <c r="B4" s="63"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="33">
         <v>2018</v>
       </c>
       <c r="B5" s="13"/>
       <c r="D5" s="80"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="33">
         <v>2019</v>
       </c>
       <c r="B6" s="13"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="35">
         <v>2020</v>
       </c>
       <c r="B7" s="13"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="35">
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="35">
         <v>2022</v>
       </c>
@@ -8077,7 +8237,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="35">
         <v>2023</v>
       </c>
@@ -8085,7 +8245,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="35">
         <v>2024</v>
       </c>
@@ -8093,7 +8253,7 @@
         <v>1.5166666666666668E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="64">
         <v>2025</v>
       </c>
@@ -8101,7 +8261,7 @@
         <v>3.0333333333333336E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="64">
         <v>2026</v>
       </c>
@@ -8109,7 +8269,7 @@
         <v>4.5500000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="64">
         <v>2027</v>
       </c>
@@ -8117,7 +8277,7 @@
         <v>6.0666666666666673E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="64">
         <v>2028</v>
       </c>
@@ -8125,7 +8285,7 @@
         <v>7.5833333333333334E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="64">
         <v>2029</v>
       </c>
@@ -8133,7 +8293,7 @@
         <v>9.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="64">
         <v>2030</v>
       </c>
@@ -8141,7 +8301,7 @@
         <v>1.0616666666666668E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="64">
         <v>2031</v>
       </c>
@@ -8149,7 +8309,7 @@
         <v>1.2133333333333335E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="64">
         <v>2032</v>
       </c>
@@ -8157,7 +8317,7 @@
         <v>1.3650000000000002E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="64">
         <v>2033</v>
       </c>
@@ -8165,7 +8325,7 @@
         <v>1.5166666666666667E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="64">
         <v>2034</v>
       </c>
@@ -8173,7 +8333,7 @@
         <v>1.6683333333333335E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="33">
         <v>2035</v>
       </c>
@@ -8181,7 +8341,7 @@
         <v>1.8200000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="33">
         <v>2036</v>
       </c>
@@ -8189,7 +8349,7 @@
         <v>1.9716666666666667E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="33">
         <v>2037</v>
       </c>
@@ -8197,7 +8357,7 @@
         <v>2.1233333333333337E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="33">
         <v>2038</v>
       </c>
@@ -8205,7 +8365,7 @@
         <v>2.2749999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="33">
         <v>2039</v>
       </c>
@@ -8213,7 +8373,7 @@
         <v>2.4266666666666669E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="33">
         <v>2040</v>
       </c>
@@ -8221,7 +8381,7 @@
         <v>2.5783333333333335E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="33">
         <v>2041</v>
       </c>
@@ -8229,7 +8389,7 @@
         <v>2.9726666666666669E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="33">
         <v>2042</v>
       </c>
@@ -8237,7 +8397,7 @@
         <v>3.3670000000000005E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="33">
         <v>2043</v>
       </c>
@@ -8245,7 +8405,7 @@
         <v>3.7613333333333339E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="33">
         <v>2044</v>
       </c>
@@ -8253,7 +8413,7 @@
         <v>4.1556666666666679E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="33">
         <v>2045</v>
       </c>
@@ -8261,7 +8421,7 @@
         <v>4.5500000000000006E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="33">
         <v>2046</v>
       </c>
@@ -8269,7 +8429,7 @@
         <v>4.9443333333333346E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="33">
         <v>2047</v>
       </c>
@@ -8277,7 +8437,7 @@
         <v>5.3386666666666673E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="33">
         <v>2048</v>
       </c>
@@ -8285,7 +8445,7 @@
         <v>5.7330000000000013E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="33">
         <v>2049</v>
       </c>
@@ -8293,7 +8453,7 @@
         <v>6.1273333333333346E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="33">
         <v>2050</v>
       </c>
@@ -8301,7 +8461,7 @@
         <v>6.5216666666666673E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="33">
         <v>2051</v>
       </c>
@@ -8309,7 +8469,7 @@
         <v>6.9159999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="33">
         <v>2052</v>
       </c>
@@ -8317,7 +8477,7 @@
         <v>7.3103333333333326E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="33">
         <v>2053</v>
       </c>
@@ -8325,7 +8485,7 @@
         <v>7.7046666666666652E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="33">
         <v>2054</v>
       </c>
@@ -8333,7 +8493,7 @@
         <v>8.0989999999999979E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="33">
         <v>2055</v>
       </c>
@@ -8341,7 +8501,7 @@
         <v>8.4933333333333305E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="33">
         <v>2056</v>
       </c>

--- a/Funding Model Inputs 2021.xlsx
+++ b/Funding Model Inputs 2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truongbui/Dropbox/Work/Reason/Reason Work/Montana/Benefit Models/Montana-PERS-BModel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5611FD9-09DA-7741-A210-A0F992E41F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F668649-9778-664C-9BF5-7F73DAF28737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Numeric Inputs" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="270">
   <si>
     <t>Economic Inputs</t>
   </si>
@@ -241,9 +241,6 @@
     <t>TotalPayroll</t>
   </si>
   <si>
-    <t>PayrollLegacy</t>
-  </si>
-  <si>
     <t>PayrollNewTier</t>
   </si>
   <si>
@@ -289,9 +286,6 @@
     <t>New Hire Plan</t>
   </si>
   <si>
-    <t>Choice DC Employer Contributon</t>
-  </si>
-  <si>
     <t>Employee Contribution Rate - New Hires</t>
   </si>
   <si>
@@ -812,6 +806,51 @@
   </si>
   <si>
     <t>ERContrib_DC</t>
+  </si>
+  <si>
+    <t>Maximum Employer Contribution Rate</t>
+  </si>
+  <si>
+    <t>MaxERContrib</t>
+  </si>
+  <si>
+    <t>Model Investment Return</t>
+  </si>
+  <si>
+    <t>model_return</t>
+  </si>
+  <si>
+    <t>NewHirePayroll</t>
+  </si>
+  <si>
+    <t>CurrentHirePayrollDC</t>
+  </si>
+  <si>
+    <t>CurrentHirePayrollDB</t>
+  </si>
+  <si>
+    <t>CurrentHirePayroll</t>
+  </si>
+  <si>
+    <t>ER_DC_Pct</t>
+  </si>
+  <si>
+    <t>DC contribution policy</t>
+  </si>
+  <si>
+    <t>DCPolicy</t>
+  </si>
+  <si>
+    <t>Current Policy</t>
+  </si>
+  <si>
+    <t>No DC Rollback</t>
+  </si>
+  <si>
+    <t>Constant Rate</t>
+  </si>
+  <si>
+    <t>DC Employer Contributon Rate (for Constant option)</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1113,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1332,6 +1371,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1619,10 +1659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1633,34 +1673,34 @@
     <col min="4" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="25">
+        <v>7.6499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="25">
-        <v>7.6499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>219</v>
-      </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C3" s="25">
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1671,262 +1711,273 @@
         <v>2.75E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="13">
+        <v>7.6499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="103" t="s">
-        <v>245</v>
-      </c>
-      <c r="B6" s="96" t="s">
-        <v>246</v>
-      </c>
-      <c r="C6" s="26">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B7" s="96" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C7" s="26">
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" t="s">
-        <v>129</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="103" t="s">
+        <v>245</v>
+      </c>
+      <c r="B8" s="96" t="s">
+        <v>246</v>
       </c>
       <c r="C8" s="26">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="26">
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>52</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>54</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="25">
         <v>9.7100000000000006E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="25">
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="25">
-        <v>7.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="C13" s="25">
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="80" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="80" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="C14" s="25">
-        <v>0</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="80" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15" s="80" t="s">
-        <v>173</v>
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" t="s">
+        <v>129</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="26">
-        <v>0.02</v>
-      </c>
+      <c r="F15" s="80"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
     </row>
     <row r="17" spans="1:6" s="96" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>269</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="26">
-        <v>1</v>
+        <v>106</v>
+      </c>
+      <c r="C17" s="13">
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
+      <c r="F17"/>
     </row>
     <row r="18" spans="1:6" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="B18" s="96" t="s">
-        <v>179</v>
-      </c>
-      <c r="C18" s="27">
-        <v>25</v>
-      </c>
+      <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="26">
+        <v>1</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
     </row>
     <row r="19" spans="1:6" s="96" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="96" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B19" s="96" t="s">
-        <v>183</v>
-      </c>
-      <c r="C19" s="101">
-        <v>6.9000000000000006E-2</v>
+        <v>177</v>
+      </c>
+      <c r="C19" s="27">
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="96" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B20" s="96" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C20" s="101">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="D20" s="96"/>
       <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
-        <v>85</v>
-      </c>
+      <c r="A21" s="96" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" s="96" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="101">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="25">
-        <v>2.8999999999999998E-3</v>
+      <c r="A22" s="24" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="C23" s="25">
-        <v>3.7999999999999999E-2</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="C24" s="25">
-        <v>3.5000000000000003E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25" s="31">
+        <v>55</v>
+      </c>
+      <c r="C25" s="25">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="31">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26"/>
-      <c r="C26" s="25"/>
       <c r="D26"/>
       <c r="E26"/>
+      <c r="F26"/>
     </row>
     <row r="27" spans="1:6" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="96" t="s">
-        <v>232</v>
-      </c>
-      <c r="B27" s="96" t="s">
-        <v>233</v>
-      </c>
-      <c r="C27" s="28">
-        <v>0</v>
-      </c>
+      <c r="A27" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27" s="25"/>
+      <c r="D27"/>
+      <c r="E27"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="96" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B28" s="96" t="s">
-        <v>222</v>
-      </c>
-      <c r="C28" s="31">
-        <v>30</v>
+        <v>231</v>
+      </c>
+      <c r="C28" s="28">
+        <v>0</v>
       </c>
       <c r="D28" s="96"/>
       <c r="E28" s="96"/>
@@ -1934,231 +1985,256 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="96" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B29" s="96" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C29" s="31">
         <v>30</v>
       </c>
       <c r="D29" s="96"/>
       <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="96" t="s">
-        <v>227</v>
-      </c>
-      <c r="B30" t="s">
         <v>224</v>
       </c>
+      <c r="B30" s="96" t="s">
+        <v>221</v>
+      </c>
       <c r="C30" s="31">
         <v>30</v>
       </c>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>236</v>
-      </c>
-      <c r="B31" s="96" t="s">
+      <c r="A31" s="96" t="s">
+        <v>225</v>
+      </c>
+      <c r="B31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C31" s="31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>234</v>
       </c>
-      <c r="C31" s="25">
+      <c r="B32" s="96" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" s="25">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="96" t="s">
-        <v>237</v>
-      </c>
-      <c r="B32" s="96" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="C32" s="101">
+      <c r="B33" s="96" t="s">
+        <v>233</v>
+      </c>
+      <c r="C33" s="101">
         <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="25">
-        <v>99.99</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="C34" s="25">
-        <v>8.9700000000000002E-2</v>
+        <v>99.99</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35">
-        <v>0.8</v>
+        <v>135</v>
+      </c>
+      <c r="C35" s="25">
+        <v>8.9700000000000002E-2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>255</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36">
-        <v>1.2</v>
+        <v>256</v>
+      </c>
+      <c r="C36" s="26">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="25">
-        <f>D37-1%</f>
-        <v>6.2499999999999993E-2</v>
-      </c>
-      <c r="D37" s="25">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="E37" s="25">
-        <f>D37+1%</f>
-        <v>8.249999999999999E-2</v>
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37">
+        <v>0.8</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="28">
-        <f>C39+C40</f>
-        <v>5270.3829970000006</v>
-      </c>
-      <c r="D38" s="28">
-        <f>D39+D40</f>
-        <v>4731.9598219999998</v>
-      </c>
-      <c r="E38" s="28">
-        <f>E39+E40</f>
-        <v>4282.6246919999994</v>
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38">
+        <v>1.2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="28">
-        <f>D39</f>
-        <v>2057.857317</v>
-      </c>
-      <c r="D39" s="28">
-        <v>2057.857317</v>
-      </c>
-      <c r="E39" s="28">
-        <f>D39</f>
-        <v>2057.857317</v>
+        <v>14</v>
+      </c>
+      <c r="C39" s="25">
+        <f>D39-1%</f>
+        <v>6.2499999999999993E-2</v>
+      </c>
+      <c r="D39" s="25">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="E39" s="25">
+        <f>D39+1%</f>
+        <v>8.249999999999999E-2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C40" s="28">
-        <v>3212.5256800000002</v>
+        <f>C41+C42</f>
+        <v>5270.3829970000006</v>
       </c>
       <c r="D40" s="28">
-        <v>2674.1025049999998</v>
+        <f>D41+D42</f>
+        <v>4731.9598219999998</v>
       </c>
       <c r="E40" s="28">
-        <v>2224.7673749999999</v>
+        <f>E41+E42</f>
+        <v>4282.6246919999994</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="27">
-        <v>11.017199416129952</v>
+        <v>16</v>
+      </c>
+      <c r="C41" s="28">
+        <f>D41</f>
+        <v>2057.857317</v>
+      </c>
+      <c r="D41" s="28">
+        <v>2057.857317</v>
+      </c>
+      <c r="E41" s="28">
+        <f>D41</f>
+        <v>2057.857317</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="27">
-        <v>0.72694680597238381</v>
+        <v>17</v>
+      </c>
+      <c r="C42" s="28">
+        <v>3212.5256800000002</v>
+      </c>
+      <c r="D42" s="28">
+        <v>2674.1025049999998</v>
+      </c>
+      <c r="E42" s="28">
+        <v>2224.7673749999999</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" s="27">
-        <v>22.034398832259903</v>
+        <v>11.017199416129952</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="C44" s="27">
-        <v>22.034398832259903</v>
+        <v>0.72694680597238381</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="65">
-        <v>8.3366394042968806E-2</v>
+        <v>59</v>
+      </c>
+      <c r="C45" s="27">
+        <v>22.034398832259903</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="66">
-        <v>6.9290149999999995E-2</v>
+        <v>105</v>
+      </c>
+      <c r="C46" s="27">
+        <v>22.034398832259903</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="65">
+        <v>8.3366394042968806E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="66">
+        <v>6.9290149999999995E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" t="s">
         <v>76</v>
       </c>
-      <c r="B47" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="65">
+      <c r="C49" s="65">
         <v>0.121971353165312</v>
       </c>
     </row>
@@ -2170,10 +2246,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2190,29 +2266,29 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="80" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:3" s="80" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="102" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="96" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B5" s="96" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C5" s="96" t="s">
         <v>6</v>
@@ -2220,10 +2296,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="96" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B6" s="96" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C6" s="96" t="s">
         <v>6</v>
@@ -2234,102 +2310,113 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="96" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B10" s="96" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" s="96" t="s">
         <v>229</v>
       </c>
-      <c r="C10" s="96" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
-        <v>30</v>
+    </row>
+    <row r="11" spans="1:3" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="96" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" s="96" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="96" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
+      <c r="A12" s="24" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>37</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>63</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2338,30 +2425,30 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="11">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>'List Box'!$A$2:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C14</xm:sqref>
+          <xm:sqref>C15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>'List Box'!$I$2:$I$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C15</xm:sqref>
+          <xm:sqref>C16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>'List Box'!$G$2:$G$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C16</xm:sqref>
+          <xm:sqref>C17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>'List Box'!$M$2:$M$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C12</xm:sqref>
+          <xm:sqref>C13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
@@ -2373,7 +2460,7 @@
           <x14:formula1>
             <xm:f>'List Box'!$I$7:$I$8</xm:f>
           </x14:formula1>
-          <xm:sqref>C13</xm:sqref>
+          <xm:sqref>C14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
@@ -2399,6 +2486,12 @@
           </x14:formula1>
           <xm:sqref>C9:C10</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F71F4C70-F849-BC44-8A98-9661C8116372}">
+          <x14:formula1>
+            <xm:f>'List Box'!$C$21:$C$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>C11</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -2407,10 +2500,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:M19"/>
+  <dimension ref="A2:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2503,7 +2596,7 @@
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14" t="s">
@@ -2522,7 +2615,7 @@
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -2542,7 +2635,7 @@
       <c r="B8" s="16"/>
       <c r="D8" s="14"/>
       <c r="E8" s="30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>6</v>
@@ -2559,7 +2652,7 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="29" t="s">
@@ -2575,7 +2668,7 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I10" s="16"/>
       <c r="K10" s="16"/>
@@ -2590,7 +2683,7 @@
         <v>44</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I11" s="16"/>
       <c r="K11" s="16"/>
@@ -2598,13 +2691,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I12" s="16"/>
       <c r="K12" s="16"/>
@@ -2612,10 +2705,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I13" s="16"/>
       <c r="K13" s="16"/>
@@ -2628,24 +2721,39 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L15" s="16"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C16" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L16" s="16"/>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="96" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>240</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2668,7 +2776,7 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3179,7 +3287,7 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3679,8 +3787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3729,10 +3837,10 @@
         <v>29</v>
       </c>
       <c r="K1" s="67" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L1" s="67" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -4012,9 +4120,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D9" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E9" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F9" s="71">
@@ -4050,9 +4160,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D10" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E10" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F10" s="73">
@@ -4088,9 +4200,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D11" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E11" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F11" s="73">
@@ -4126,9 +4240,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E12" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F12" s="73">
@@ -4164,9 +4280,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D13" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E13" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F13" s="74">
@@ -4202,9 +4320,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D14" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E14" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F14" s="74">
@@ -4240,9 +4360,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D15" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E15" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F15" s="74">
@@ -4278,9 +4400,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D16" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E16" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F16" s="74">
@@ -4316,9 +4440,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D17" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E17" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F17" s="74">
@@ -4354,9 +4480,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D18" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E18" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F18" s="74">
@@ -4392,9 +4520,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D19" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E19" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F19" s="74">
@@ -4430,9 +4560,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D20" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E20" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F20" s="74">
@@ -4468,9 +4600,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D21" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E21" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F21" s="74">
@@ -4506,9 +4640,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D22" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E22" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F22" s="74">
@@ -4544,9 +4680,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D23" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E23" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F23" s="74">
@@ -4582,9 +4720,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D24" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E24" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F24" s="74">
@@ -4620,9 +4760,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D25" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E25" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F25" s="74">
@@ -4658,9 +4800,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D26" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E26" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F26" s="74">
@@ -4696,9 +4840,11 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="D27" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E27" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F27" s="74">
@@ -4734,9 +4880,11 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="D28" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E28" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F28" s="74">
@@ -4772,9 +4920,11 @@
         <v>0.02</v>
       </c>
       <c r="D29" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E29" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F29" s="74">
@@ -4810,9 +4960,11 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="D30" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E30" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F30" s="74">
@@ -4848,9 +5000,11 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="D31" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E31" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F31" s="74">
@@ -4886,9 +5040,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D32" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E32" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F32" s="74">
@@ -4924,9 +5080,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D33" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E33" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F33" s="74">
@@ -4962,9 +5120,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D34" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E34" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F34" s="74">
@@ -5000,9 +5160,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D35" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E35" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F35" s="74">
@@ -5038,9 +5200,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D36" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E36" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F36" s="74">
@@ -5076,9 +5240,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D37" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E37" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F37" s="74">
@@ -5114,9 +5280,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D38" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E38" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F38" s="74">
@@ -5152,9 +5320,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D39" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E39" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F39" s="74">
@@ -5190,9 +5360,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D40" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E40" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F40" s="74">
@@ -5228,9 +5400,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D41" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E41" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F41" s="74">
@@ -5266,9 +5440,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D42" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E42" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F42" s="74">
@@ -5304,9 +5480,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D43" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E43" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F43" s="74">
@@ -5342,9 +5520,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D44" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E44" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F44" s="74">
@@ -5380,9 +5560,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D45" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E45" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F45" s="74">
@@ -5418,9 +5600,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D46" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E46" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F46" s="74">
@@ -5456,9 +5640,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D47" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E47" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F47" s="74">
@@ -5494,9 +5680,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D48" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E48" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F48" s="74">
@@ -5532,9 +5720,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D49" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E49" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F49" s="74">
@@ -5570,9 +5760,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D50" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E50" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F50" s="74">
@@ -5608,9 +5800,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D51" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E51" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F51" s="74">
@@ -5646,9 +5840,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D52" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E52" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F52" s="74">
@@ -5684,9 +5880,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D53" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E53" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F53" s="74">
@@ -5722,9 +5920,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D54" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E54" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F54" s="74">
@@ -5760,9 +5960,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D55" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E55" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F55" s="74">
@@ -5798,9 +6000,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D56" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E56" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F56" s="74">
@@ -5836,9 +6040,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D57" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E57" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F57" s="74">
@@ -5874,9 +6080,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D58" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E58" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F58" s="74">
@@ -5912,9 +6120,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D59" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E59" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F59" s="74">
@@ -5950,9 +6160,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D60" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E60" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F60" s="74">
@@ -5988,9 +6200,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D61" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E61" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F61" s="74">
@@ -6026,9 +6240,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D62" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E62" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F62" s="74">
@@ -6064,9 +6280,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D63" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E63" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F63" s="74">
@@ -6102,9 +6320,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D64" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E64" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F64" s="74">
@@ -6140,9 +6360,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D65" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E65" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F65" s="74">
@@ -6178,9 +6400,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D66" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E66" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F66" s="74">
@@ -6216,9 +6440,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D67" s="69">
-        <v>0.06</v>
+        <f>'Numeric Inputs'!$C$5</f>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="E67" s="70">
+        <f>'Numeric Inputs'!$C$2</f>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F67" s="74">
@@ -6250,1915 +6476,2082 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:CV13"/>
+  <dimension ref="A1:CZ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="BR8" sqref="BR8"/>
+    <sheetView topLeftCell="AO1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AV8" sqref="AV8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="80" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.83203125" style="80" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.1640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="96" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="96" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="96" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="80" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.83203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.83203125" style="80" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.83203125" style="80" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.83203125" style="80" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.83203125" style="80" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.33203125" style="80" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.33203125" style="80" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.33203125" style="80" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.1640625" style="96" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.5" style="96" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10" style="96" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.83203125" style="80" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="17.83203125" style="96" customWidth="1"/>
-    <col min="47" max="47" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="17.6640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="15" style="80" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14" style="96" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="14" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="18.6640625" style="96" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.83203125" style="96" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.1640625" style="96" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="7" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="8" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="7" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="75" max="77" width="18" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="18" style="96" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="13.6640625" style="96" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="16.6640625" style="96" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="19.6640625" style="96" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="15.83203125" style="96" bestFit="1" customWidth="1"/>
-    <col min="84" max="87" width="15.33203125" style="96" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="19" style="96" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="10" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="13.6640625" style="96" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="9.1640625" style="96" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="23.1640625" style="96" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="12.33203125" style="96" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.6640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.83203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.83203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.83203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.83203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.33203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.33203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.33203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.1640625" style="96" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.5" style="96" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10" style="96" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="7" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.33203125" style="96" customWidth="1"/>
+    <col min="49" max="49" width="17.83203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.83203125" style="96" customWidth="1"/>
+    <col min="51" max="51" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17.6640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="17" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15" style="80" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14" style="96" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="18.6640625" style="96" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="16.83203125" style="96" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="8.1640625" style="96" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="7" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="8" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="7" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="79" max="81" width="18" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="18" style="96" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="13.6640625" style="96" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="16.6640625" style="96" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="19.6640625" style="96" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="15.83203125" style="96" bestFit="1" customWidth="1"/>
+    <col min="88" max="91" width="15.33203125" style="96" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="19" style="96" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="10" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="13.6640625" style="96" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="9.1640625" style="96" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="23.1640625" style="96" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="12.33203125" style="96" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="AI1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>146</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP1" s="97" t="s">
+        <v>189</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AR1" s="97" t="s">
+        <v>179</v>
+      </c>
+      <c r="AS1" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AM1" s="97" t="s">
+      <c r="AU1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV1" s="97" t="s">
+        <v>263</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AX1" s="97" t="s">
+        <v>242</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BF1" s="97" t="s">
+        <v>190</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BM1" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AO1" s="97" t="s">
-        <v>181</v>
-      </c>
-      <c r="AP1" s="97" t="s">
-        <v>182</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AT1" s="97" t="s">
-        <v>244</v>
-      </c>
-      <c r="AU1" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AV1" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="AW1" s="4" t="s">
+      <c r="BN1" s="97" t="s">
+        <v>192</v>
+      </c>
+      <c r="BO1" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="BP1" s="98" t="s">
+        <v>211</v>
+      </c>
+      <c r="BQ1" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="BR1" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>200</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>199</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>198</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>196</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>195</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>194</v>
+      </c>
+      <c r="CD1" s="96" t="s">
+        <v>201</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CF1" s="96" t="s">
+        <v>202</v>
+      </c>
+      <c r="CG1" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="CH1" s="96" t="s">
+        <v>204</v>
+      </c>
+      <c r="CI1" s="96" t="s">
+        <v>205</v>
+      </c>
+      <c r="CJ1" s="96" t="s">
+        <v>206</v>
+      </c>
+      <c r="CK1" s="96" t="s">
+        <v>207</v>
+      </c>
+      <c r="CL1" s="96" t="s">
+        <v>208</v>
+      </c>
+      <c r="CM1" s="96" t="s">
+        <v>209</v>
+      </c>
+      <c r="CN1" s="96" t="s">
+        <v>210</v>
+      </c>
+      <c r="CO1" t="s">
         <v>116</v>
       </c>
-      <c r="AX1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BB1" s="97" t="s">
-        <v>192</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BH1" s="1" t="s">
+      <c r="CP1" s="96" t="s">
+        <v>187</v>
+      </c>
+      <c r="CQ1" t="s">
         <v>117</v>
       </c>
-      <c r="BI1" s="97" t="s">
-        <v>193</v>
-      </c>
-      <c r="BJ1" s="97" t="s">
-        <v>194</v>
-      </c>
-      <c r="BK1" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="BL1" s="98" t="s">
-        <v>213</v>
-      </c>
-      <c r="BM1" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="BN1" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="BO1" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="BP1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>202</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>201</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>200</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>199</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>198</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>197</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>196</v>
-      </c>
-      <c r="BZ1" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>195</v>
-      </c>
-      <c r="CB1" s="96" t="s">
-        <v>204</v>
-      </c>
-      <c r="CC1" s="96" t="s">
-        <v>205</v>
-      </c>
-      <c r="CD1" s="96" t="s">
-        <v>206</v>
-      </c>
-      <c r="CE1" s="96" t="s">
-        <v>207</v>
-      </c>
-      <c r="CF1" s="96" t="s">
-        <v>208</v>
-      </c>
-      <c r="CG1" s="96" t="s">
-        <v>209</v>
-      </c>
-      <c r="CH1" s="96" t="s">
-        <v>210</v>
-      </c>
-      <c r="CI1" s="96" t="s">
-        <v>211</v>
-      </c>
-      <c r="CJ1" s="96" t="s">
-        <v>212</v>
-      </c>
-      <c r="CK1" t="s">
+      <c r="CR1" s="96" t="s">
+        <v>188</v>
+      </c>
+      <c r="CS1" t="s">
         <v>118</v>
       </c>
-      <c r="CL1" s="96" t="s">
-        <v>189</v>
-      </c>
-      <c r="CM1" t="s">
+      <c r="CT1" t="s">
         <v>119</v>
       </c>
-      <c r="CN1" s="96" t="s">
-        <v>190</v>
-      </c>
-      <c r="CO1" t="s">
+      <c r="CU1" s="96" t="s">
+        <v>185</v>
+      </c>
+      <c r="CV1" t="s">
         <v>120</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CW1" s="96" t="s">
+        <v>186</v>
+      </c>
+      <c r="CX1" t="s">
         <v>121</v>
       </c>
-      <c r="CQ1" s="96" t="s">
-        <v>187</v>
-      </c>
-      <c r="CR1" t="s">
+      <c r="CY1" t="s">
         <v>122</v>
       </c>
-      <c r="CS1" s="96" t="s">
-        <v>188</v>
-      </c>
-      <c r="CT1" t="s">
+      <c r="CZ1" t="s">
         <v>123</v>
       </c>
-      <c r="CU1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:100" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:104" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33">
         <v>2015</v>
       </c>
       <c r="B2" s="36">
-        <v>1156.855431</v>
-      </c>
-      <c r="C2" s="37">
-        <v>1156.855431</v>
-      </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19">
+        <f>C2</f>
+        <v>1282.3063529999999</v>
+      </c>
+      <c r="C2" s="36">
+        <f>SUM(D2:E2)</f>
+        <v>1282.3063529999999</v>
+      </c>
+      <c r="D2" s="37">
+        <f>1154866605/1000000</f>
+        <v>1154.8666049999999</v>
+      </c>
+      <c r="E2" s="105">
+        <f>2764*46107/1000000</f>
+        <v>127.43974799999999</v>
+      </c>
+      <c r="F2" s="81">
         <v>0</v>
       </c>
-      <c r="H2" s="20">
+      <c r="G2" s="81">
+        <v>0</v>
+      </c>
+      <c r="H2" s="81">
+        <v>0</v>
+      </c>
+      <c r="I2" s="19">
+        <v>1</v>
+      </c>
+      <c r="J2" s="19">
+        <v>0</v>
+      </c>
+      <c r="K2" s="20">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="I2" s="20">
+      <c r="L2" s="20">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="J2" s="21">
+      <c r="M2" s="21">
         <v>6470.3031790000005</v>
       </c>
-      <c r="K2" s="21">
-        <f>J2</f>
+      <c r="N2" s="21">
+        <f>M2</f>
         <v>6470.3031790000005</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21">
+      <c r="O2" s="21"/>
+      <c r="P2" s="21">
         <v>138.04995600000001</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="23">
+      <c r="Q2" s="22"/>
+      <c r="R2" s="23">
         <v>4926.5158099999999</v>
-      </c>
-      <c r="P2" s="83">
-        <f>O2</f>
-        <v>4926.5158099999999</v>
-      </c>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="23">
-        <v>5061.0582210000002</v>
       </c>
       <c r="S2" s="83">
         <f>R2</f>
+        <v>4926.5158099999999</v>
+      </c>
+      <c r="T2" s="83"/>
+      <c r="U2" s="23">
         <v>5061.0582210000002</v>
       </c>
-      <c r="T2" s="83"/>
-      <c r="U2" s="38">
+      <c r="V2" s="83">
+        <f>U2</f>
+        <v>5061.0582210000002</v>
+      </c>
+      <c r="W2" s="83"/>
+      <c r="X2" s="38">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="V2" s="37">
+      <c r="Y2" s="37">
         <v>1543.7873690000006</v>
       </c>
-      <c r="W2" s="81">
-        <f>V2</f>
+      <c r="Z2" s="81">
+        <f>Y2</f>
         <v>1543.7873690000006</v>
       </c>
-      <c r="X2" s="81">
-        <f>V2</f>
+      <c r="AA2" s="81">
+        <f>Y2</f>
         <v>1543.7873690000006</v>
       </c>
-      <c r="Y2" s="81">
+      <c r="AB2" s="81">
         <v>0</v>
       </c>
-      <c r="Z2" s="39">
+      <c r="AC2" s="39">
         <v>0.76140416819871548</v>
       </c>
-      <c r="AA2" s="40">
+      <c r="AD2" s="40">
         <v>0.78219800231713377</v>
       </c>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="81">
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93"/>
+      <c r="AH2" s="81">
         <v>0</v>
       </c>
-      <c r="AF2" s="43">
+      <c r="AI2" s="43">
         <v>0.1118</v>
       </c>
-      <c r="AG2" s="43">
+      <c r="AJ2" s="43">
         <v>0.1118</v>
       </c>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38">
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="41">
-        <f>AG2-AI2</f>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="41">
+        <f>AJ2-AL2</f>
         <v>3.2799999999999996E-2</v>
       </c>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="44">
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="44">
         <v>7.9484237120710205E-2</v>
       </c>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44">
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44">
         <v>7.9484237120710205E-2</v>
       </c>
-      <c r="AQ2" s="41">
+      <c r="AT2" s="41">
         <v>0.19438423712071018</v>
       </c>
-      <c r="AR2" s="41">
+      <c r="AU2" s="41">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AS2" s="86">
+      <c r="AV2" s="41"/>
+      <c r="AW2" s="86">
         <v>-333.40146299999998</v>
       </c>
-      <c r="AT2" s="86"/>
-      <c r="AU2" s="48">
+      <c r="AX2" s="86"/>
+      <c r="AY2" s="48">
         <v>-333.40146299999998</v>
       </c>
-      <c r="AV2" s="83"/>
-      <c r="AW2" s="23"/>
-      <c r="AX2" s="23">
+      <c r="AZ2" s="83"/>
+      <c r="BA2" s="23"/>
+      <c r="BB2" s="23">
         <v>-3.4835310000000002</v>
       </c>
-      <c r="AY2" s="83"/>
-      <c r="AZ2" s="49">
+      <c r="BC2" s="83"/>
+      <c r="BD2" s="49">
         <v>95.424030999999999</v>
       </c>
-      <c r="BA2" s="36"/>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="23">
+      <c r="BE2" s="36"/>
+      <c r="BF2" s="36"/>
+      <c r="BG2" s="23">
         <v>42.704507461400013</v>
       </c>
-      <c r="BD2" s="36"/>
-      <c r="BE2" s="23">
+      <c r="BH2" s="36"/>
+      <c r="BI2" s="23">
         <v>91.938067538599952</v>
       </c>
-      <c r="BF2" s="50"/>
-      <c r="BG2" s="50"/>
-      <c r="BH2" s="50"/>
-      <c r="BI2" s="50"/>
       <c r="BJ2" s="50"/>
-      <c r="BK2" s="51">
-        <f>SUM(BC2:BH2)</f>
+      <c r="BK2" s="50"/>
+      <c r="BL2" s="50"/>
+      <c r="BM2" s="50"/>
+      <c r="BN2" s="50"/>
+      <c r="BO2" s="51">
+        <f>SUM(BG2:BL2)</f>
         <v>134.64257499999997</v>
       </c>
-      <c r="BL2" s="51"/>
-      <c r="BM2" s="51"/>
-      <c r="BN2" s="51">
-        <f>SUM(BK2:BM2)</f>
-        <v>134.64257499999997</v>
-      </c>
-      <c r="BO2" s="34"/>
-      <c r="BP2" s="21">
-        <f>BN2</f>
-        <v>134.64257499999997</v>
-      </c>
-      <c r="BQ2" s="8"/>
-      <c r="BR2" s="9">
-        <f>BN2/B2</f>
-        <v>0.11638669049910003</v>
-      </c>
-      <c r="BS2" s="53">
+      <c r="BP2" s="51"/>
+      <c r="BQ2" s="51">
+        <f>4887/1000</f>
+        <v>4.8869999999999996</v>
+      </c>
+      <c r="BR2" s="51">
+        <f>SUM(BO2:BQ2)</f>
+        <v>139.52957499999997</v>
+      </c>
+      <c r="BS2" s="34"/>
+      <c r="BT2" s="21">
+        <f>BR2</f>
+        <v>139.52957499999997</v>
+      </c>
+      <c r="BU2" s="8"/>
+      <c r="BV2" s="9">
+        <f>BR2/B2</f>
+        <v>0.10881141988696048</v>
+      </c>
+      <c r="BW2" s="53">
         <v>-106.81838800000004</v>
       </c>
-      <c r="BT2" s="54">
+      <c r="BX2" s="54">
         <v>379.00268799999998</v>
       </c>
-      <c r="BU2" s="55">
+      <c r="BY2" s="55">
         <v>5214.9542169999995</v>
       </c>
-      <c r="BV2" s="55">
+      <c r="BZ2" s="55">
         <v>-153.89599599999929</v>
       </c>
-      <c r="BW2" s="54">
+      <c r="CA2" s="54">
         <v>-38.473998999999822</v>
       </c>
-      <c r="BX2" s="54">
+      <c r="CB2" s="54">
         <v>99.700567000000007</v>
       </c>
-      <c r="BY2" s="54">
+      <c r="CC2" s="54">
         <v>50.563274</v>
       </c>
-      <c r="BZ2" s="54">
+      <c r="CD2" s="54">
         <v>-53.263661999999997</v>
       </c>
-      <c r="CA2" s="82">
-        <f t="shared" ref="CA2:CA7" si="0">SUM(BW2:BZ2)</f>
+      <c r="CE2" s="82">
+        <f t="shared" ref="CE2:CE7" si="0">SUM(CA2:CD2)</f>
         <v>58.526180000000195</v>
       </c>
-      <c r="CB2" s="82"/>
-      <c r="CC2" s="82"/>
-      <c r="CD2" s="82"/>
-      <c r="CE2" s="82"/>
       <c r="CF2" s="82"/>
       <c r="CG2" s="82"/>
       <c r="CH2" s="82"/>
       <c r="CI2" s="82"/>
       <c r="CJ2" s="82"/>
-      <c r="CL2" s="99"/>
-      <c r="CN2" s="99"/>
-      <c r="CQ2" s="99"/>
-      <c r="CS2" s="99"/>
-    </row>
-    <row r="3" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CK2" s="82"/>
+      <c r="CL2" s="82"/>
+      <c r="CM2" s="82"/>
+      <c r="CN2" s="82"/>
+      <c r="CP2" s="99"/>
+      <c r="CR2" s="99"/>
+      <c r="CU2" s="99"/>
+      <c r="CW2" s="99"/>
+    </row>
+    <row r="3" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A3" s="33">
         <v>2016</v>
       </c>
       <c r="B3" s="36">
+        <f t="shared" ref="B3:B8" si="1">C3</f>
+        <v>1316.6066460000002</v>
+      </c>
+      <c r="C3" s="36">
+        <f t="shared" ref="C3:C8" si="2">SUM(D3:E3)</f>
+        <v>1316.6066460000002</v>
+      </c>
+      <c r="D3" s="37">
         <v>1185.6461790000001</v>
       </c>
-      <c r="C3" s="37">
-        <v>1185.6461790000001</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="19">
+      <c r="E3" s="105">
+        <f>2409*54363/1000000</f>
+        <v>130.96046699999999</v>
+      </c>
+      <c r="F3" s="81">
+        <v>0</v>
+      </c>
+      <c r="G3" s="81">
+        <v>0</v>
+      </c>
+      <c r="H3" s="81">
+        <v>0</v>
+      </c>
+      <c r="I3" s="19">
         <v>1</v>
       </c>
-      <c r="G3" s="19">
+      <c r="J3" s="19">
         <v>0</v>
       </c>
-      <c r="H3" s="20">
+      <c r="K3" s="20">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="I3" s="20">
+      <c r="L3" s="20">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="J3" s="21">
+      <c r="M3" s="21">
         <v>6787.9231540000001</v>
       </c>
-      <c r="K3" s="21">
-        <f t="shared" ref="K3:K8" si="1">J3</f>
+      <c r="N3" s="21">
+        <f t="shared" ref="N3:N8" si="3">M3</f>
         <v>6787.9231540000001</v>
       </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21">
+      <c r="O3" s="21"/>
+      <c r="P3" s="21">
         <v>123.08196100000001</v>
       </c>
-      <c r="O3" s="23">
+      <c r="R3" s="23">
         <v>5247.6853099999998</v>
       </c>
-      <c r="P3" s="83">
-        <f t="shared" ref="P3:P8" si="2">O3</f>
+      <c r="S3" s="83">
+        <f t="shared" ref="S3:S8" si="4">R3</f>
         <v>5247.6853099999998</v>
       </c>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="23">
+      <c r="T3" s="83"/>
+      <c r="U3" s="23">
         <v>5032.8071099999997</v>
       </c>
-      <c r="S3" s="83">
-        <f t="shared" ref="S3:S8" si="3">R3</f>
+      <c r="V3" s="83">
+        <f t="shared" ref="V3:V8" si="5">U3</f>
         <v>5032.8071099999997</v>
       </c>
-      <c r="T3" s="83"/>
-      <c r="U3" s="38">
+      <c r="W3" s="83"/>
+      <c r="X3" s="38">
         <v>2.0199999999999999E-2</v>
       </c>
-      <c r="V3" s="37">
+      <c r="Y3" s="37">
         <v>1540.2378440000002</v>
       </c>
-      <c r="W3" s="81">
-        <f t="shared" ref="W3:W8" si="4">V3</f>
+      <c r="Z3" s="81">
+        <f t="shared" ref="Z3:Z8" si="6">Y3</f>
         <v>1540.2378440000002</v>
       </c>
-      <c r="X3" s="81">
-        <f t="shared" ref="X3:X8" si="5">V3</f>
+      <c r="AA3" s="81">
+        <f t="shared" ref="AA3:AA8" si="7">Y3</f>
         <v>1540.2378440000002</v>
       </c>
-      <c r="Y3" s="81">
+      <c r="AB3" s="81">
         <v>0</v>
       </c>
-      <c r="Z3" s="39">
+      <c r="AC3" s="39">
         <v>0.77309144357470139</v>
       </c>
-      <c r="AA3" s="40">
+      <c r="AD3" s="40">
         <v>0.74143548708771956</v>
       </c>
-      <c r="AB3" s="42">
+      <c r="AE3" s="42">
         <v>1755.1160440000003</v>
       </c>
-      <c r="AC3" s="93">
-        <f t="shared" ref="AC3:AC8" si="6">AB3</f>
+      <c r="AF3" s="93">
+        <f t="shared" ref="AF3:AF8" si="8">AE3</f>
         <v>1755.1160440000003</v>
       </c>
-      <c r="AD3" s="93">
-        <f t="shared" ref="AD3:AD8" si="7">AB3</f>
+      <c r="AG3" s="93">
+        <f t="shared" ref="AG3:AG8" si="9">AE3</f>
         <v>1755.1160440000003</v>
       </c>
-      <c r="AE3" s="81">
+      <c r="AH3" s="81">
         <v>0</v>
       </c>
-      <c r="AF3" s="43">
+      <c r="AI3" s="43">
         <v>0.1134</v>
       </c>
-      <c r="AG3" s="43">
+      <c r="AJ3" s="43">
         <v>0.1134</v>
       </c>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38">
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="41">
-        <f t="shared" ref="AK3:AK8" si="8">AG3-AI3</f>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="41">
+        <f t="shared" ref="AN3:AN8" si="10">AJ3-AL3</f>
         <v>3.44E-2</v>
       </c>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="45">
+      <c r="AO3" s="41"/>
+      <c r="AP3" s="41"/>
+      <c r="AQ3" s="45">
         <v>7.2664021585629721E-2</v>
       </c>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="45">
+      <c r="AR3" s="45"/>
+      <c r="AS3" s="45">
         <v>7.2664021585629721E-2</v>
       </c>
-      <c r="AQ3" s="41">
+      <c r="AT3" s="41">
         <v>0.18916402158562973</v>
       </c>
-      <c r="AR3" s="41">
+      <c r="AU3" s="41">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AS3" s="86">
+      <c r="AV3" s="41"/>
+      <c r="AW3" s="86">
         <v>-355.983766</v>
       </c>
-      <c r="AT3" s="86"/>
-      <c r="AU3" s="48">
+      <c r="AX3" s="86"/>
+      <c r="AY3" s="48">
         <v>-355.983766</v>
       </c>
-      <c r="AV3" s="83"/>
-      <c r="AW3" s="52"/>
-      <c r="AX3" s="23">
+      <c r="AZ3" s="83"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="23">
         <v>-3.85833</v>
       </c>
-      <c r="AY3" s="83"/>
-      <c r="AZ3" s="49">
+      <c r="BC3" s="83"/>
+      <c r="BD3" s="49">
         <v>97.342719000000002</v>
       </c>
-      <c r="BA3" s="23"/>
-      <c r="BB3" s="100"/>
-      <c r="BC3" s="23">
+      <c r="BE3" s="23"/>
+      <c r="BF3" s="100"/>
+      <c r="BG3" s="23">
         <v>38.888026967100004</v>
       </c>
-      <c r="BD3" s="23"/>
-      <c r="BE3" s="23">
+      <c r="BH3" s="23"/>
+      <c r="BI3" s="23">
         <v>94.240182032900023</v>
       </c>
-      <c r="BF3" s="23"/>
-      <c r="BG3" s="23"/>
-      <c r="BH3" s="23"/>
-      <c r="BI3" s="100"/>
-      <c r="BJ3" s="100"/>
-      <c r="BK3" s="37">
-        <f t="shared" ref="BK3:BK8" si="9">SUM(BC3:BH3)</f>
+      <c r="BJ3" s="23"/>
+      <c r="BK3" s="23"/>
+      <c r="BL3" s="23"/>
+      <c r="BM3" s="100"/>
+      <c r="BN3" s="100"/>
+      <c r="BO3" s="37">
+        <f t="shared" ref="BO3:BO8" si="11">SUM(BG3:BL3)</f>
         <v>133.12820900000003</v>
       </c>
-      <c r="BL3" s="81"/>
-      <c r="BM3" s="37"/>
-      <c r="BN3" s="81">
-        <f t="shared" ref="BN3:BN8" si="10">SUM(BK3:BM3)</f>
-        <v>133.12820900000003</v>
-      </c>
-      <c r="BP3" s="104">
-        <f t="shared" ref="BP3:BP8" si="11">BN3</f>
-        <v>133.12820900000003</v>
-      </c>
-      <c r="BR3" s="9">
-        <f t="shared" ref="BR3:BR8" si="12">BN3/B3</f>
-        <v>0.11228325225345327</v>
-      </c>
-      <c r="BS3" s="53">
+      <c r="BP3" s="81"/>
+      <c r="BQ3" s="37">
+        <f>6494/1000</f>
+        <v>6.4939999999999998</v>
+      </c>
+      <c r="BR3" s="81">
+        <f t="shared" ref="BR3:BR8" si="12">SUM(BO3:BQ3)</f>
+        <v>139.62220900000003</v>
+      </c>
+      <c r="BT3" s="104">
+        <f t="shared" ref="BT3:BT8" si="13">BR3</f>
+        <v>139.62220900000003</v>
+      </c>
+      <c r="BV3" s="9">
+        <f t="shared" ref="BV3:BV8" si="14">BR3/B3</f>
+        <v>0.10604701823751846</v>
+      </c>
+      <c r="BW3" s="53">
         <v>-129.37116800000001</v>
       </c>
-      <c r="BT3" s="54">
+      <c r="BX3" s="54">
         <v>417.96108299999997</v>
       </c>
-      <c r="BU3" s="55">
+      <c r="BY3" s="55">
         <v>5349.6481360000007</v>
       </c>
-      <c r="BV3" s="55">
+      <c r="BZ3" s="55">
         <v>-316.84102600000097</v>
       </c>
-      <c r="BW3" s="55">
+      <c r="CA3" s="55">
         <v>-79.210256500000241</v>
       </c>
-      <c r="BX3" s="37">
+      <c r="CB3" s="37">
         <v>-38.473998999999822</v>
       </c>
-      <c r="BY3" s="55">
+      <c r="CC3" s="55">
         <v>99.700567000000007</v>
       </c>
-      <c r="BZ3" s="82">
+      <c r="CD3" s="82">
         <v>50.563274</v>
       </c>
-      <c r="CA3" s="82">
+      <c r="CE3" s="82">
         <f t="shared" si="0"/>
         <v>32.579585499999943</v>
       </c>
-      <c r="CB3" s="82"/>
-      <c r="CC3" s="82"/>
-      <c r="CD3" s="82"/>
-      <c r="CE3" s="82"/>
       <c r="CF3" s="82"/>
       <c r="CG3" s="82"/>
       <c r="CH3" s="82"/>
       <c r="CI3" s="82"/>
       <c r="CJ3" s="82"/>
-    </row>
-    <row r="4" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CK3" s="82"/>
+      <c r="CL3" s="82"/>
+      <c r="CM3" s="82"/>
+      <c r="CN3" s="82"/>
+    </row>
+    <row r="4" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A4" s="33">
         <v>2017</v>
       </c>
       <c r="B4" s="36">
+        <f t="shared" si="1"/>
+        <v>1377.2211619999998</v>
+      </c>
+      <c r="C4" s="36">
+        <f t="shared" si="2"/>
+        <v>1377.2211619999998</v>
+      </c>
+      <c r="D4" s="37">
         <v>1232.0665369999999</v>
       </c>
-      <c r="C4" s="37">
-        <v>1232.0665369999999</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="19">
+      <c r="E4" s="105">
+        <f>2541*57125/1000000</f>
+        <v>145.15462500000001</v>
+      </c>
+      <c r="F4" s="81">
+        <v>0</v>
+      </c>
+      <c r="G4" s="81">
+        <v>0</v>
+      </c>
+      <c r="H4" s="81">
+        <v>0</v>
+      </c>
+      <c r="I4" s="19">
         <v>1</v>
       </c>
-      <c r="G4" s="19">
+      <c r="J4" s="19">
         <v>0</v>
       </c>
-      <c r="H4" s="20">
+      <c r="K4" s="20">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="I4" s="20">
+      <c r="L4" s="20">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="J4" s="21">
+      <c r="M4" s="21">
         <v>7578.384779</v>
       </c>
-      <c r="K4" s="21">
-        <f t="shared" si="1"/>
+      <c r="N4" s="21">
+        <f t="shared" si="3"/>
         <v>7578.384779</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21">
+      <c r="O4" s="21"/>
+      <c r="P4" s="21">
         <v>134.08437000000001</v>
       </c>
-      <c r="O4" s="23">
+      <c r="R4" s="23">
         <v>5514.026586</v>
       </c>
-      <c r="P4" s="83">
-        <f t="shared" si="2"/>
+      <c r="S4" s="83">
+        <f t="shared" si="4"/>
         <v>5514.026586</v>
       </c>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="23">
+      <c r="T4" s="83"/>
+      <c r="U4" s="23">
         <v>5472.519182</v>
       </c>
-      <c r="S4" s="83">
-        <f t="shared" si="3"/>
+      <c r="V4" s="83">
+        <f t="shared" si="5"/>
         <v>5472.519182</v>
       </c>
-      <c r="T4" s="83"/>
-      <c r="U4" s="38">
+      <c r="W4" s="83"/>
+      <c r="X4" s="38">
         <v>0.1193</v>
       </c>
-      <c r="V4" s="37">
+      <c r="Y4" s="37">
         <v>2064.358193</v>
       </c>
-      <c r="W4" s="81">
-        <f t="shared" si="4"/>
+      <c r="Z4" s="81">
+        <f t="shared" si="6"/>
         <v>2064.358193</v>
       </c>
-      <c r="X4" s="81">
-        <f t="shared" si="5"/>
+      <c r="AA4" s="81">
+        <f t="shared" si="7"/>
         <v>2064.358193</v>
       </c>
-      <c r="Y4" s="81">
+      <c r="AB4" s="81">
         <v>0</v>
       </c>
-      <c r="Z4" s="39">
+      <c r="AC4" s="39">
         <v>0.72759918462831064</v>
       </c>
-      <c r="AA4" s="40">
+      <c r="AD4" s="40">
         <v>0.72212210670070021</v>
       </c>
-      <c r="AB4" s="42">
+      <c r="AE4" s="42">
         <v>2105.865597</v>
       </c>
-      <c r="AC4" s="93">
-        <f t="shared" si="6"/>
+      <c r="AF4" s="93">
+        <f t="shared" si="8"/>
         <v>2105.865597</v>
       </c>
-      <c r="AD4" s="93">
-        <f t="shared" si="7"/>
+      <c r="AG4" s="93">
+        <f t="shared" si="9"/>
         <v>2105.865597</v>
       </c>
-      <c r="AE4" s="81">
+      <c r="AH4" s="81">
         <v>0</v>
       </c>
-      <c r="AF4" s="43">
+      <c r="AI4" s="43">
         <v>9.8599999999999993E-2</v>
       </c>
-      <c r="AG4" s="43">
+      <c r="AJ4" s="43">
         <v>9.8599999999999993E-2</v>
       </c>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38">
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="41">
-        <f t="shared" si="8"/>
+      <c r="AM4" s="38"/>
+      <c r="AN4" s="41">
+        <f t="shared" si="10"/>
         <v>1.9599999999999992E-2</v>
       </c>
-      <c r="AL4" s="41"/>
-      <c r="AM4" s="41"/>
-      <c r="AN4" s="45">
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="45">
         <v>9.6257386767726841E-2</v>
       </c>
-      <c r="AO4" s="45"/>
-      <c r="AP4" s="45">
+      <c r="AR4" s="45"/>
+      <c r="AS4" s="45">
         <v>9.6257386767726841E-2</v>
       </c>
-      <c r="AQ4" s="41">
+      <c r="AT4" s="41">
         <v>0.19785738676772685</v>
       </c>
-      <c r="AR4" s="41">
+      <c r="AU4" s="41">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AS4" s="86">
+      <c r="AV4" s="41"/>
+      <c r="AW4" s="86">
         <v>-380.22791899999999</v>
       </c>
-      <c r="AT4" s="86"/>
-      <c r="AU4" s="48">
+      <c r="AX4" s="86"/>
+      <c r="AY4" s="48">
         <v>-380.22791899999999</v>
       </c>
-      <c r="AV4" s="83"/>
-      <c r="AW4" s="23"/>
-      <c r="AX4" s="23">
+      <c r="AZ4" s="83"/>
+      <c r="BA4" s="23"/>
+      <c r="BB4" s="23">
         <v>-4.4720839999999997</v>
       </c>
-      <c r="AY4" s="83"/>
-      <c r="AZ4" s="49">
+      <c r="BC4" s="83"/>
+      <c r="BD4" s="49">
         <v>100.76813900000001</v>
       </c>
-      <c r="BA4" s="23"/>
-      <c r="BB4" s="100"/>
-      <c r="BC4" s="23">
+      <c r="BE4" s="23"/>
+      <c r="BF4" s="100"/>
+      <c r="BG4" s="23">
         <v>42.767612560499984</v>
       </c>
-      <c r="BD4" s="23"/>
-      <c r="BE4" s="23">
+      <c r="BH4" s="23"/>
+      <c r="BI4" s="23">
         <v>89.526909439500045</v>
       </c>
-      <c r="BF4" s="37"/>
-      <c r="BG4" s="37"/>
-      <c r="BH4" s="37"/>
-      <c r="BI4" s="81"/>
-      <c r="BJ4" s="81"/>
-      <c r="BK4" s="37">
-        <f t="shared" si="9"/>
-        <v>132.29452200000003</v>
-      </c>
-      <c r="BL4" s="81"/>
-      <c r="BM4" s="37"/>
-      <c r="BN4" s="81">
-        <f t="shared" si="10"/>
-        <v>132.29452200000003</v>
-      </c>
-      <c r="BP4" s="104">
+      <c r="BJ4" s="37"/>
+      <c r="BK4" s="37"/>
+      <c r="BL4" s="37"/>
+      <c r="BM4" s="81"/>
+      <c r="BN4" s="81"/>
+      <c r="BO4" s="37">
         <f t="shared" si="11"/>
         <v>132.29452200000003</v>
       </c>
-      <c r="BR4" s="9">
+      <c r="BP4" s="81"/>
+      <c r="BQ4" s="37">
+        <f>10752/1000</f>
+        <v>10.752000000000001</v>
+      </c>
+      <c r="BR4" s="81">
         <f t="shared" si="12"/>
-        <v>0.10737611811301068</v>
-      </c>
-      <c r="BS4" s="53">
+        <v>143.04652200000004</v>
+      </c>
+      <c r="BT4" s="104">
+        <f t="shared" si="13"/>
+        <v>143.04652200000004</v>
+      </c>
+      <c r="BV4" s="9">
+        <f t="shared" si="14"/>
+        <v>0.10386604994674055</v>
+      </c>
+      <c r="BW4" s="53">
         <v>-151.63734199999993</v>
       </c>
-      <c r="BT4" s="55">
+      <c r="BX4" s="55">
         <v>384.1666040225</v>
       </c>
-      <c r="BU4" s="55">
+      <c r="BY4" s="55">
         <v>5265.3363720224997</v>
       </c>
-      <c r="BV4" s="55">
+      <c r="BZ4" s="55">
         <v>207.18280997750026</v>
       </c>
-      <c r="BW4" s="55">
+      <c r="CA4" s="55">
         <v>51.795702494375064</v>
       </c>
-      <c r="BX4" s="37">
+      <c r="CB4" s="37">
         <v>-79.210256500000241</v>
       </c>
-      <c r="BY4" s="55">
+      <c r="CC4" s="55">
         <v>-38.473998999999822</v>
       </c>
-      <c r="BZ4" s="82">
+      <c r="CD4" s="82">
         <v>99.700567000000007</v>
       </c>
-      <c r="CA4" s="82">
+      <c r="CE4" s="82">
         <f t="shared" si="0"/>
         <v>33.812013994375008</v>
       </c>
-      <c r="CB4" s="82"/>
-      <c r="CC4" s="82"/>
-      <c r="CD4" s="82"/>
-      <c r="CE4" s="82"/>
       <c r="CF4" s="82"/>
       <c r="CG4" s="82"/>
       <c r="CH4" s="82"/>
       <c r="CI4" s="82"/>
       <c r="CJ4" s="82"/>
-    </row>
-    <row r="5" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CK4" s="82"/>
+      <c r="CL4" s="82"/>
+      <c r="CM4" s="82"/>
+      <c r="CN4" s="82"/>
+    </row>
+    <row r="5" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A5" s="33">
         <v>2018</v>
       </c>
       <c r="B5" s="36">
+        <f t="shared" si="1"/>
+        <v>1368.6134500000001</v>
+      </c>
+      <c r="C5" s="36">
+        <f t="shared" si="2"/>
+        <v>1368.6134500000001</v>
+      </c>
+      <c r="D5" s="37">
         <v>1230.10535</v>
       </c>
-      <c r="C5" s="37">
-        <v>1230.10535</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="19">
+      <c r="E5" s="105">
+        <f>2690*51490/1000000</f>
+        <v>138.50810000000001</v>
+      </c>
+      <c r="F5" s="81">
+        <v>0</v>
+      </c>
+      <c r="G5" s="81">
+        <v>0</v>
+      </c>
+      <c r="H5" s="81">
+        <v>0</v>
+      </c>
+      <c r="I5" s="19">
         <v>1</v>
       </c>
-      <c r="G5" s="19">
+      <c r="J5" s="19">
         <v>0</v>
       </c>
-      <c r="H5" s="20">
-        <v>7.6499999999999999E-2</v>
-      </c>
-      <c r="I5" s="20">
-        <v>7.6499999999999999E-2</v>
-      </c>
-      <c r="J5" s="21">
+      <c r="K5" s="20">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="L5" s="20">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="M5" s="21">
         <v>7730.0840770000004</v>
       </c>
-      <c r="K5" s="21">
-        <f t="shared" si="1"/>
+      <c r="N5" s="21">
+        <f t="shared" si="3"/>
         <v>7730.0840770000004</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21">
+      <c r="O5" s="21"/>
+      <c r="P5" s="21">
         <v>127.31529500000001</v>
       </c>
-      <c r="O5" s="23">
+      <c r="R5" s="23">
         <v>5705.2357270000002</v>
       </c>
-      <c r="P5" s="83">
-        <f t="shared" si="2"/>
+      <c r="S5" s="83">
+        <f t="shared" si="4"/>
         <v>5705.2357270000002</v>
       </c>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="23">
+      <c r="T5" s="83"/>
+      <c r="U5" s="23">
         <v>5779.9940079999997</v>
       </c>
-      <c r="S5" s="83">
-        <f t="shared" si="3"/>
+      <c r="V5" s="83">
+        <f t="shared" si="5"/>
         <v>5779.9940079999997</v>
       </c>
-      <c r="T5" s="83"/>
-      <c r="U5" s="38">
+      <c r="W5" s="83"/>
+      <c r="X5" s="38">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="V5" s="37">
+      <c r="Y5" s="37">
         <v>2024.8483500000002</v>
       </c>
-      <c r="W5" s="81">
-        <f t="shared" si="4"/>
+      <c r="Z5" s="81">
+        <f t="shared" si="6"/>
         <v>2024.8483500000002</v>
       </c>
-      <c r="X5" s="81">
-        <f t="shared" si="5"/>
+      <c r="AA5" s="81">
+        <f t="shared" si="7"/>
         <v>2024.8483500000002</v>
       </c>
-      <c r="Y5" s="81">
+      <c r="AB5" s="81">
         <v>0</v>
       </c>
-      <c r="Z5" s="39">
+      <c r="AC5" s="39">
         <v>0.73805610264644994</v>
       </c>
-      <c r="AA5" s="40">
+      <c r="AD5" s="40">
         <v>0.74772718516707015</v>
       </c>
-      <c r="AB5" s="42">
+      <c r="AE5" s="42">
         <v>1950.0900690000008</v>
       </c>
-      <c r="AC5" s="93">
-        <f t="shared" si="6"/>
+      <c r="AF5" s="93">
+        <f t="shared" si="8"/>
         <v>1950.0900690000008</v>
       </c>
-      <c r="AD5" s="93">
-        <f t="shared" si="7"/>
+      <c r="AG5" s="93">
+        <f t="shared" si="9"/>
         <v>1950.0900690000008</v>
       </c>
-      <c r="AE5" s="81">
+      <c r="AH5" s="81">
         <v>0</v>
       </c>
-      <c r="AF5" s="43">
+      <c r="AI5" s="43">
         <v>0.1027</v>
       </c>
-      <c r="AG5" s="43">
+      <c r="AJ5" s="43">
         <v>0.1027</v>
       </c>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="38">
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="38">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41">
-        <f t="shared" si="8"/>
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="41">
+        <f t="shared" si="10"/>
         <v>2.3699999999999999E-2</v>
       </c>
-      <c r="AL5" s="41"/>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="45">
+      <c r="AO5" s="41"/>
+      <c r="AP5" s="41"/>
+      <c r="AQ5" s="45">
         <v>8.7061719601312176E-2</v>
       </c>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="45">
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45">
         <v>8.7061719601312176E-2</v>
       </c>
-      <c r="AQ5" s="41">
+      <c r="AT5" s="41">
         <v>0.19276171960131216</v>
       </c>
-      <c r="AR5" s="41">
+      <c r="AU5" s="41">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AS5" s="86">
+      <c r="AV5" s="41"/>
+      <c r="AW5" s="86">
         <v>-410.98877599999997</v>
       </c>
-      <c r="AT5" s="86"/>
-      <c r="AU5" s="48">
+      <c r="AX5" s="86"/>
+      <c r="AY5" s="48">
         <v>-410.98877599999997</v>
       </c>
-      <c r="AV5" s="83"/>
-      <c r="AW5" s="37"/>
-      <c r="AX5" s="23">
+      <c r="AZ5" s="83"/>
+      <c r="BA5" s="37"/>
+      <c r="BB5" s="23">
         <v>-4.1687709999999996</v>
       </c>
-      <c r="AY5" s="83"/>
-      <c r="AZ5" s="49">
+      <c r="BC5" s="83"/>
+      <c r="BD5" s="49">
         <v>102.075271</v>
       </c>
-      <c r="BA5" s="37"/>
-      <c r="BB5" s="81"/>
-      <c r="BC5" s="23">
+      <c r="BE5" s="37"/>
+      <c r="BF5" s="81"/>
+      <c r="BG5" s="23">
         <v>22.903432559999999</v>
       </c>
-      <c r="BD5" s="37"/>
-      <c r="BE5" s="23">
+      <c r="BH5" s="37"/>
+      <c r="BI5" s="23">
         <v>118.40672644</v>
       </c>
-      <c r="BF5" s="37"/>
-      <c r="BG5" s="37"/>
-      <c r="BH5" s="37"/>
-      <c r="BI5" s="81"/>
-      <c r="BJ5" s="81"/>
-      <c r="BK5" s="37">
-        <f t="shared" si="9"/>
-        <v>141.310159</v>
-      </c>
-      <c r="BL5" s="81"/>
-      <c r="BM5" s="37"/>
-      <c r="BN5" s="81">
-        <f t="shared" si="10"/>
-        <v>141.310159</v>
-      </c>
-      <c r="BP5" s="104">
+      <c r="BJ5" s="37"/>
+      <c r="BK5" s="37"/>
+      <c r="BL5" s="37"/>
+      <c r="BM5" s="81"/>
+      <c r="BN5" s="81"/>
+      <c r="BO5" s="37">
         <f t="shared" si="11"/>
         <v>141.310159</v>
       </c>
-      <c r="BR5" s="9">
+      <c r="BP5" s="81"/>
+      <c r="BQ5" s="37">
+        <f>11899/1000</f>
+        <v>11.898999999999999</v>
+      </c>
+      <c r="BR5" s="81">
         <f t="shared" si="12"/>
-        <v>0.11487646891382107</v>
-      </c>
-      <c r="BS5" s="53">
+        <v>153.209159</v>
+      </c>
+      <c r="BT5" s="104">
+        <f t="shared" si="13"/>
+        <v>153.209159</v>
+      </c>
+      <c r="BV5" s="9">
+        <f t="shared" si="14"/>
+        <v>0.11194480004562281</v>
+      </c>
+      <c r="BW5" s="53">
         <v>-171.77211699999998</v>
       </c>
-      <c r="BT5" s="55">
+      <c r="BX5" s="55">
         <v>412.07743394775002</v>
       </c>
-      <c r="BU5" s="55">
+      <c r="BY5" s="55">
         <v>5712.8244989477498</v>
       </c>
-      <c r="BV5" s="55">
+      <c r="BZ5" s="55">
         <v>67.16950905224985</v>
       </c>
-      <c r="BW5" s="55">
+      <c r="CA5" s="55">
         <v>16.792377263062463</v>
       </c>
-      <c r="BX5" s="37">
+      <c r="CB5" s="37">
         <v>51.795702494375064</v>
       </c>
-      <c r="BY5" s="55">
+      <c r="CC5" s="55">
         <v>-79.210256500000241</v>
       </c>
-      <c r="BZ5" s="82">
+      <c r="CD5" s="82">
         <v>-38.473998999999822</v>
       </c>
-      <c r="CA5" s="82">
+      <c r="CE5" s="82">
         <f t="shared" si="0"/>
         <v>-49.096175742562536</v>
       </c>
-      <c r="CB5" s="82"/>
-      <c r="CC5" s="82"/>
-      <c r="CD5" s="82"/>
-      <c r="CE5" s="82"/>
       <c r="CF5" s="82"/>
       <c r="CG5" s="82"/>
       <c r="CH5" s="82"/>
       <c r="CI5" s="82"/>
       <c r="CJ5" s="82"/>
-    </row>
-    <row r="6" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CK5" s="82"/>
+      <c r="CL5" s="82"/>
+      <c r="CM5" s="82"/>
+      <c r="CN5" s="82"/>
+    </row>
+    <row r="6" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A6" s="33">
         <v>2019</v>
       </c>
       <c r="B6" s="36">
+        <f t="shared" si="1"/>
+        <v>1397.6405829999999</v>
+      </c>
+      <c r="C6" s="36">
+        <f t="shared" si="2"/>
+        <v>1397.6405829999999</v>
+      </c>
+      <c r="D6" s="37">
         <v>1247.3437329999999</v>
       </c>
-      <c r="C6" s="37">
-        <v>1247.3437329999999</v>
-      </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="19">
+      <c r="E6" s="105">
+        <f>2871*52350/1000000</f>
+        <v>150.29685000000001</v>
+      </c>
+      <c r="F6" s="81">
+        <v>0</v>
+      </c>
+      <c r="G6" s="81">
+        <v>0</v>
+      </c>
+      <c r="H6" s="81">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19">
         <v>1</v>
       </c>
-      <c r="G6" s="19">
+      <c r="J6" s="19">
         <v>0</v>
       </c>
-      <c r="H6" s="20">
-        <v>7.6499999999999999E-2</v>
-      </c>
-      <c r="I6" s="20">
-        <v>7.6499999999999999E-2</v>
-      </c>
-      <c r="J6" s="21">
+      <c r="K6" s="20">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="L6" s="20">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="M6" s="21">
         <v>7957.037808</v>
       </c>
-      <c r="K6" s="21">
-        <f t="shared" si="1"/>
+      <c r="N6" s="21">
+        <f t="shared" si="3"/>
         <v>7957.037808</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21">
+      <c r="O6" s="21"/>
+      <c r="P6" s="21">
         <v>118.63831</v>
       </c>
-      <c r="O6" s="23">
+      <c r="R6" s="23">
         <v>5903.1909589999996</v>
       </c>
-      <c r="P6" s="83">
-        <f t="shared" si="2"/>
+      <c r="S6" s="83">
+        <f t="shared" si="4"/>
         <v>5903.1909589999996</v>
       </c>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="23">
+      <c r="T6" s="83"/>
+      <c r="U6" s="23">
         <v>5903.3062479999999</v>
       </c>
-      <c r="S6" s="83">
-        <f t="shared" si="3"/>
+      <c r="V6" s="83">
+        <f t="shared" si="5"/>
         <v>5903.3062479999999</v>
       </c>
-      <c r="T6" s="83"/>
-      <c r="U6" s="38">
+      <c r="W6" s="83"/>
+      <c r="X6" s="38">
         <v>5.6500000000000002E-2</v>
       </c>
-      <c r="V6" s="37">
+      <c r="Y6" s="37">
         <v>2053.8468490000005</v>
       </c>
-      <c r="W6" s="81">
-        <f t="shared" si="4"/>
+      <c r="Z6" s="81">
+        <f t="shared" si="6"/>
         <v>2053.8468490000005</v>
       </c>
-      <c r="X6" s="81">
-        <f t="shared" si="5"/>
+      <c r="AA6" s="81">
+        <f t="shared" si="7"/>
         <v>2053.8468490000005</v>
       </c>
-      <c r="Y6" s="81">
+      <c r="AB6" s="81">
         <v>0</v>
       </c>
-      <c r="Z6" s="39">
+      <c r="AC6" s="39">
         <v>0.74188298477920211</v>
       </c>
-      <c r="AA6" s="40">
+      <c r="AD6" s="40">
         <v>0.74189747371375059</v>
       </c>
-      <c r="AB6" s="42">
+      <c r="AE6" s="42">
         <v>2053.7315600000002</v>
       </c>
-      <c r="AC6" s="93">
-        <f t="shared" si="6"/>
+      <c r="AF6" s="93">
+        <f t="shared" si="8"/>
         <v>2053.7315600000002</v>
       </c>
-      <c r="AD6" s="93">
-        <f t="shared" si="7"/>
+      <c r="AG6" s="93">
+        <f t="shared" si="9"/>
         <v>2053.7315600000002</v>
       </c>
-      <c r="AE6" s="81">
+      <c r="AH6" s="81">
         <v>0</v>
       </c>
-      <c r="AF6" s="43">
+      <c r="AI6" s="43">
         <v>0.1009</v>
       </c>
-      <c r="AG6" s="43">
+      <c r="AJ6" s="43">
         <v>0.1009</v>
       </c>
-      <c r="AH6" s="41"/>
-      <c r="AI6" s="38">
+      <c r="AK6" s="41"/>
+      <c r="AL6" s="38">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AJ6" s="41"/>
-      <c r="AK6" s="41">
-        <f t="shared" si="8"/>
+      <c r="AM6" s="41"/>
+      <c r="AN6" s="41">
+        <f t="shared" si="10"/>
         <v>2.1900000000000003E-2</v>
       </c>
-      <c r="AL6" s="41"/>
-      <c r="AM6" s="41"/>
-      <c r="AN6" s="45">
+      <c r="AO6" s="41"/>
+      <c r="AP6" s="41"/>
+      <c r="AQ6" s="45">
         <v>8.9493938846464782E-2</v>
       </c>
-      <c r="AO6" s="45"/>
-      <c r="AP6" s="45">
+      <c r="AR6" s="45"/>
+      <c r="AS6" s="45">
         <v>8.9493938846464782E-2</v>
       </c>
-      <c r="AQ6" s="41">
+      <c r="AT6" s="41">
         <v>0.19379393884646479</v>
       </c>
-      <c r="AR6" s="41">
+      <c r="AU6" s="41">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AS6" s="86">
+      <c r="AV6" s="44">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="AW6" s="86">
         <v>-437.420569</v>
       </c>
-      <c r="AT6" s="86"/>
-      <c r="AU6" s="48">
+      <c r="AX6" s="86"/>
+      <c r="AY6" s="48">
         <v>-437.420569</v>
       </c>
-      <c r="AV6" s="83"/>
-      <c r="AW6" s="37"/>
-      <c r="AX6" s="23">
+      <c r="AZ6" s="83"/>
+      <c r="BA6" s="37"/>
+      <c r="BB6" s="23">
         <v>-3.8043939999999998</v>
       </c>
-      <c r="AY6" s="83"/>
-      <c r="AZ6" s="49">
+      <c r="BC6" s="83"/>
+      <c r="BD6" s="49">
         <v>101.713235</v>
       </c>
-      <c r="BA6" s="37"/>
-      <c r="BB6" s="81"/>
-      <c r="BC6" s="81">
+      <c r="BE6" s="37"/>
+      <c r="BF6" s="81"/>
+      <c r="BG6" s="81">
         <v>33.304077671099996</v>
       </c>
-      <c r="BD6" s="37"/>
-      <c r="BE6" s="23">
+      <c r="BH6" s="37"/>
+      <c r="BI6" s="23">
         <v>108.5958903289</v>
       </c>
-      <c r="BF6" s="37"/>
-      <c r="BG6" s="37"/>
-      <c r="BH6" s="37"/>
-      <c r="BI6" s="81"/>
-      <c r="BJ6" s="81"/>
-      <c r="BK6" s="37">
-        <f t="shared" si="9"/>
-        <v>141.899968</v>
-      </c>
-      <c r="BL6" s="81"/>
-      <c r="BM6" s="37"/>
-      <c r="BN6" s="81">
-        <f t="shared" si="10"/>
-        <v>141.899968</v>
-      </c>
-      <c r="BP6" s="104">
+      <c r="BJ6" s="37"/>
+      <c r="BK6" s="37"/>
+      <c r="BL6" s="37"/>
+      <c r="BM6" s="81"/>
+      <c r="BN6" s="81"/>
+      <c r="BO6" s="37">
         <f t="shared" si="11"/>
         <v>141.899968</v>
       </c>
-      <c r="BR6" s="9">
+      <c r="BP6" s="81"/>
+      <c r="BQ6" s="37">
+        <f>13061/1000</f>
+        <v>13.061</v>
+      </c>
+      <c r="BR6" s="81">
         <f t="shared" si="12"/>
-        <v>0.11376171960131218</v>
-      </c>
-      <c r="BS6" s="53">
+        <v>154.96096800000001</v>
+      </c>
+      <c r="BT6" s="104">
+        <f t="shared" si="13"/>
+        <v>154.96096800000001</v>
+      </c>
+      <c r="BV6" s="9">
+        <f t="shared" si="14"/>
+        <v>0.11087326018208504</v>
+      </c>
+      <c r="BW6" s="53">
         <v>-197.61176</v>
       </c>
-      <c r="BT6" s="55">
+      <c r="BX6" s="55">
         <v>434.61089179199996</v>
       </c>
-      <c r="BU6" s="55">
+      <c r="BY6" s="55">
         <v>6016.993139792</v>
       </c>
-      <c r="BV6" s="55">
+      <c r="BZ6" s="55">
         <v>-113.6868917920001</v>
       </c>
-      <c r="BW6" s="55">
+      <c r="CA6" s="55">
         <v>-28.421722948000024</v>
       </c>
-      <c r="BX6" s="37">
+      <c r="CB6" s="37">
         <v>16.792377263062463</v>
       </c>
-      <c r="BY6" s="55">
+      <c r="CC6" s="55">
         <v>51.795702494375064</v>
       </c>
-      <c r="BZ6" s="82">
+      <c r="CD6" s="82">
         <v>-79.210256500000241</v>
       </c>
-      <c r="CA6" s="82">
+      <c r="CE6" s="82">
         <f t="shared" si="0"/>
         <v>-39.043899690562739</v>
       </c>
-      <c r="CB6" s="82"/>
-      <c r="CC6" s="82"/>
-      <c r="CD6" s="82"/>
-      <c r="CE6" s="82"/>
       <c r="CF6" s="82"/>
       <c r="CG6" s="82"/>
       <c r="CH6" s="82"/>
       <c r="CI6" s="82"/>
       <c r="CJ6" s="82"/>
-      <c r="CK6" s="56"/>
-      <c r="CL6" s="56"/>
-      <c r="CM6" s="37"/>
-      <c r="CN6" s="81"/>
-      <c r="CO6" s="46"/>
-      <c r="CP6" s="57"/>
-      <c r="CQ6" s="57"/>
-      <c r="CR6" s="58">
+      <c r="CK6" s="82"/>
+      <c r="CL6" s="82"/>
+      <c r="CM6" s="82"/>
+      <c r="CN6" s="82"/>
+      <c r="CO6" s="56"/>
+      <c r="CP6" s="56"/>
+      <c r="CQ6" s="37"/>
+      <c r="CR6" s="81"/>
+      <c r="CS6" s="46"/>
+      <c r="CT6" s="57"/>
+      <c r="CU6" s="57"/>
+      <c r="CV6" s="58">
         <v>0.11364926756007519</v>
       </c>
-      <c r="CS6" s="88"/>
-      <c r="CT6" s="44">
+      <c r="CW6" s="88"/>
+      <c r="CX6" s="44">
         <v>8.6699999999999999E-2</v>
       </c>
-      <c r="CU6" s="59">
+      <c r="CY6" s="59">
         <v>33.615000000000002</v>
       </c>
-      <c r="CV6" s="60">
+      <c r="CZ6" s="60">
         <v>17.314238969770201</v>
       </c>
     </row>
-    <row r="7" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A7" s="33">
         <v>2020</v>
       </c>
       <c r="B7" s="36">
+        <f t="shared" si="1"/>
+        <v>1446.7670969999999</v>
+      </c>
+      <c r="C7" s="36">
+        <f t="shared" si="2"/>
+        <v>1446.7670969999999</v>
+      </c>
+      <c r="D7" s="37">
         <v>1280.557497</v>
       </c>
-      <c r="C7" s="37">
-        <v>1280.557497</v>
-      </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="19">
+      <c r="E7" s="105">
+        <f>3100*53616/1000000</f>
+        <v>166.20959999999999</v>
+      </c>
+      <c r="F7" s="81">
+        <v>0</v>
+      </c>
+      <c r="G7" s="81">
+        <v>0</v>
+      </c>
+      <c r="H7" s="81">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19">
         <v>1</v>
       </c>
-      <c r="G7" s="19">
+      <c r="J7" s="19">
         <v>0</v>
       </c>
-      <c r="H7" s="20">
-        <v>7.6499999999999999E-2</v>
-      </c>
-      <c r="I7" s="20">
-        <v>7.6499999999999999E-2</v>
-      </c>
-      <c r="J7" s="21">
+      <c r="K7" s="20">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="L7" s="20">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="M7" s="21">
         <v>8234.0029830000003</v>
       </c>
-      <c r="K7" s="21">
-        <f t="shared" si="1"/>
+      <c r="N7" s="21">
+        <f t="shared" si="3"/>
         <v>8234.0029830000003</v>
       </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21">
+      <c r="O7" s="21"/>
+      <c r="P7" s="21">
         <v>118.395999</v>
       </c>
-      <c r="O7" s="23">
+      <c r="R7" s="23">
         <v>6099.3981620000004</v>
       </c>
-      <c r="P7" s="83">
-        <f t="shared" si="2"/>
+      <c r="S7" s="83">
+        <f t="shared" si="4"/>
         <v>6099.3981620000004</v>
       </c>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="23">
+      <c r="T7" s="83"/>
+      <c r="U7" s="23">
         <v>5845.4740240000001</v>
       </c>
-      <c r="S7" s="83">
-        <f t="shared" si="3"/>
+      <c r="V7" s="83">
+        <f t="shared" si="5"/>
         <v>5845.4740240000001</v>
       </c>
-      <c r="T7" s="83"/>
-      <c r="U7" s="38">
+      <c r="W7" s="83"/>
+      <c r="X7" s="38">
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="V7" s="37">
+      <c r="Y7" s="37">
         <v>2134.6048209999999</v>
       </c>
-      <c r="W7" s="81">
-        <f t="shared" si="4"/>
+      <c r="Z7" s="81">
+        <f t="shared" si="6"/>
         <v>2134.6048209999999</v>
       </c>
-      <c r="X7" s="81">
-        <f t="shared" si="5"/>
+      <c r="AA7" s="81">
+        <f t="shared" si="7"/>
         <v>2134.6048209999999</v>
       </c>
-      <c r="Y7" s="81">
+      <c r="AB7" s="81">
         <v>0</v>
       </c>
-      <c r="Z7" s="39">
+      <c r="AC7" s="39">
         <v>0.74075734179267061</v>
       </c>
-      <c r="AA7" s="40">
+      <c r="AD7" s="40">
         <v>0.70991886158756812</v>
       </c>
-      <c r="AB7" s="42">
+      <c r="AE7" s="42">
         <v>2388.5289590000002</v>
       </c>
-      <c r="AC7" s="93">
-        <f t="shared" si="6"/>
+      <c r="AF7" s="93">
+        <f t="shared" si="8"/>
         <v>2388.5289590000002</v>
       </c>
-      <c r="AD7" s="93">
-        <f t="shared" si="7"/>
+      <c r="AG7" s="93">
+        <f t="shared" si="9"/>
         <v>2388.5289590000002</v>
       </c>
-      <c r="AE7" s="81">
+      <c r="AH7" s="81">
         <v>0</v>
       </c>
-      <c r="AF7" s="43">
+      <c r="AI7" s="43">
         <v>9.8099999999999979E-2</v>
       </c>
-      <c r="AG7" s="43">
+      <c r="AJ7" s="43">
         <v>9.8499999999999976E-2</v>
       </c>
-      <c r="AH7" s="43">
+      <c r="AK7" s="43">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="AI7" s="43">
+      <c r="AL7" s="43">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AJ7" s="43">
+      <c r="AM7" s="43">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AK7" s="41">
-        <f t="shared" si="8"/>
+      <c r="AN7" s="41">
+        <f t="shared" si="10"/>
         <v>1.9499999999999976E-2</v>
       </c>
-      <c r="AL7" s="43">
-        <f>AH7-AJ7</f>
+      <c r="AO7" s="43">
+        <f>AK7-AM7</f>
         <v>9.999999999999995E-3</v>
       </c>
-      <c r="AM7" s="43"/>
-      <c r="AN7" s="43">
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="43">
         <v>9.2657393897864926E-2</v>
       </c>
-      <c r="AO7" s="95"/>
-      <c r="AP7" s="95">
+      <c r="AR7" s="95"/>
+      <c r="AS7" s="95">
         <v>9.2657393897864926E-2</v>
       </c>
-      <c r="AQ7" s="41">
+      <c r="AT7" s="41">
         <v>0.19431963815434536</v>
       </c>
-      <c r="AR7" s="41">
+      <c r="AU7" s="41">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AS7" s="86">
+      <c r="AV7" s="84">
+        <v>8.77E-2</v>
+      </c>
+      <c r="AW7" s="86">
         <v>-463.95835399999999</v>
       </c>
-      <c r="AT7" s="86"/>
-      <c r="AU7" s="48">
+      <c r="AX7" s="86"/>
+      <c r="AY7" s="48">
         <v>-463.95835399999999</v>
       </c>
-      <c r="AV7" s="83"/>
-      <c r="AW7" s="37"/>
-      <c r="AX7" s="23">
+      <c r="AZ7" s="83"/>
+      <c r="BA7" s="37"/>
+      <c r="BB7" s="23">
         <v>-4.0596269999999999</v>
       </c>
-      <c r="AY7" s="83"/>
-      <c r="AZ7" s="49">
+      <c r="BC7" s="83"/>
+      <c r="BD7" s="49">
         <v>105.009017</v>
       </c>
-      <c r="BA7" s="37"/>
-      <c r="BB7" s="81"/>
-      <c r="BC7" s="81">
+      <c r="BE7" s="37"/>
+      <c r="BF7" s="81"/>
+      <c r="BG7" s="81">
         <v>32.398104674100004</v>
       </c>
-      <c r="BD7" s="37"/>
-      <c r="BE7" s="23">
+      <c r="BH7" s="37"/>
+      <c r="BI7" s="23">
         <v>114.60213432590001</v>
       </c>
-      <c r="BF7" s="37"/>
-      <c r="BG7" s="37"/>
-      <c r="BH7" s="37"/>
-      <c r="BI7" s="81"/>
-      <c r="BJ7" s="81"/>
-      <c r="BK7" s="37">
-        <f t="shared" si="9"/>
-        <v>147.00023900000002</v>
-      </c>
-      <c r="BL7" s="81"/>
-      <c r="BM7" s="37"/>
-      <c r="BN7" s="81">
-        <f t="shared" si="10"/>
-        <v>147.00023900000002</v>
-      </c>
-      <c r="BP7" s="104">
+      <c r="BJ7" s="37"/>
+      <c r="BK7" s="37"/>
+      <c r="BL7" s="37"/>
+      <c r="BM7" s="81"/>
+      <c r="BN7" s="81"/>
+      <c r="BO7" s="37">
         <f t="shared" si="11"/>
         <v>147.00023900000002</v>
       </c>
-      <c r="BR7" s="9">
+      <c r="BP7" s="81"/>
+      <c r="BQ7" s="37">
+        <f>14511/1000</f>
+        <v>14.510999999999999</v>
+      </c>
+      <c r="BR7" s="81">
         <f t="shared" si="12"/>
-        <v>0.11479393884646479</v>
-      </c>
-      <c r="BS7" s="53">
+        <v>161.51123900000002</v>
+      </c>
+      <c r="BT7" s="104">
+        <f t="shared" si="13"/>
+        <v>161.51123900000002</v>
+      </c>
+      <c r="BV7" s="9">
+        <f t="shared" si="14"/>
+        <v>0.11163596361495082</v>
+      </c>
+      <c r="BW7" s="53">
         <v>-216.00872499999997</v>
       </c>
-      <c r="BT7" s="55">
+      <c r="BX7" s="55">
         <v>443.34059424074997</v>
       </c>
-      <c r="BU7" s="55">
+      <c r="BY7" s="55">
         <v>6130.63811724075</v>
       </c>
-      <c r="BV7" s="55">
+      <c r="BZ7" s="55">
         <v>-285.16409324074993</v>
       </c>
-      <c r="BW7" s="55">
+      <c r="CA7" s="55">
         <v>-71.291023310187484</v>
       </c>
-      <c r="BX7" s="37">
+      <c r="CB7" s="37">
         <v>-28.421722948000024</v>
       </c>
-      <c r="BY7" s="55">
+      <c r="CC7" s="55">
         <v>16.792377263062463</v>
       </c>
-      <c r="BZ7" s="82">
+      <c r="CD7" s="82">
         <v>51.795702494375064</v>
       </c>
-      <c r="CA7" s="82">
+      <c r="CE7" s="82">
         <f t="shared" si="0"/>
         <v>-31.124666500749981</v>
       </c>
-      <c r="CB7" s="82"/>
-      <c r="CC7" s="82"/>
-      <c r="CD7" s="82"/>
-      <c r="CE7" s="82"/>
       <c r="CF7" s="82"/>
       <c r="CG7" s="82"/>
       <c r="CH7" s="82"/>
       <c r="CI7" s="82"/>
       <c r="CJ7" s="82"/>
-      <c r="CK7" s="56"/>
-      <c r="CL7" s="56"/>
-      <c r="CM7" s="37"/>
-      <c r="CN7" s="81"/>
-      <c r="CO7" s="61"/>
-      <c r="CP7" s="57"/>
-      <c r="CQ7" s="57"/>
-      <c r="CR7" s="58">
+      <c r="CK7" s="82"/>
+      <c r="CL7" s="82"/>
+      <c r="CM7" s="82"/>
+      <c r="CN7" s="82"/>
+      <c r="CO7" s="56"/>
+      <c r="CP7" s="56"/>
+      <c r="CQ7" s="37"/>
+      <c r="CR7" s="81"/>
+      <c r="CS7" s="61"/>
+      <c r="CT7" s="57"/>
+      <c r="CU7" s="57"/>
+      <c r="CV7" s="58">
         <v>0.11421278843748787</v>
       </c>
-      <c r="CS7" s="88"/>
-      <c r="CT7" s="47">
+      <c r="CW7" s="88"/>
+      <c r="CX7" s="47">
         <v>8.77E-2</v>
       </c>
-      <c r="CU7" s="59">
+      <c r="CY7" s="59">
         <v>33.951150000000005</v>
       </c>
-      <c r="CV7" s="60">
+      <c r="CZ7" s="60">
         <v>17.314238969770201</v>
       </c>
     </row>
-    <row r="8" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A8" s="33">
         <v>2021</v>
       </c>
       <c r="B8" s="36">
+        <f t="shared" si="1"/>
+        <v>1548.4386629999999</v>
+      </c>
+      <c r="C8" s="36">
+        <f t="shared" si="2"/>
+        <v>1548.4386629999999</v>
+      </c>
+      <c r="D8" s="81">
         <v>1361.5889999999999</v>
       </c>
-      <c r="C8" s="81">
-        <v>1361.5889999999999</v>
-      </c>
-      <c r="F8" s="19">
+      <c r="E8" s="105">
+        <f>3311*56433/1000000</f>
+        <v>186.84966299999999</v>
+      </c>
+      <c r="F8" s="81">
+        <v>0</v>
+      </c>
+      <c r="G8" s="81">
+        <v>0</v>
+      </c>
+      <c r="H8" s="81">
+        <v>0</v>
+      </c>
+      <c r="I8" s="19">
         <v>1</v>
       </c>
-      <c r="G8" s="19">
+      <c r="J8" s="19">
         <v>0</v>
       </c>
-      <c r="H8" s="20">
-        <v>7.6499999999999999E-2</v>
-      </c>
-      <c r="I8" s="20">
-        <v>7.6499999999999999E-2</v>
-      </c>
-      <c r="J8" s="21">
+      <c r="K8" s="20">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="L8" s="20">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="M8" s="21">
         <v>8534.6280000000006</v>
       </c>
-      <c r="K8" s="21">
-        <f t="shared" si="1"/>
+      <c r="N8" s="21">
+        <f t="shared" si="3"/>
         <v>8534.6280000000006</v>
       </c>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21">
+      <c r="O8" s="21"/>
+      <c r="P8" s="21">
         <v>117.405</v>
       </c>
-      <c r="O8" s="79">
+      <c r="R8" s="79">
         <v>6514.9759999999997</v>
       </c>
-      <c r="P8" s="83">
-        <f t="shared" si="2"/>
+      <c r="S8" s="83">
+        <f t="shared" si="4"/>
         <v>6514.9759999999997</v>
       </c>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="79">
+      <c r="T8" s="83"/>
+      <c r="U8" s="79">
         <v>7210.0259999999998</v>
       </c>
-      <c r="S8" s="83">
-        <f t="shared" si="3"/>
+      <c r="V8" s="83">
+        <f t="shared" si="5"/>
         <v>7210.0259999999998</v>
       </c>
-      <c r="T8" s="83"/>
-      <c r="U8" s="38">
+      <c r="W8" s="83"/>
+      <c r="X8" s="38">
         <v>0.27800000000000002</v>
       </c>
-      <c r="V8" s="81">
+      <c r="Y8" s="81">
         <v>2019.652</v>
       </c>
-      <c r="W8" s="81">
-        <f t="shared" si="4"/>
+      <c r="Z8" s="81">
+        <f t="shared" si="6"/>
         <v>2019.652</v>
       </c>
-      <c r="X8" s="81">
-        <f t="shared" si="5"/>
+      <c r="AA8" s="81">
+        <f t="shared" si="7"/>
         <v>2019.652</v>
       </c>
-      <c r="Y8" s="81">
+      <c r="AB8" s="81">
         <v>0</v>
       </c>
-      <c r="Z8" s="39">
+      <c r="AC8" s="39">
         <v>0.76335793428840704</v>
       </c>
-      <c r="AA8" s="39">
+      <c r="AD8" s="39">
         <v>0.84479675036803004</v>
       </c>
-      <c r="AB8" s="91">
-        <f>J8-R8</f>
+      <c r="AE8" s="91">
+        <f>M8-U8</f>
         <v>1324.6020000000008</v>
       </c>
-      <c r="AC8" s="93">
-        <f t="shared" si="6"/>
+      <c r="AF8" s="93">
+        <f t="shared" si="8"/>
         <v>1324.6020000000008</v>
       </c>
-      <c r="AD8" s="93">
-        <f t="shared" si="7"/>
+      <c r="AG8" s="93">
+        <f t="shared" si="9"/>
         <v>1324.6020000000008</v>
       </c>
-      <c r="AE8" s="81">
+      <c r="AH8" s="81">
         <v>0</v>
       </c>
-      <c r="AF8" s="43">
+      <c r="AI8" s="43">
         <v>9.7100000000000006E-2</v>
       </c>
-      <c r="AG8" s="43">
+      <c r="AJ8" s="43">
         <v>9.7100000000000006E-2</v>
       </c>
-      <c r="AH8" s="43">
+      <c r="AK8" s="43">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="AI8" s="43">
+      <c r="AL8" s="43">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AJ8" s="43">
+      <c r="AM8" s="43">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AK8" s="41">
-        <f t="shared" si="8"/>
+      <c r="AN8" s="41">
+        <f t="shared" si="10"/>
         <v>1.8100000000000005E-2</v>
       </c>
-      <c r="AL8" s="43">
-        <f>AH8-AJ8</f>
+      <c r="AO8" s="43">
+        <f>AK8-AM8</f>
         <v>9.999999999999995E-3</v>
       </c>
-      <c r="AM8" s="43"/>
-      <c r="AN8" s="43">
+      <c r="AP8" s="43"/>
+      <c r="AQ8" s="43">
         <v>8.2772645244269347E-2</v>
       </c>
-      <c r="AO8" s="95"/>
-      <c r="AP8" s="95">
+      <c r="AR8" s="95"/>
+      <c r="AS8" s="95">
         <v>9.3680980455316476E-2</v>
       </c>
-      <c r="AQ8" s="41">
+      <c r="AT8" s="41">
         <v>0.19431963815434536</v>
       </c>
-      <c r="AR8" s="41">
+      <c r="AU8" s="41">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AS8" s="86">
+      <c r="AV8" s="84">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="AW8" s="86">
         <v>-491.99438300000003</v>
       </c>
-      <c r="AT8" s="86"/>
-      <c r="AU8" s="86">
+      <c r="AX8" s="86"/>
+      <c r="AY8" s="86">
         <v>-491.99438300000003</v>
       </c>
-      <c r="AV8" s="83"/>
-      <c r="AX8" s="83">
+      <c r="AZ8" s="83"/>
+      <c r="BB8" s="83">
         <v>-4.0596269999999999</v>
       </c>
-      <c r="AY8" s="83"/>
-      <c r="AZ8" s="87">
+      <c r="BC8" s="83"/>
+      <c r="BD8" s="87">
         <v>111.246246</v>
       </c>
-      <c r="BA8" s="81"/>
-      <c r="BB8" s="81"/>
-      <c r="BC8" s="81">
+      <c r="BE8" s="81"/>
+      <c r="BF8" s="81"/>
+      <c r="BG8" s="81">
         <v>30.36343470000001</v>
       </c>
-      <c r="BD8" s="81"/>
-      <c r="BE8" s="83">
+      <c r="BH8" s="81"/>
+      <c r="BI8" s="83">
         <v>126.16128830000001</v>
       </c>
-      <c r="BF8" s="81"/>
-      <c r="BG8" s="81"/>
-      <c r="BH8" s="81"/>
-      <c r="BI8" s="81"/>
       <c r="BJ8" s="81"/>
-      <c r="BK8" s="81">
-        <f t="shared" si="9"/>
-        <v>156.52472300000002</v>
-      </c>
+      <c r="BK8" s="81"/>
       <c r="BL8" s="81"/>
       <c r="BM8" s="81"/>
-      <c r="BN8" s="81">
-        <f t="shared" si="10"/>
-        <v>156.52472300000002</v>
-      </c>
-      <c r="BO8" s="80"/>
-      <c r="BP8" s="104">
+      <c r="BN8" s="81"/>
+      <c r="BO8" s="81">
         <f t="shared" si="11"/>
         <v>156.52472300000002</v>
       </c>
-      <c r="BQ8" s="80"/>
-      <c r="BR8" s="9">
+      <c r="BP8" s="81"/>
+      <c r="BQ8" s="81">
+        <f>16750/1000</f>
+        <v>16.75</v>
+      </c>
+      <c r="BR8" s="81">
         <f t="shared" si="12"/>
-        <v>0.11495739389786494</v>
-      </c>
-      <c r="BS8" s="89">
+        <v>173.27472300000002</v>
+      </c>
+      <c r="BS8" s="80"/>
+      <c r="BT8" s="104">
+        <f t="shared" si="13"/>
+        <v>173.27472300000002</v>
+      </c>
+      <c r="BU8" s="80"/>
+      <c r="BV8" s="9">
+        <f t="shared" si="14"/>
+        <v>0.11190286521539797</v>
+      </c>
+      <c r="BW8" s="89">
         <v>-228.62027399999994</v>
       </c>
-      <c r="BT8" s="82">
+      <c r="BX8" s="82">
         <v>438.43403735549998</v>
       </c>
-      <c r="BU8" s="82">
+      <c r="BY8" s="82">
         <v>6055.2877873554999</v>
       </c>
-      <c r="BV8" s="82">
+      <c r="BZ8" s="82">
         <v>1154.7390946445003</v>
       </c>
-      <c r="BW8" s="82">
+      <c r="CA8" s="82">
         <v>288.68477366112506</v>
       </c>
-      <c r="BX8" s="81">
+      <c r="CB8" s="81">
         <v>-71.291023310187484</v>
       </c>
-      <c r="BY8" s="82">
+      <c r="CC8" s="82">
         <v>-28.421722948000024</v>
       </c>
-      <c r="BZ8" s="82">
+      <c r="CD8" s="82">
         <v>16.792377263062463</v>
       </c>
-      <c r="CA8" s="82">
-        <f>SUM(BW8:BZ8)</f>
+      <c r="CE8" s="82">
+        <f>SUM(CA8:CD8)</f>
         <v>205.76440466600002</v>
       </c>
-      <c r="CB8" s="82"/>
-      <c r="CC8" s="82"/>
-      <c r="CD8" s="82"/>
-      <c r="CE8" s="82"/>
       <c r="CF8" s="82"/>
       <c r="CG8" s="82"/>
       <c r="CH8" s="82"/>
       <c r="CI8" s="82"/>
       <c r="CJ8" s="82"/>
-      <c r="CK8" s="56"/>
-      <c r="CL8" s="56"/>
-      <c r="CM8" s="81"/>
-      <c r="CN8" s="81"/>
-      <c r="CO8" s="90"/>
-      <c r="CP8" s="57"/>
-      <c r="CQ8" s="57"/>
-      <c r="CR8" s="88">
+      <c r="CK8" s="82"/>
+      <c r="CL8" s="82"/>
+      <c r="CM8" s="82"/>
+      <c r="CN8" s="82"/>
+      <c r="CO8" s="56"/>
+      <c r="CP8" s="56"/>
+      <c r="CQ8" s="81"/>
+      <c r="CR8" s="81"/>
+      <c r="CS8" s="90"/>
+      <c r="CT8" s="57"/>
+      <c r="CU8" s="57"/>
+      <c r="CV8" s="88">
         <v>0.11388429680322036</v>
       </c>
-      <c r="CS8" s="88"/>
-      <c r="CT8" s="84">
+      <c r="CW8" s="88"/>
+      <c r="CX8" s="84">
         <v>8.8700000000000001E-2</v>
       </c>
-      <c r="CU8" s="59">
-        <f>CU7*1.01</f>
+      <c r="CY8" s="59">
+        <f>CY7*1.01</f>
         <v>34.290661500000006</v>
       </c>
-      <c r="CV8" s="85">
+      <c r="CZ8" s="85">
         <v>17.314238969770201</v>
       </c>
     </row>
-    <row r="13" spans="1:100" x14ac:dyDescent="0.2">
-      <c r="BP13" s="96"/>
+    <row r="13" spans="1:104" x14ac:dyDescent="0.2">
+      <c r="BT13" s="96"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8184,7 +8577,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">

--- a/Funding Model Inputs 2021.xlsx
+++ b/Funding Model Inputs 2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truongbui/Dropbox/Work/Reason/Reason Work/Montana/Benefit Models/Montana-PERS-BModel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F668649-9778-664C-9BF5-7F73DAF28737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE17AE93-768A-C548-A265-4F1BCB7931B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1662,7 +1662,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1686,7 +1686,7 @@
         <v>215</v>
       </c>
       <c r="C2" s="25">
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1697,7 +1697,7 @@
         <v>216</v>
       </c>
       <c r="C3" s="25">
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1719,7 +1719,7 @@
         <v>258</v>
       </c>
       <c r="C5" s="13">
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -4121,11 +4121,11 @@
       </c>
       <c r="D9" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E9" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F9" s="71">
         <v>-0.24</v>
@@ -4161,11 +4161,11 @@
       </c>
       <c r="D10" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E10" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F10" s="73">
         <v>0.11</v>
@@ -4201,11 +4201,11 @@
       </c>
       <c r="D11" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E11" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F11" s="73">
         <v>0.11</v>
@@ -4241,11 +4241,11 @@
       </c>
       <c r="D12" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E12" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F12" s="73">
         <v>0.11</v>
@@ -4281,11 +4281,11 @@
       </c>
       <c r="D13" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E13" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F13" s="74">
         <v>0.06</v>
@@ -4321,11 +4321,11 @@
       </c>
       <c r="D14" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E14" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F14" s="74">
         <v>0.06</v>
@@ -4361,11 +4361,11 @@
       </c>
       <c r="D15" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E15" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F15" s="74">
         <v>0.06</v>
@@ -4401,11 +4401,11 @@
       </c>
       <c r="D16" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E16" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F16" s="74">
         <v>0.06</v>
@@ -4441,11 +4441,11 @@
       </c>
       <c r="D17" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E17" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F17" s="74">
         <v>0.06</v>
@@ -4481,11 +4481,11 @@
       </c>
       <c r="D18" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E18" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F18" s="74">
         <v>0.06</v>
@@ -4521,11 +4521,11 @@
       </c>
       <c r="D19" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E19" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F19" s="74">
         <v>0.06</v>
@@ -4561,11 +4561,11 @@
       </c>
       <c r="D20" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E20" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F20" s="74">
         <v>0.06</v>
@@ -4601,11 +4601,11 @@
       </c>
       <c r="D21" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E21" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F21" s="74">
         <v>0.06</v>
@@ -4641,11 +4641,11 @@
       </c>
       <c r="D22" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E22" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F22" s="74">
         <v>0.06</v>
@@ -4681,11 +4681,11 @@
       </c>
       <c r="D23" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E23" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F23" s="74">
         <v>0.06</v>
@@ -4721,11 +4721,11 @@
       </c>
       <c r="D24" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E24" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F24" s="74">
         <v>0.06</v>
@@ -4761,11 +4761,11 @@
       </c>
       <c r="D25" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E25" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F25" s="74">
         <v>0.06</v>
@@ -4801,11 +4801,11 @@
       </c>
       <c r="D26" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E26" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F26" s="74">
         <v>0.06</v>
@@ -4841,11 +4841,11 @@
       </c>
       <c r="D27" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E27" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F27" s="74">
         <v>0.06</v>
@@ -4881,11 +4881,11 @@
       </c>
       <c r="D28" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E28" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F28" s="74">
         <v>0.06</v>
@@ -4921,11 +4921,11 @@
       </c>
       <c r="D29" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E29" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F29" s="74">
         <v>0.06</v>
@@ -4961,11 +4961,11 @@
       </c>
       <c r="D30" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E30" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F30" s="74">
         <v>0.06</v>
@@ -5001,11 +5001,11 @@
       </c>
       <c r="D31" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E31" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F31" s="74">
         <v>0.06</v>
@@ -5041,11 +5041,11 @@
       </c>
       <c r="D32" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E32" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F32" s="74">
         <v>0.06</v>
@@ -5081,11 +5081,11 @@
       </c>
       <c r="D33" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E33" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F33" s="74">
         <v>0.06</v>
@@ -5121,11 +5121,11 @@
       </c>
       <c r="D34" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E34" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F34" s="74">
         <v>0.06</v>
@@ -5161,11 +5161,11 @@
       </c>
       <c r="D35" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E35" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F35" s="74">
         <v>0.06</v>
@@ -5201,11 +5201,11 @@
       </c>
       <c r="D36" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E36" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F36" s="74">
         <v>0.06</v>
@@ -5241,11 +5241,11 @@
       </c>
       <c r="D37" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E37" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F37" s="74">
         <v>0.06</v>
@@ -5281,11 +5281,11 @@
       </c>
       <c r="D38" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E38" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F38" s="74">
         <v>0.06</v>
@@ -5321,11 +5321,11 @@
       </c>
       <c r="D39" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E39" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F39" s="74">
         <v>0.06</v>
@@ -5361,11 +5361,11 @@
       </c>
       <c r="D40" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E40" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F40" s="74">
         <v>0.06</v>
@@ -5401,11 +5401,11 @@
       </c>
       <c r="D41" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E41" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F41" s="74">
         <v>0.06</v>
@@ -5441,11 +5441,11 @@
       </c>
       <c r="D42" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E42" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F42" s="74">
         <v>0.06</v>
@@ -5481,11 +5481,11 @@
       </c>
       <c r="D43" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E43" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F43" s="74">
         <v>0.06</v>
@@ -5521,11 +5521,11 @@
       </c>
       <c r="D44" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E44" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F44" s="74">
         <v>0.06</v>
@@ -5561,11 +5561,11 @@
       </c>
       <c r="D45" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E45" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F45" s="74">
         <v>0.06</v>
@@ -5601,11 +5601,11 @@
       </c>
       <c r="D46" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E46" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F46" s="74">
         <v>0.06</v>
@@ -5641,11 +5641,11 @@
       </c>
       <c r="D47" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E47" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F47" s="74">
         <v>0.06</v>
@@ -5681,11 +5681,11 @@
       </c>
       <c r="D48" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E48" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F48" s="74">
         <v>0.06</v>
@@ -5721,11 +5721,11 @@
       </c>
       <c r="D49" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E49" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F49" s="74">
         <v>0.06</v>
@@ -5761,11 +5761,11 @@
       </c>
       <c r="D50" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E50" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F50" s="74">
         <v>0.06</v>
@@ -5801,11 +5801,11 @@
       </c>
       <c r="D51" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E51" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F51" s="74">
         <v>0.06</v>
@@ -5841,11 +5841,11 @@
       </c>
       <c r="D52" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E52" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F52" s="74">
         <v>0.06</v>
@@ -5881,11 +5881,11 @@
       </c>
       <c r="D53" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E53" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F53" s="74">
         <v>0.06</v>
@@ -5921,11 +5921,11 @@
       </c>
       <c r="D54" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E54" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F54" s="74">
         <v>0.06</v>
@@ -5961,11 +5961,11 @@
       </c>
       <c r="D55" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E55" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F55" s="74">
         <v>0.06</v>
@@ -6001,11 +6001,11 @@
       </c>
       <c r="D56" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E56" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F56" s="74">
         <v>0.06</v>
@@ -6041,11 +6041,11 @@
       </c>
       <c r="D57" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E57" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F57" s="74">
         <v>0.06</v>
@@ -6081,11 +6081,11 @@
       </c>
       <c r="D58" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E58" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F58" s="74">
         <v>0.06</v>
@@ -6121,11 +6121,11 @@
       </c>
       <c r="D59" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E59" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F59" s="74">
         <v>0.06</v>
@@ -6161,11 +6161,11 @@
       </c>
       <c r="D60" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E60" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F60" s="74">
         <v>0.06</v>
@@ -6201,11 +6201,11 @@
       </c>
       <c r="D61" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E61" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F61" s="74">
         <v>0.06</v>
@@ -6241,11 +6241,11 @@
       </c>
       <c r="D62" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E62" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F62" s="74">
         <v>0.06</v>
@@ -6281,11 +6281,11 @@
       </c>
       <c r="D63" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E63" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F63" s="74">
         <v>0.06</v>
@@ -6321,11 +6321,11 @@
       </c>
       <c r="D64" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E64" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F64" s="74">
         <v>0.06</v>
@@ -6361,11 +6361,11 @@
       </c>
       <c r="D65" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E65" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F65" s="74">
         <v>0.06</v>
@@ -6401,11 +6401,11 @@
       </c>
       <c r="D66" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E66" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F66" s="74">
         <v>0.06</v>
@@ -6441,11 +6441,11 @@
       </c>
       <c r="D67" s="69">
         <f>'Numeric Inputs'!$C$5</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E67" s="70">
         <f>'Numeric Inputs'!$C$2</f>
-        <v>7.6499999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F67" s="74">
         <v>0.06</v>

--- a/Funding Model Inputs 2021.xlsx
+++ b/Funding Model Inputs 2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truongbui/Dropbox/Work/Reason/Reason Work/Montana/Benefit Models/Montana-PERS-BModel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE17AE93-768A-C548-A265-4F1BCB7931B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD4428D-C5E1-6047-876F-3C1AB629C015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Numeric Inputs" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="Historical Data" sheetId="2" r:id="rId7"/>
     <sheet name="Benefit Payments" sheetId="11" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <calcPr calcId="191029" calcMode="autoNoTable"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -857,7 +860,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -865,6 +868,7 @@
     <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="170" formatCode="0.000000000000000%"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -1113,7 +1117,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1372,6 +1376,7 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1394,6 +1399,44 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Numeric Inputs"/>
+      <sheetName val="Character Inputs"/>
+      <sheetName val="List Box"/>
+      <sheetName val="Amortization_NewDebt"/>
+      <sheetName val="Amortization_CurrentDebt"/>
+      <sheetName val="Inv_Returns"/>
+      <sheetName val="Historical Data"/>
+      <sheetName val="Benefit Payments"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="C2">
+            <v>7.2999999999999995E-2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>7.2999999999999995E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1661,8 +1704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1670,7 +1713,8 @@
     <col min="1" max="1" width="48.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -2213,7 +2257,7 @@
         <v>78</v>
       </c>
       <c r="C47" s="65">
-        <v>8.3366394042968806E-2</v>
+        <v>7.9888164348844645E-2</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -2226,6 +2270,7 @@
       <c r="C48" s="66">
         <v>6.9290149999999995E-2</v>
       </c>
+      <c r="E48" s="106"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -3787,8 +3832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4120,18 +4165,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D9" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="E9" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="F9" s="71">
-        <v>-0.24</v>
-      </c>
-      <c r="G9" s="71">
-        <v>-0.24</v>
+        <v>-4.3999999999999997E-2</v>
+      </c>
+      <c r="E9" s="69">
+        <v>-4.3999999999999997E-2</v>
+      </c>
+      <c r="F9" s="69">
+        <v>-4.3999999999999997E-2</v>
+      </c>
+      <c r="G9" s="69">
+        <v>-4.3999999999999997E-2</v>
       </c>
       <c r="H9" s="72">
         <v>0.05</v>
@@ -4160,18 +4203,18 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D10" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E10" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="F10" s="73">
-        <v>0.11</v>
-      </c>
-      <c r="G10" s="73">
-        <v>0.11</v>
+        <f>'[1]Numeric Inputs'!$C$2</f>
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="F10" s="71">
+        <v>-0.24</v>
+      </c>
+      <c r="G10" s="71">
+        <v>-0.24</v>
       </c>
       <c r="H10" s="72">
         <v>0.05</v>
@@ -4200,11 +4243,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D11" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E11" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F11" s="73">
@@ -4240,11 +4283,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E12" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F12" s="73">
@@ -4280,18 +4323,18 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D13" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E13" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="F13" s="74">
-        <v>0.06</v>
-      </c>
-      <c r="G13" s="74">
-        <v>0.06</v>
+        <f>'[1]Numeric Inputs'!$C$2</f>
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="F13" s="73">
+        <v>0.11</v>
+      </c>
+      <c r="G13" s="73">
+        <v>0.11</v>
       </c>
       <c r="H13" s="72">
         <v>0.05</v>
@@ -4320,11 +4363,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D14" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E14" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F14" s="74">
@@ -4360,11 +4403,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D15" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E15" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F15" s="74">
@@ -4400,11 +4443,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D16" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E16" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F16" s="74">
@@ -4440,11 +4483,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D17" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E17" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F17" s="74">
@@ -4480,11 +4523,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D18" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E18" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F18" s="74">
@@ -4520,11 +4563,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D19" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E19" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F19" s="74">
@@ -4560,11 +4603,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D20" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E20" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F20" s="74">
@@ -4600,11 +4643,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D21" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E21" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F21" s="74">
@@ -4640,11 +4683,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D22" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E22" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F22" s="74">
@@ -4680,11 +4723,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D23" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E23" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F23" s="74">
@@ -4720,18 +4763,18 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D24" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E24" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F24" s="74">
         <v>0.06</v>
       </c>
-      <c r="G24" s="73">
-        <v>-0.24</v>
+      <c r="G24" s="74">
+        <v>0.06</v>
       </c>
       <c r="H24" s="75">
         <v>8.0142406836996249E-2</v>
@@ -4760,18 +4803,18 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D25" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E25" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F25" s="74">
         <v>0.06</v>
       </c>
       <c r="G25" s="73">
-        <v>0.11</v>
+        <v>-0.24</v>
       </c>
       <c r="H25" s="75">
         <v>8.0142406836996249E-2</v>
@@ -4800,11 +4843,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D26" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E26" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F26" s="74">
@@ -4840,11 +4883,11 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="D27" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E27" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F27" s="74">
@@ -4880,18 +4923,18 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="D28" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E28" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F28" s="74">
         <v>0.06</v>
       </c>
-      <c r="G28" s="74">
-        <v>0.06</v>
+      <c r="G28" s="73">
+        <v>0.11</v>
       </c>
       <c r="H28" s="75">
         <v>8.0142406836996249E-2</v>
@@ -4920,11 +4963,11 @@
         <v>0.02</v>
       </c>
       <c r="D29" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E29" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F29" s="74">
@@ -4960,11 +5003,11 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="D30" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E30" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F30" s="74">
@@ -5000,11 +5043,11 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="D31" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E31" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F31" s="74">
@@ -5040,11 +5083,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D32" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E32" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F32" s="74">
@@ -5080,11 +5123,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D33" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E33" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F33" s="74">
@@ -5120,11 +5163,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D34" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E34" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F34" s="74">
@@ -5160,11 +5203,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D35" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E35" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F35" s="74">
@@ -5200,11 +5243,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D36" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E36" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F36" s="74">
@@ -5240,11 +5283,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D37" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E37" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F37" s="74">
@@ -5280,11 +5323,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D38" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E38" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F38" s="74">
@@ -5320,11 +5363,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D39" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E39" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F39" s="74">
@@ -5360,11 +5403,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D40" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E40" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F40" s="74">
@@ -5400,11 +5443,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D41" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E41" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F41" s="74">
@@ -5440,11 +5483,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D42" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E42" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F42" s="74">
@@ -5480,11 +5523,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D43" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E43" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F43" s="74">
@@ -5520,11 +5563,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D44" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E44" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F44" s="74">
@@ -5560,11 +5603,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D45" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E45" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F45" s="74">
@@ -5600,11 +5643,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D46" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E46" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F46" s="74">
@@ -5640,11 +5683,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D47" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E47" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F47" s="74">
@@ -5680,11 +5723,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D48" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E48" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F48" s="74">
@@ -5720,11 +5763,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D49" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E49" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F49" s="74">
@@ -5760,11 +5803,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D50" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E50" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F50" s="74">
@@ -5800,11 +5843,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D51" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E51" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F51" s="74">
@@ -5840,11 +5883,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D52" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E52" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F52" s="74">
@@ -5880,11 +5923,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D53" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E53" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F53" s="74">
@@ -5920,11 +5963,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D54" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E54" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F54" s="74">
@@ -5960,11 +6003,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D55" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E55" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F55" s="74">
@@ -6000,11 +6043,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D56" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E56" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F56" s="74">
@@ -6040,11 +6083,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D57" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E57" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F57" s="74">
@@ -6080,11 +6123,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D58" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E58" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F58" s="74">
@@ -6120,11 +6163,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D59" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E59" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F59" s="74">
@@ -6160,11 +6203,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D60" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E60" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F60" s="74">
@@ -6200,11 +6243,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D61" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E61" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F61" s="74">
@@ -6240,11 +6283,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D62" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E62" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F62" s="74">
@@ -6280,11 +6323,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D63" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E63" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F63" s="74">
@@ -6320,11 +6363,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D64" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E64" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F64" s="74">
@@ -6360,11 +6403,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D65" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E65" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F65" s="74">
@@ -6400,11 +6443,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D66" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E66" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F66" s="74">
@@ -6440,11 +6483,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D67" s="69">
-        <f>'Numeric Inputs'!$C$5</f>
+        <f>'[1]Numeric Inputs'!$C$5</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E67" s="70">
-        <f>'Numeric Inputs'!$C$2</f>
+        <f>'[1]Numeric Inputs'!$C$2</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F67" s="74">
@@ -6478,7 +6521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:CZ13"/>
   <sheetViews>
-    <sheetView topLeftCell="AO1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="W1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="AV8" sqref="AV8"/>
     </sheetView>
   </sheetViews>
